--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -26,16 +26,34 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">why_hic_help_lic_responsibility</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_interest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_duty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">why_hic_help_lic_none</t>
+    <t xml:space="preserve">solidarity_support_billionaire_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_corporate_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_expanding_security_council</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_foreign_aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_debt_relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_bridgetown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_loss_damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_ncqg_300bn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_shipping_levy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">solidarity_support_aviation_levy</t>
   </si>
 </sst>
 </file>
@@ -386,13 +404,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.144766146993318</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.0973451327433628</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.172413793103448</v>
       </c>
     </row>
     <row r="3">
@@ -400,13 +418,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.356347438752784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.187807276302852</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.261083743842365</v>
       </c>
     </row>
     <row r="4">
@@ -414,13 +432,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.162583518930958</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.134709931170108</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.214285714285714</v>
       </c>
     </row>
     <row r="5">
@@ -428,13 +446,97 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>0.206013363028953</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.232055063913471</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.205665024630542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.172022684310019</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.148580968280467</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.202061855670103</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.11358574610245</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.101278269419862</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.166256157635468</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.147448015122873</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.148580968280467</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.208247422680412</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.243856332703214</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.253756260434057</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.288659793814433</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.257088846880907</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.146911519198664</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.220618556701031</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.325141776937618</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.307178631051753</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.36701030927835</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -410,7 +410,7 @@
         <v>0.0973451327433628</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172413793103448</v>
+        <v>0.172959805115713</v>
       </c>
     </row>
     <row r="3">
@@ -424,7 +424,7 @@
         <v>0.187807276302852</v>
       </c>
       <c r="D3" t="n">
-        <v>0.261083743842365</v>
+        <v>0.259439707673569</v>
       </c>
     </row>
     <row r="4">
@@ -438,7 +438,7 @@
         <v>0.134709931170108</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214285714285714</v>
+        <v>0.214372716199756</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
         <v>0.232055063913471</v>
       </c>
       <c r="D5" t="n">
-        <v>0.205665024630542</v>
+        <v>0.207064555420219</v>
       </c>
     </row>
     <row r="6">
@@ -466,7 +466,7 @@
         <v>0.148580968280467</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202061855670103</v>
+        <v>0.202040816326531</v>
       </c>
     </row>
     <row r="7">
@@ -480,7 +480,7 @@
         <v>0.101278269419862</v>
       </c>
       <c r="D7" t="n">
-        <v>0.166256157635468</v>
+        <v>0.165651644336175</v>
       </c>
     </row>
     <row r="8">
@@ -494,7 +494,7 @@
         <v>0.148580968280467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.208247422680412</v>
+        <v>0.208163265306122</v>
       </c>
     </row>
     <row r="9">
@@ -508,7 +508,7 @@
         <v>0.253756260434057</v>
       </c>
       <c r="D9" t="n">
-        <v>0.288659793814433</v>
+        <v>0.285714285714286</v>
       </c>
     </row>
     <row r="10">
@@ -522,7 +522,7 @@
         <v>0.146911519198664</v>
       </c>
       <c r="D10" t="n">
-        <v>0.220618556701031</v>
+        <v>0.220408163265306</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         <v>0.307178631051753</v>
       </c>
       <c r="D11" t="n">
-        <v>0.36701030927835</v>
+        <v>0.363265306122449</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -26,34 +26,19 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">solidarity_support_billionaire_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_corporate_tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_expanding_security_council</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_foreign_aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_debt_relief</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_bridgetown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_loss_damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_ncqg_300bn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_shipping_levy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solidarity_support_aviation_levy</t>
+    <t xml:space="preserve">global_movement_no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global_movement_spread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global_movement_demonstrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global_movement_strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">global_movement_donate</t>
   </si>
 </sst>
 </file>
@@ -404,13 +389,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>0.144766146993318</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0973451327433628</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.172959805115713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -418,13 +403,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.356347438752784</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.187807276302852</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.259439707673569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -432,13 +417,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.162583518930958</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.134709931170108</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.214372716199756</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -446,13 +431,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.206013363028953</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232055063913471</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.207064555420219</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -460,83 +445,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172022684310019</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.148580968280467</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.202040816326531</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.11358574610245</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.101278269419862</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.165651644336175</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.147448015122873</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.148580968280467</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.208163265306122</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.243856332703214</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.253756260434057</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.285714285714286</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.257088846880907</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.146911519198664</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.220408163265306</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.325141776937618</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.307178631051753</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.363265306122449</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,33 +12,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">global_movement_no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_spread</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_demonstrate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">global_movement_donate</t>
+    <t xml:space="preserve">Duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_consent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_socios_demos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_conjoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_global_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_warm_glow_substitute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_gcs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_ics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_warm_glow_realism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_ncqg_maritime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_wealth_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_preferred_transfer_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_radical_redistr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_custom_redistr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_scenarios_tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">duration_end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration: feedback</t>
   </si>
 </sst>
 </file>
@@ -383,75 +443,656 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>54.6189095383723</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.3462511599175</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>98.7207048236767</v>
+      </c>
+      <c r="E2" t="n">
+        <v>45.2286762009534</v>
+      </c>
+      <c r="F2" t="n">
+        <v>53.4824600470356</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.1475932130575</v>
+      </c>
+      <c r="H2" t="n">
+        <v>94.3922441708897</v>
+      </c>
+      <c r="I2" t="n">
+        <v>40.3358303743502</v>
+      </c>
+      <c r="J2" t="n">
+        <v>165.744630606035</v>
+      </c>
+      <c r="K2" t="n">
+        <v>26.8104519691443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.865022053242708</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.913626861264172</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.67229429012988</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.9043057203118</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.18744863638474</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.879079547906068</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.38380988120751</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.156898151074898</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.655937545563089</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.4067722397219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2.35624567153668</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.17611144637241</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>21.4826814697689</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.56588540561128</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.81770263631153</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4.03690255944187</v>
+      </c>
+      <c r="H4" t="n">
+        <v>16.812656278836</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.49173922555039</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.3130296875054</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.90531774081634</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1.31952463965807</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.962012274645765</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>6.97911308997</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.968525137340013</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.83704619458625</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2.97265683301789</v>
+      </c>
+      <c r="H5" t="n">
+        <v>17.8571997589622</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.569412479479255</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.938182656309299</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.01759806933454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1.08676599909981</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>16.1142266459751</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>49.9070548322777</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.95640658236354</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12.6676120345269</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000000584332130337046</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36.0050665625499</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10.8410617820713</v>
+      </c>
+      <c r="J6" t="n">
+        <v>95.5968826184198</v>
+      </c>
+      <c r="K6" t="n">
+        <v>9.16243203533066</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>20.5450832310566</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.7064706955598</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.91740159941223</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.2529171253632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.396402877254</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.34018341576523</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.87778838943067</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.44163616196702</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.45760993306465</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.19540426986552</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.680376490407819</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.405484165138313</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.325474137932971</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.35871428304161</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.29488350450417</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.303403004571755</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.63007188308936</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.276674638742063</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.386171094649682</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.302462699769574</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.29132896776312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.85053533656424</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.65792755271118</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2.57006743655871</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.8486885148394</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.251667840268</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.81464859602475</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.88926904701893</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1.87948838872397</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.75904696605387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.29334747443912</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.717805429814601</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.491950541627924</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2.30147445915731</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7512185407334</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.22339685682717</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.40978166367703</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.953788946244413</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.53242638669542</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.598783640652059</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.36465870529506</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.39714805995399</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.26773819931512</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.61667343240804</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7.9918760186416</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2.32117547399132</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.56302130763023</v>
+      </c>
+      <c r="I11" t="n">
+        <v>6.65020362221881</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.58479505923857</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.7620910708996</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1.48089355693076</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.41602112877734</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.24637814914496</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.914751173464597</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.26994966946393</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.20840630422911</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.41553034772146</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.05983847366979</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1.07260198108513</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.849667840903672</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.39577425847138</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.472044903225971</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.25070043752206</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.355926696122851</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.634669335725619</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.49606900957256</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.820382043205865</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.770888276127</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.441582033173771</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.63383646036015</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.04235018326547</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.00479958068661</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.27735927458447</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3.32013986089704</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.29474826244436</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.49281444373671</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.980764995447258</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.822825688217261</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1.15451634411555</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.783594634147201</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.22315031433486</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.23092400463247</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.30973780953563</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.08616292634026</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2.09186383933597</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.37435238885321</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.76671163620203</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.86101572387303</v>
+      </c>
+      <c r="J15" t="n">
+        <v>24.1125839959294</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.43192433593584</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.46741576028084</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.85490971010894</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.71556803366515</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.61005916742777</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.67838238424891</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.01082303815988</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.03306982029171</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.33812086202477</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.87606510348827</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.33597676888169</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2.02477150255011</v>
+      </c>
+      <c r="C17" t="n">
+        <v>4.00853289509892</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.44664086637642</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2.71817515556044</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4.97807724161202</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.96023688201242</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.825124345772</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.82621973944783</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.53532012863652</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.63593285193528</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.27390079470754</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.04154103843431</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.08498224342931</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.20992867609149</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.14936981923541</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.47780751813595</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.5609186102891</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.58852149087229</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.41118459026011</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.28583426122548</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.90829993533233</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.07405698366455</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.687702296272786</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.51856296289349</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.592520537187359</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.798617512236242</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.635698050552692</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.797716065751166</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.796253059176779</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.743776083310911</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,17 +47,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Responsibility: Historical responsibility
-of HICs for situation in LICs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Interest: Long-term interest of HICs to help LICs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duty: Helping countries in need is the right thing to do.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None of the above</t>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -429,139 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.337242704278055</v>
+        <v>0.438243282743741</v>
       </c>
       <c r="C2" t="n">
-        <v>0.262071421403225</v>
+        <v>0.257059914009895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.319682601975388</v>
+        <v>0.119397018394321</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148514851485149</v>
+        <v>0.313531353135314</v>
       </c>
       <c r="F2" t="n">
-        <v>0.368503833930367</v>
+        <v>0.174611563359644</v>
       </c>
       <c r="G2" t="n">
-        <v>0.299304347473331</v>
+        <v>0.074652299573663</v>
       </c>
       <c r="H2" t="n">
-        <v>0.336113490984074</v>
+        <v>0.240023226486286</v>
       </c>
       <c r="I2" t="n">
-        <v>0.405181316753714</v>
+        <v>0.392747394012088</v>
       </c>
       <c r="J2" t="n">
-        <v>0.272157431335329</v>
+        <v>0.332252083931629</v>
       </c>
       <c r="K2" t="n">
-        <v>0.215888172513039</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.514656843018661</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.503217031770231</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.435006755039462</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.324532453245325</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.490617054464876</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.431405059232998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.396382993587254</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.231959390835321</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.399399536238222</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.251349733803071</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.457220511038379</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.599764049546094</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.539201523213714</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.414741474147415</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.432085481862817</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5943857048782</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.587000595037613</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.46013223398978</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.506197135879451</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.579154751295584</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.167982401263503</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.0781175039607839</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.0912475578686122</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.284928492849285</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.0652933005243475</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0709676154453763</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.0865844692736444</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.22623863920524</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.199331886097932</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.210975490534381</v>
+        <v>0.285942891184355</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,7 +47,43 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+shipping, returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on carbon emissions from
+aviation, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -419,34 +455,349 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.438243282743741</v>
+        <v>0.148345054976338</v>
       </c>
       <c r="C2" t="n">
-        <v>0.257059914009895</v>
+        <v>0.164626418093062</v>
       </c>
       <c r="D2" t="n">
-        <v>0.119397018394321</v>
+        <v>0.0878691515659276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.313531353135314</v>
+        <v>0.151241534988713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.174611563359644</v>
+        <v>0.242030322478</v>
       </c>
       <c r="G2" t="n">
-        <v>0.074652299573663</v>
+        <v>0.110825922218048</v>
       </c>
       <c r="H2" t="n">
-        <v>0.240023226486286</v>
+        <v>0.164101549856204</v>
       </c>
       <c r="I2" t="n">
-        <v>0.392747394012088</v>
+        <v>0.130454989155178</v>
       </c>
       <c r="J2" t="n">
-        <v>0.332252083931629</v>
+        <v>0.113637108566545</v>
       </c>
       <c r="K2" t="n">
-        <v>0.285942891184355</v>
+        <v>0.124423958797284</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.269605974037411</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.17716626890754</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.211830246145068</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.257336343115124</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.322189066572437</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.217328276081293</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.332459307328206</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.375613308328331</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.207309356436613</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.128469731947588</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.229845263168846</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.17135960302278</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.123388384740287</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.117381489841986</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.216172116970376</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0938780102412482</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.128822356098934</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.268514137419585</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.148657081325396</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.108870963947623</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.32480244345413</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.253614673842886</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.110513606554042</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.2686230248307</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.284661534966153</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0928640385415484</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.170932376470894</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.24125946556901</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.24946596024262</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.114055295564177</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.314064603666174</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.174883893402069</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.114891432123889</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0812641083521445</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.125553468430532</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0945749667622995</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.232984452377131</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.312581075115807</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.262197815566409</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.138838395180695</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.165317083059495</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0882346573627283</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.0394848337395693</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.214446952595937</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.127067062076456</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.100670912995176</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.124393548055803</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.202252630108296</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.175101256902462</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.010368663233107</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.215537251385057</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.154514853869767</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.077602607420866</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.153498871331828</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.294346255956274</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.092878291320968</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.202832271473211</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.124310066199403</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.147054442052943</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0622654897904371</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.283477585064584</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.248385823054286</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.137890073735735</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.248306997742664</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.344232907572162</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0982299135944322</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.235685066932155</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.281419688715027</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.251106378178376</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.197004601429032</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.14454075086595</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.232033604999944</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0897155002701062</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.173814898419865</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.304606053424779</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.130358793732087</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.242861228146872</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.220227744394622</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.153115606411822</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.108870963947623</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.259678562764484</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.389145688959349</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.255907367344973</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.237020316027088</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.440356101407811</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.252624496151859</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.395625082930106</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.388169247337258</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.252557781576688</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.278868859219435</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,43 +47,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum tax of 2% on billionaires'
-wealth, in voluntary countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-shipping, returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on carbon emissions from
-aviation, returned to countries based on population</t>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -455,349 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.148345054976338</v>
+        <v>0.409836410693276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.164626418093062</v>
+        <v>0.291874024628858</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0878691515659276</v>
+        <v>0.167944548659207</v>
       </c>
       <c r="E2" t="n">
-        <v>0.151241534988713</v>
+        <v>0.232553328467236</v>
       </c>
       <c r="F2" t="n">
-        <v>0.242030322478</v>
+        <v>0.224682365000697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.110825922218048</v>
+        <v>0.0849700887483226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.164101549856204</v>
+        <v>0.225969082162438</v>
       </c>
       <c r="I2" t="n">
-        <v>0.130454989155178</v>
+        <v>0.387165886125429</v>
       </c>
       <c r="J2" t="n">
-        <v>0.113637108566545</v>
+        <v>0.324015477992606</v>
       </c>
       <c r="K2" t="n">
-        <v>0.124423958797284</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.269605974037411</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.17716626890754</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.211830246145068</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.257336343115124</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.322189066572437</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.217328276081293</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.332459307328206</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.375613308328331</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.207309356436613</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.128469731947588</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.229845263168846</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.17135960302278</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.123388384740287</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.117381489841986</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.216172116970376</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.0938780102412482</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.128822356098934</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.268514137419585</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.148657081325396</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.108870963947623</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.32480244345413</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.253614673842886</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.110513606554042</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.2686230248307</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.284661534966153</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0928640385415484</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.170932376470894</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.24125946556901</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.24946596024262</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.114055295564177</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.314064603666174</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.174883893402069</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.114891432123889</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.0812641083521445</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.125553468430532</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.0945749667622995</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.232984452377131</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.312581075115807</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.262197815566409</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.138838395180695</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.165317083059495</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.0882346573627283</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.0394848337395693</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.214446952595937</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.127067062076456</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.100670912995176</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.124393548055803</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.202252630108296</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.175101256902462</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.010368663233107</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.215537251385057</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.154514853869767</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.077602607420866</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.153498871331828</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.294346255956274</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.092878291320968</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.202832271473211</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.124310066199403</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.147054442052943</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0622654897904371</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.283477585064584</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.248385823054286</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.137890073735735</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.248306997742664</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.344232907572162</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0982299135944322</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.235685066932155</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.281419688715027</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.251106378178376</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.197004601429032</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.14454075086595</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.232033604999944</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.0897155002701062</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.173814898419865</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.304606053424779</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.130358793732087</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.242861228146872</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.220227744394622</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.153115606411822</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.108870963947623</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.259678562764484</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.389145688959349</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.255907367344973</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.237020316027088</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.440356101407811</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.252624496151859</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.395625082930106</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.388169247337258</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.252557781576688</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.278868859219435</v>
+        <v>0.33641095447565</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
   </si>
 </sst>
 </file>
@@ -419,34 +419,34 @@
         <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.409836410693276</v>
+        <v>0.612356985514925</v>
       </c>
       <c r="C2" t="n">
-        <v>0.291874024628858</v>
+        <v>0.580859894498473</v>
       </c>
       <c r="D2" t="n">
-        <v>0.167944548659207</v>
+        <v>0.739913584563118</v>
       </c>
       <c r="E2" t="n">
-        <v>0.232553328467236</v>
+        <v>0.55247423355968</v>
       </c>
       <c r="F2" t="n">
-        <v>0.224682365000697</v>
+        <v>0.534948999740369</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0849700887483226</v>
+        <v>0.842896551734276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.225969082162438</v>
+        <v>0.664453305286869</v>
       </c>
       <c r="I2" t="n">
-        <v>0.387165886125429</v>
+        <v>0.638546618131183</v>
       </c>
       <c r="J2" t="n">
-        <v>0.324015477992606</v>
+        <v>0.592086655549235</v>
       </c>
       <c r="K2" t="n">
-        <v>0.33641095447565</v>
+        <v>0.453059461603854</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,42 +12,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in the U.S.
+(except for the U.S.: support in the EU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
+*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
+*High color: High + Distributive effects displayed using colors on world map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
+*Mid: Global South + China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
+*Low: Global South + EU)</t>
   </si>
 </sst>
 </file>
@@ -404,49 +418,187 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="n">
+        <v>56.3639868952022</v>
+      </c>
+      <c r="C2" t="n">
+        <v>60.5569946089801</v>
+      </c>
+      <c r="D2" t="n">
+        <v>54.6463376857384</v>
+      </c>
+      <c r="E2" t="n">
+        <v>64.5035458559718</v>
+      </c>
+      <c r="F2" t="n">
+        <v>57.5335226072956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>84.3380432623891</v>
+      </c>
+      <c r="H2" t="n">
+        <v>47.6259730104953</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="n">
+        <v>34.3455077975836</v>
+      </c>
+      <c r="C3" t="n">
+        <v>28.0355158596464</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.8591089308659</v>
+      </c>
+      <c r="E3" t="n">
+        <v>25.3832571311288</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.7964256295476</v>
+      </c>
+      <c r="G3" t="n">
+        <v>45.291373979237</v>
+      </c>
+      <c r="H3" t="n">
+        <v>42.4040946837611</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>42.5574333274623</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.4505444046913</v>
+      </c>
+      <c r="D4" t="n">
+        <v>44.8409655646873</v>
+      </c>
+      <c r="E4" t="n">
+        <v>43.8248904709614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.2281838448364</v>
+      </c>
+      <c r="G4" t="n">
+        <v>54.9042600841208</v>
+      </c>
+      <c r="H4" t="n">
+        <v>43.1563898238002</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
-        <v>0.612356985514925</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.580859894498473</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.739913584563118</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.55247423355968</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.534948999740369</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.842896551734276</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.664453305286869</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.638546618131183</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.592086655549235</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.453059461603854</v>
+      <c r="B5" t="n">
+        <v>68.4797846013269</v>
+      </c>
+      <c r="C5" t="n">
+        <v>75.7172971994228</v>
+      </c>
+      <c r="D5" t="n">
+        <v>60.367746807593</v>
+      </c>
+      <c r="E5" t="n">
+        <v>80.2921625022916</v>
+      </c>
+      <c r="F5" t="n">
+        <v>70.3649688948398</v>
+      </c>
+      <c r="G5" t="n">
+        <v>89.2630395702026</v>
+      </c>
+      <c r="H5" t="n">
+        <v>61.3190097859686</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="n">
+        <v>63.1922747338702</v>
+      </c>
+      <c r="C6" t="n">
+        <v>68.4318898419856</v>
+      </c>
+      <c r="D6" t="n">
+        <v>68.7158186636906</v>
+      </c>
+      <c r="E6" t="n">
+        <v>67.8231464642976</v>
+      </c>
+      <c r="F6" t="n">
+        <v>63.0666968689808</v>
+      </c>
+      <c r="G6" t="n">
+        <v>86.8668628355021</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55.7762638731718</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="n">
+        <v>67.9004869341497</v>
+      </c>
+      <c r="C7" t="n">
+        <v>76.2597936315326</v>
+      </c>
+      <c r="D7" t="n">
+        <v>67.0603338366483</v>
+      </c>
+      <c r="E7" t="n">
+        <v>63.3953440855901</v>
+      </c>
+      <c r="F7" t="n">
+        <v>68.2575327407304</v>
+      </c>
+      <c r="G7" t="n">
+        <v>87.6160911546928</v>
+      </c>
+      <c r="H7" t="n">
+        <v>57.0538630080154</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="n">
+        <v>64.5460623471237</v>
+      </c>
+      <c r="C8" t="n">
+        <v>69.9322298285966</v>
+      </c>
+      <c r="D8" t="n">
+        <v>61.2454933195732</v>
+      </c>
+      <c r="E8" t="n">
+        <v>63.1254517516158</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67.0645142503371</v>
+      </c>
+      <c r="G8" t="n">
+        <v>86.8214391306789</v>
+      </c>
+      <c r="H8" t="n">
+        <v>57.3626811841157</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -17,10 +17,10 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('European Union')</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -48,20 +48,20 @@
     <t xml:space="preserve">Belief about GCS support in own country</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
   </si>
 </sst>
 </file>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,7 +20,22 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('European Union')</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
@@ -38,30 +53,43 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
-(except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
-                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
-                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members
+(e.g. India, Brazil, AU), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -418,187 +446,430 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.3639868952022</v>
+        <v>0.153270234569076</v>
       </c>
       <c r="C2" t="n">
-        <v>60.5569946089801</v>
+        <v>0.134360680446484</v>
       </c>
       <c r="D2" t="n">
-        <v>54.6463376857384</v>
+        <v>0.126845136404591</v>
       </c>
       <c r="E2" t="n">
-        <v>64.5035458559718</v>
+        <v>0.156916687148391</v>
       </c>
       <c r="F2" t="n">
-        <v>57.5335226072956</v>
+        <v>0.0834981619958427</v>
       </c>
       <c r="G2" t="n">
-        <v>84.3380432623891</v>
+        <v>0.159894616508857</v>
       </c>
       <c r="H2" t="n">
-        <v>47.6259730104953</v>
+        <v>0.142694556910534</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.127009540810843</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.213409066610235</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.131015411458312</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.137775110544788</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.187459428075975</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>34.3455077975836</v>
+        <v>0.248022730274294</v>
       </c>
       <c r="C3" t="n">
-        <v>28.0355158596464</v>
+        <v>0.224375237201706</v>
       </c>
       <c r="D3" t="n">
-        <v>28.8591089308659</v>
+        <v>0.233775881667689</v>
       </c>
       <c r="E3" t="n">
-        <v>25.3832571311288</v>
+        <v>0.192659578992726</v>
       </c>
       <c r="F3" t="n">
-        <v>30.7964256295476</v>
+        <v>0.174031787259253</v>
       </c>
       <c r="G3" t="n">
-        <v>45.291373979237</v>
+        <v>0.242324822389324</v>
       </c>
       <c r="H3" t="n">
-        <v>42.4040946837611</v>
+        <v>0.232703904578798</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.256576385398222</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.400955855112009</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.149980974953625</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.24413541246499</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.319315577202127</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.5574333274623</v>
+        <v>0.184183771420212</v>
       </c>
       <c r="C4" t="n">
-        <v>42.4505444046913</v>
+        <v>0.180434400999453</v>
       </c>
       <c r="D4" t="n">
-        <v>44.8409655646873</v>
+        <v>0.237095750922558</v>
       </c>
       <c r="E4" t="n">
-        <v>43.8248904709614</v>
+        <v>0.143833595700493</v>
       </c>
       <c r="F4" t="n">
-        <v>37.2281838448364</v>
+        <v>0.127517496591845</v>
       </c>
       <c r="G4" t="n">
-        <v>54.9042600841208</v>
+        <v>0.195210650474663</v>
       </c>
       <c r="H4" t="n">
-        <v>43.1563898238002</v>
+        <v>0.151118527977859</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.217371794662297</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.270143858777868</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.165941711680833</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.11790279247491</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.202754874412058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>68.4797846013269</v>
+        <v>0.214895425191271</v>
       </c>
       <c r="C5" t="n">
-        <v>75.7172971994228</v>
+        <v>0.209265094391518</v>
       </c>
       <c r="D5" t="n">
-        <v>60.367746807593</v>
+        <v>0.242922835636372</v>
       </c>
       <c r="E5" t="n">
-        <v>80.2921625022916</v>
+        <v>0.192768758175842</v>
       </c>
       <c r="F5" t="n">
-        <v>70.3649688948398</v>
+        <v>0.154449321373755</v>
       </c>
       <c r="G5" t="n">
-        <v>89.2630395702026</v>
+        <v>0.251521145122996</v>
       </c>
       <c r="H5" t="n">
-        <v>61.3190097859686</v>
+        <v>0.1635713373426</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.240264695454949</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.307549493999881</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.201876788134554</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.118145040384448</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.236385949182609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>63.1922747338702</v>
+        <v>0.207418142581588</v>
       </c>
       <c r="C6" t="n">
-        <v>68.4318898419856</v>
+        <v>0.232179978826282</v>
       </c>
       <c r="D6" t="n">
-        <v>68.7158186636906</v>
+        <v>0.312771659831863</v>
       </c>
       <c r="E6" t="n">
-        <v>67.8231464642976</v>
+        <v>0.268725967037489</v>
       </c>
       <c r="F6" t="n">
-        <v>63.0666968689808</v>
+        <v>0.137505764866803</v>
       </c>
       <c r="G6" t="n">
-        <v>86.8668628355021</v>
+        <v>0.166661428318904</v>
       </c>
       <c r="H6" t="n">
-        <v>55.7762638731718</v>
+        <v>0.203279862720261</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.238940095955959</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.341742843620587</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.162782704308744</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.121771001016338</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.204017455473382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>67.9004869341497</v>
+        <v>0.134862588151164</v>
       </c>
       <c r="C7" t="n">
-        <v>76.2597936315326</v>
+        <v>0.119882184109243</v>
       </c>
       <c r="D7" t="n">
-        <v>67.0603338366483</v>
+        <v>0.141772362541087</v>
       </c>
       <c r="E7" t="n">
-        <v>63.3953440855901</v>
+        <v>0.101458314864634</v>
       </c>
       <c r="F7" t="n">
-        <v>68.2575327407304</v>
+        <v>0.0531570673959603</v>
       </c>
       <c r="G7" t="n">
-        <v>87.6160911546928</v>
+        <v>0.15421826426939</v>
       </c>
       <c r="H7" t="n">
-        <v>57.0538630080154</v>
+        <v>0.0974734831625238</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.165278207258027</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.199784611072303</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.118689122543286</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.137838293974308</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.159905124075407</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>64.5460623471237</v>
+        <v>0.186067645365625</v>
       </c>
       <c r="C8" t="n">
-        <v>69.9322298285966</v>
+        <v>0.16676356730744</v>
       </c>
       <c r="D8" t="n">
-        <v>61.2454933195732</v>
+        <v>0.21576188924847</v>
       </c>
       <c r="E8" t="n">
-        <v>63.1254517516158</v>
+        <v>0.14644369708346</v>
       </c>
       <c r="F8" t="n">
-        <v>67.0645142503371</v>
+        <v>0.092569151560287</v>
       </c>
       <c r="G8" t="n">
-        <v>86.8214391306789</v>
+        <v>0.226221907911515</v>
       </c>
       <c r="H8" t="n">
-        <v>57.3626811841157</v>
+        <v>0.135316653951493</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.195964004730418</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.182841971186547</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.156138647921991</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.108761271635621</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.229775460258685</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.234658688479019</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.220196737367686</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.265325515015843</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.203503477600985</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.176113761623785</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.253231598807335</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.163732195397982</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.244363048540658</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.317593288622807</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.21835130983124</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.126737780239988</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.269449529105393</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.203876070784443</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.187224313731823</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.169697095270643</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.208253187757441</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.120772029221702</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.286519979768003</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.191779114185034</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.165196946466442</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.260979041834027</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.202241865721572</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.149474550468817</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.230108595541135</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.346992156694238</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.355131033453405</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.333146283279912</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.329871403863935</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.355530469827723</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.421665714636377</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.394271697529214</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.333347886449273</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.39067864971107</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.273794102639958</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.270820607294234</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.375337792065733</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -467,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.153270234569076</v>
+        <v>0.155434459050884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.134360680446484</v>
+        <v>0.122273325981241</v>
       </c>
       <c r="D2" t="n">
-        <v>0.126845136404591</v>
+        <v>0.103300487484391</v>
       </c>
       <c r="E2" t="n">
-        <v>0.156916687148391</v>
+        <v>0.140294845551842</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0834981619958427</v>
+        <v>0.0966232599362418</v>
       </c>
       <c r="G2" t="n">
-        <v>0.159894616508857</v>
+        <v>0.151801976104712</v>
       </c>
       <c r="H2" t="n">
-        <v>0.142694556910534</v>
+        <v>0.151429221817782</v>
       </c>
       <c r="I2" t="n">
-        <v>0.127009540810843</v>
+        <v>0.0990496084663115</v>
       </c>
       <c r="J2" t="n">
-        <v>0.213409066610235</v>
+        <v>0.151933964043441</v>
       </c>
       <c r="K2" t="n">
-        <v>0.131015411458312</v>
+        <v>0.124748039229637</v>
       </c>
       <c r="L2" t="n">
-        <v>0.137775110544788</v>
+        <v>0.117329890282858</v>
       </c>
       <c r="M2" t="n">
-        <v>0.187459428075975</v>
+        <v>0.206324327387083</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.248022730274294</v>
+        <v>0.228490294035607</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224375237201706</v>
+        <v>0.191466114905508</v>
       </c>
       <c r="D3" t="n">
-        <v>0.233775881667689</v>
+        <v>0.173324540007724</v>
       </c>
       <c r="E3" t="n">
-        <v>0.192659578992726</v>
+        <v>0.19572969532898</v>
       </c>
       <c r="F3" t="n">
-        <v>0.174031787259253</v>
+        <v>0.121272903511259</v>
       </c>
       <c r="G3" t="n">
-        <v>0.242324822389324</v>
+        <v>0.231987438984964</v>
       </c>
       <c r="H3" t="n">
-        <v>0.232703904578798</v>
+        <v>0.218864665822096</v>
       </c>
       <c r="I3" t="n">
-        <v>0.256576385398222</v>
+        <v>0.2151209268909</v>
       </c>
       <c r="J3" t="n">
-        <v>0.400955855112009</v>
+        <v>0.28321201744308</v>
       </c>
       <c r="K3" t="n">
-        <v>0.149980974953625</v>
+        <v>0.159915574124412</v>
       </c>
       <c r="L3" t="n">
-        <v>0.24413541246499</v>
+        <v>0.162114601293057</v>
       </c>
       <c r="M3" t="n">
-        <v>0.319315577202127</v>
+        <v>0.300259724882826</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184183771420212</v>
+        <v>0.184594270378646</v>
       </c>
       <c r="C4" t="n">
-        <v>0.180434400999453</v>
+        <v>0.16841460862997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.237095750922558</v>
+        <v>0.200073218205721</v>
       </c>
       <c r="E4" t="n">
-        <v>0.143833595700493</v>
+        <v>0.176411010483829</v>
       </c>
       <c r="F4" t="n">
-        <v>0.127517496591845</v>
+        <v>0.142988850948831</v>
       </c>
       <c r="G4" t="n">
-        <v>0.195210650474663</v>
+        <v>0.182791048211612</v>
       </c>
       <c r="H4" t="n">
-        <v>0.151118527977859</v>
+        <v>0.152717272611691</v>
       </c>
       <c r="I4" t="n">
-        <v>0.217371794662297</v>
+        <v>0.147533721892539</v>
       </c>
       <c r="J4" t="n">
-        <v>0.270143858777868</v>
+        <v>0.200981681779973</v>
       </c>
       <c r="K4" t="n">
-        <v>0.165941711680833</v>
+        <v>0.158008055373943</v>
       </c>
       <c r="L4" t="n">
-        <v>0.11790279247491</v>
+        <v>0.120136735225407</v>
       </c>
       <c r="M4" t="n">
-        <v>0.202754874412058</v>
+        <v>0.217733454401515</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.214895425191271</v>
+        <v>0.23215544303978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209265094391518</v>
+        <v>0.235873826738779</v>
       </c>
       <c r="D5" t="n">
-        <v>0.242922835636372</v>
+        <v>0.250626598798127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.192768758175842</v>
+        <v>0.250082502593206</v>
       </c>
       <c r="F5" t="n">
-        <v>0.154449321373755</v>
+        <v>0.179834888734704</v>
       </c>
       <c r="G5" t="n">
-        <v>0.251521145122996</v>
+        <v>0.285848368656854</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1635713373426</v>
+        <v>0.15380749468161</v>
       </c>
       <c r="I5" t="n">
-        <v>0.240264695454949</v>
+        <v>0.279038958548564</v>
       </c>
       <c r="J5" t="n">
-        <v>0.307549493999881</v>
+        <v>0.288067178809436</v>
       </c>
       <c r="K5" t="n">
-        <v>0.201876788134554</v>
+        <v>0.193381421936132</v>
       </c>
       <c r="L5" t="n">
-        <v>0.118145040384448</v>
+        <v>0.110083221454726</v>
       </c>
       <c r="M5" t="n">
-        <v>0.236385949182609</v>
+        <v>0.25318278458033</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +631,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.207418142581588</v>
+        <v>0.243541419686585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.232179978826282</v>
+        <v>0.231913503580497</v>
       </c>
       <c r="D6" t="n">
-        <v>0.312771659831863</v>
+        <v>0.272661694211243</v>
       </c>
       <c r="E6" t="n">
-        <v>0.268725967037489</v>
+        <v>0.307566505270443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.137505764866803</v>
+        <v>0.153674975585445</v>
       </c>
       <c r="G6" t="n">
-        <v>0.166661428318904</v>
+        <v>0.132688635941882</v>
       </c>
       <c r="H6" t="n">
-        <v>0.203279862720261</v>
+        <v>0.216046376316446</v>
       </c>
       <c r="I6" t="n">
-        <v>0.238940095955959</v>
+        <v>0.228473138391114</v>
       </c>
       <c r="J6" t="n">
-        <v>0.341742843620587</v>
+        <v>0.261538920452758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.162782704308744</v>
+        <v>0.170337238290134</v>
       </c>
       <c r="L6" t="n">
-        <v>0.121771001016338</v>
+        <v>0.0986012539821429</v>
       </c>
       <c r="M6" t="n">
-        <v>0.204017455473382</v>
+        <v>0.296176103643668</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +672,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.134862588151164</v>
+        <v>0.146798822121473</v>
       </c>
       <c r="C7" t="n">
-        <v>0.119882184109243</v>
+        <v>0.125420929819844</v>
       </c>
       <c r="D7" t="n">
-        <v>0.141772362541087</v>
+        <v>0.125428545283601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.101458314864634</v>
+        <v>0.128378165661039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0531570673959603</v>
+        <v>0.0965775225907253</v>
       </c>
       <c r="G7" t="n">
-        <v>0.15421826426939</v>
+        <v>0.143777563242226</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0974734831625238</v>
+        <v>0.119607764776814</v>
       </c>
       <c r="I7" t="n">
-        <v>0.165278207258027</v>
+        <v>0.133108067428491</v>
       </c>
       <c r="J7" t="n">
-        <v>0.199784611072303</v>
+        <v>0.196933028803318</v>
       </c>
       <c r="K7" t="n">
-        <v>0.118689122543286</v>
+        <v>0.108600822872224</v>
       </c>
       <c r="L7" t="n">
-        <v>0.137838293974308</v>
+        <v>0.109345846631918</v>
       </c>
       <c r="M7" t="n">
-        <v>0.159905124075407</v>
+        <v>0.187638328119395</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +713,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.186067645365625</v>
+        <v>0.201368564786844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.16676356730744</v>
+        <v>0.191423080943504</v>
       </c>
       <c r="D8" t="n">
-        <v>0.21576188924847</v>
+        <v>0.211498745989116</v>
       </c>
       <c r="E8" t="n">
-        <v>0.14644369708346</v>
+        <v>0.200374916797383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.092569151560287</v>
+        <v>0.136078531323953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.226221907911515</v>
+        <v>0.199776713759577</v>
       </c>
       <c r="H8" t="n">
-        <v>0.135316653951493</v>
+        <v>0.182868034377421</v>
       </c>
       <c r="I8" t="n">
-        <v>0.195964004730418</v>
+        <v>0.203664819877497</v>
       </c>
       <c r="J8" t="n">
-        <v>0.182841971186547</v>
+        <v>0.258689188246867</v>
       </c>
       <c r="K8" t="n">
-        <v>0.156138647921991</v>
+        <v>0.161737360423811</v>
       </c>
       <c r="L8" t="n">
-        <v>0.108761271635621</v>
+        <v>0.0960750087595637</v>
       </c>
       <c r="M8" t="n">
-        <v>0.229775460258685</v>
+        <v>0.236140874504456</v>
       </c>
     </row>
     <row r="9">
@@ -754,40 +754,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.234658688479019</v>
+        <v>0.244050540065786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.220196737367686</v>
+        <v>0.235583562179979</v>
       </c>
       <c r="D9" t="n">
-        <v>0.265325515015843</v>
+        <v>0.24323213589383</v>
       </c>
       <c r="E9" t="n">
-        <v>0.203503477600985</v>
+        <v>0.23097114607241</v>
       </c>
       <c r="F9" t="n">
-        <v>0.176113761623785</v>
+        <v>0.197760787785342</v>
       </c>
       <c r="G9" t="n">
-        <v>0.253231598807335</v>
+        <v>0.262443665913399</v>
       </c>
       <c r="H9" t="n">
-        <v>0.163732195397982</v>
+        <v>0.195113053549863</v>
       </c>
       <c r="I9" t="n">
-        <v>0.244363048540658</v>
+        <v>0.282407188253719</v>
       </c>
       <c r="J9" t="n">
-        <v>0.317593288622807</v>
+        <v>0.246442753883258</v>
       </c>
       <c r="K9" t="n">
-        <v>0.21835130983124</v>
+        <v>0.221210512758891</v>
       </c>
       <c r="L9" t="n">
-        <v>0.126737780239988</v>
+        <v>0.117896335501834</v>
       </c>
       <c r="M9" t="n">
-        <v>0.269449529105393</v>
+        <v>0.272693514539163</v>
       </c>
     </row>
     <row r="10">
@@ -795,40 +795,40 @@
         <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.203876070784443</v>
+        <v>0.22169721285447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.187224313731823</v>
+        <v>0.192316218761347</v>
       </c>
       <c r="D10" t="n">
-        <v>0.169697095270643</v>
+        <v>0.158268386036421</v>
       </c>
       <c r="E10" t="n">
-        <v>0.208253187757441</v>
+        <v>0.204190580310839</v>
       </c>
       <c r="F10" t="n">
-        <v>0.120772029221702</v>
+        <v>0.18528161934255</v>
       </c>
       <c r="G10" t="n">
-        <v>0.286519979768003</v>
+        <v>0.260945415320382</v>
       </c>
       <c r="H10" t="n">
-        <v>0.191779114185034</v>
+        <v>0.193120244814587</v>
       </c>
       <c r="I10" t="n">
-        <v>0.165196946466442</v>
+        <v>0.176260402300941</v>
       </c>
       <c r="J10" t="n">
-        <v>0.260979041834027</v>
+        <v>0.19863163400826</v>
       </c>
       <c r="K10" t="n">
-        <v>0.202241865721572</v>
+        <v>0.20976162949628</v>
       </c>
       <c r="L10" t="n">
-        <v>0.149474550468817</v>
+        <v>0.146029848353691</v>
       </c>
       <c r="M10" t="n">
-        <v>0.230108595541135</v>
+        <v>0.264652536411347</v>
       </c>
     </row>
     <row r="11">
@@ -836,40 +836,40 @@
         <v>22</v>
       </c>
       <c r="B11" t="n">
-        <v>0.346992156694238</v>
+        <v>0.35345383191844</v>
       </c>
       <c r="C11" t="n">
-        <v>0.355131033453405</v>
+        <v>0.349778491448226</v>
       </c>
       <c r="D11" t="n">
-        <v>0.333146283279912</v>
+        <v>0.289836283263724</v>
       </c>
       <c r="E11" t="n">
-        <v>0.329871403863935</v>
+        <v>0.357972071713421</v>
       </c>
       <c r="F11" t="n">
-        <v>0.355530469827723</v>
+        <v>0.38199615383694</v>
       </c>
       <c r="G11" t="n">
-        <v>0.421665714636377</v>
+        <v>0.340860357793142</v>
       </c>
       <c r="H11" t="n">
-        <v>0.394271697529214</v>
+        <v>0.368809200027179</v>
       </c>
       <c r="I11" t="n">
-        <v>0.333347886449273</v>
+        <v>0.36098625572767</v>
       </c>
       <c r="J11" t="n">
-        <v>0.39067864971107</v>
+        <v>0.358744349155536</v>
       </c>
       <c r="K11" t="n">
-        <v>0.273794102639958</v>
+        <v>0.300055166521587</v>
       </c>
       <c r="L11" t="n">
-        <v>0.270820607294234</v>
+        <v>0.248551949605577</v>
       </c>
       <c r="M11" t="n">
-        <v>0.375337792065733</v>
+        <v>0.386548154548762</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
+    <t xml:space="preserve">$ italic('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ italic('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -53,43 +53,34 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum tax of 2% on billionaires'
-wealth, in voluntary countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members
-(e.g. India, Brazil, AU), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to
+have all countries converge in terms of
+GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More/less likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -467,40 +458,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.155434459050884</v>
+        <v>0.276734525491013</v>
       </c>
       <c r="C2" t="n">
-        <v>0.122273325981241</v>
+        <v>0.233948082727515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.103300487484391</v>
+        <v>0.248504271880087</v>
       </c>
       <c r="E2" t="n">
-        <v>0.140294845551842</v>
+        <v>0.254866170947532</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0966232599362418</v>
+        <v>0.15446029657567</v>
       </c>
       <c r="G2" t="n">
-        <v>0.151801976104712</v>
+        <v>0.199113153842718</v>
       </c>
       <c r="H2" t="n">
-        <v>0.151429221817782</v>
+        <v>0.234880575481726</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0990496084663115</v>
+        <v>0.274852600794519</v>
       </c>
       <c r="J2" t="n">
-        <v>0.151933964043441</v>
+        <v>0.340600308759863</v>
       </c>
       <c r="K2" t="n">
-        <v>0.124748039229637</v>
+        <v>0.199683615054914</v>
       </c>
       <c r="L2" t="n">
-        <v>0.117329890282858</v>
+        <v>0.138723584237386</v>
       </c>
       <c r="M2" t="n">
-        <v>0.206324327387083</v>
+        <v>0.364940143731043</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.228490294035607</v>
+        <v>0.313899046838008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191466114905508</v>
+        <v>0.277444779993938</v>
       </c>
       <c r="D3" t="n">
-        <v>0.173324540007724</v>
+        <v>0.254188126034187</v>
       </c>
       <c r="E3" t="n">
-        <v>0.19572969532898</v>
+        <v>0.304639477313125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.121272903511259</v>
+        <v>0.258616423269458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.231987438984964</v>
+        <v>0.209667589863414</v>
       </c>
       <c r="H3" t="n">
-        <v>0.218864665822096</v>
+        <v>0.304845587201296</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2151209268909</v>
+        <v>0.274588672602352</v>
       </c>
       <c r="J3" t="n">
-        <v>0.28321201744308</v>
+        <v>0.475247895178016</v>
       </c>
       <c r="K3" t="n">
-        <v>0.159915574124412</v>
+        <v>0.273274449722429</v>
       </c>
       <c r="L3" t="n">
-        <v>0.162114601293057</v>
+        <v>0.147505425086172</v>
       </c>
       <c r="M3" t="n">
-        <v>0.300259724882826</v>
+        <v>0.388891721420011</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.184594270378646</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.16841460862997</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.200073218205721</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.176411010483829</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.142988850948831</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.182791048211612</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.152717272611691</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.147533721892539</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.200981681779973</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.158008055373943</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.120136735225407</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.217733454401515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +581,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.23215544303978</v>
+        <v>0.278398795871269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.235873826738779</v>
+        <v>0.186924369427457</v>
       </c>
       <c r="D5" t="n">
-        <v>0.250626598798127</v>
+        <v>0.173280031605117</v>
       </c>
       <c r="E5" t="n">
-        <v>0.250082502593206</v>
+        <v>0.219606528838467</v>
       </c>
       <c r="F5" t="n">
-        <v>0.179834888734704</v>
+        <v>0.111205427497835</v>
       </c>
       <c r="G5" t="n">
-        <v>0.285848368656854</v>
+        <v>0.120319246448677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.15380749468161</v>
+        <v>0.147752234015167</v>
       </c>
       <c r="I5" t="n">
-        <v>0.279038958548564</v>
+        <v>0.282718226539135</v>
       </c>
       <c r="J5" t="n">
-        <v>0.288067178809436</v>
+        <v>0.288251641655748</v>
       </c>
       <c r="K5" t="n">
-        <v>0.193381421936132</v>
+        <v>0.236669624808218</v>
       </c>
       <c r="L5" t="n">
-        <v>0.110083221454726</v>
+        <v>0.0569294817140565</v>
       </c>
       <c r="M5" t="n">
-        <v>0.25318278458033</v>
+        <v>0.418898862428991</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +622,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.243541419686585</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.231913503580497</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.272661694211243</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.307566505270443</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.153674975585445</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.132688635941882</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.216046376316446</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.228473138391114</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.261538920452758</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.170337238290134</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0986012539821429</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.296176103643668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +663,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146798822121473</v>
+        <v>0.174405504965135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.125420929819844</v>
+        <v>0.153342169868025</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125428545283601</v>
+        <v>0.171088032207216</v>
       </c>
       <c r="E7" t="n">
-        <v>0.128378165661039</v>
+        <v>0.1452447548347</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0965775225907253</v>
+        <v>0.109405253526735</v>
       </c>
       <c r="G7" t="n">
-        <v>0.143777563242226</v>
+        <v>0.151078249631878</v>
       </c>
       <c r="H7" t="n">
-        <v>0.119607764776814</v>
+        <v>0.143648493092118</v>
       </c>
       <c r="I7" t="n">
-        <v>0.133108067428491</v>
+        <v>0.187737043371869</v>
       </c>
       <c r="J7" t="n">
-        <v>0.196933028803318</v>
+        <v>0.206039241865251</v>
       </c>
       <c r="K7" t="n">
-        <v>0.108600822872224</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.109345846631918</v>
-      </c>
+        <v>0.17749418094638</v>
+      </c>
+      <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.187638328119395</v>
+        <v>0.197224486378323</v>
       </c>
     </row>
     <row r="8">
@@ -713,40 +702,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.201368564786844</v>
+        <v>0.440935979185171</v>
       </c>
       <c r="C8" t="n">
-        <v>0.191423080943504</v>
+        <v>0.385479976575678</v>
       </c>
       <c r="D8" t="n">
-        <v>0.211498745989116</v>
+        <v>0.41672964435384</v>
       </c>
       <c r="E8" t="n">
-        <v>0.200374916797383</v>
+        <v>0.439760279052062</v>
       </c>
       <c r="F8" t="n">
-        <v>0.136078531323953</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.199776713759577</v>
-      </c>
+        <v>0.247777530989459</v>
+      </c>
+      <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.182868034377421</v>
+        <v>0.374497657055554</v>
       </c>
       <c r="I8" t="n">
-        <v>0.203664819877497</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.258689188246867</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.161737360423811</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0960750087595637</v>
-      </c>
+        <v>0.419586625596696</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.236140874504456</v>
+        <v>0.496207968241231</v>
       </c>
     </row>
     <row r="9">
@@ -754,122 +735,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.244050540065786</v>
+        <v>0.28859848970357</v>
       </c>
       <c r="C9" t="n">
-        <v>0.235583562179979</v>
+        <v>0.278729214949066</v>
       </c>
       <c r="D9" t="n">
-        <v>0.24323213589383</v>
+        <v>0.421937767485195</v>
       </c>
       <c r="E9" t="n">
-        <v>0.23097114607241</v>
+        <v>0.270241229874944</v>
       </c>
       <c r="F9" t="n">
-        <v>0.197760787785342</v>
+        <v>0.16150213088141</v>
       </c>
       <c r="G9" t="n">
-        <v>0.262443665913399</v>
+        <v>0.204558613439816</v>
       </c>
       <c r="H9" t="n">
-        <v>0.195113053549863</v>
+        <v>0.233970492241964</v>
       </c>
       <c r="I9" t="n">
-        <v>0.282407188253719</v>
+        <v>0.323394093889926</v>
       </c>
       <c r="J9" t="n">
-        <v>0.246442753883258</v>
+        <v>0.327492673703158</v>
       </c>
       <c r="K9" t="n">
-        <v>0.221210512758891</v>
+        <v>0.230474955849721</v>
       </c>
       <c r="L9" t="n">
-        <v>0.117896335501834</v>
+        <v>0.0817524906793914</v>
       </c>
       <c r="M9" t="n">
-        <v>0.272693514539163</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.22169721285447</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.192316218761347</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.158268386036421</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.204190580310839</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.18528161934255</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.260945415320382</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.193120244814587</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.176260402300941</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.19863163400826</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.20976162949628</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.146029848353691</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.264652536411347</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.35345383191844</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.349778491448226</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.289836283263724</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.357972071713421</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.38199615383694</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.340860357793142</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.368809200027179</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.36098625572767</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.358744349155536</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.300055166521587</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.248551949605577</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.386548154548762</v>
+        <v>0.341151729447326</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ italic('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ italic('Europe')</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -53,34 +53,7 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to
-have all countries converge in terms of
-GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More/less likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -458,317 +431,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.276734525491013</v>
+        <v>0.684971976950318</v>
       </c>
       <c r="C2" t="n">
-        <v>0.233948082727515</v>
+        <v>0.709052233549382</v>
       </c>
       <c r="D2" t="n">
-        <v>0.248504271880087</v>
+        <v>0.719098657982519</v>
       </c>
       <c r="E2" t="n">
-        <v>0.254866170947532</v>
+        <v>0.742152235473654</v>
       </c>
       <c r="F2" t="n">
-        <v>0.15446029657567</v>
+        <v>0.763169851058816</v>
       </c>
       <c r="G2" t="n">
-        <v>0.199113153842718</v>
+        <v>0.58985384550952</v>
       </c>
       <c r="H2" t="n">
-        <v>0.234880575481726</v>
+        <v>0.730280336839806</v>
       </c>
       <c r="I2" t="n">
-        <v>0.274852600794519</v>
+        <v>0.670504795205127</v>
       </c>
       <c r="J2" t="n">
-        <v>0.340600308759863</v>
+        <v>0.635823622009053</v>
       </c>
       <c r="K2" t="n">
-        <v>0.199683615054914</v>
+        <v>0.7567947956425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.138723584237386</v>
+        <v>0.720406204237396</v>
       </c>
       <c r="M2" t="n">
-        <v>0.364940143731043</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.313899046838008</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.277444779993938</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.254188126034187</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.304639477313125</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.258616423269458</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.209667589863414</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.304845587201296</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.274588672602352</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.475247895178016</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.273274449722429</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.147505425086172</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.388891721420011</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.278398795871269</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.186924369427457</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.173280031605117</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.219606528838467</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.111205427497835</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.120319246448677</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.147752234015167</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.282718226539135</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.288251641655748</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.236669624808218</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0569294817140565</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.418898862428991</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.174405504965135</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.153342169868025</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.171088032207216</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.1452447548347</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.109405253526735</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.151078249631878</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.143648493092118</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.187737043371869</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.206039241865251</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.17749418094638</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.197224486378323</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.440935979185171</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.385479976575678</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.41672964435384</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.439760279052062</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.247777530989459</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="n">
-        <v>0.374497657055554</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.419586625596696</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.496207968241231</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.28859848970357</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.278729214949066</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.421937767485195</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.270241229874944</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.16150213088141</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.204558613439816</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.233970492241964</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.323394093889926</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.327492673703158</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.230474955849721</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0817524906793914</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.341151729447326</v>
+        <v>0.62592635305428</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,7 +53,33 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in the U.S.
+(except for the U.S.: support in the EU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
+*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
+*High color: High + Distributive effects displayed using colors on world map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
+*Mid: Global South + China)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
+*Low: Global South + EU)</t>
   </si>
 </sst>
 </file>
@@ -431,40 +457,327 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.684971976950318</v>
+        <v>66.1036722833492</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709052233549382</v>
+        <v>66.7783924141804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.719098657982519</v>
+        <v>61.9845777208619</v>
       </c>
       <c r="E2" t="n">
-        <v>0.742152235473654</v>
+        <v>68.654571695664</v>
       </c>
       <c r="F2" t="n">
-        <v>0.763169851058816</v>
+        <v>72.9149757060565</v>
       </c>
       <c r="G2" t="n">
-        <v>0.58985384550952</v>
+        <v>62.3347021614265</v>
       </c>
       <c r="H2" t="n">
-        <v>0.730280336839806</v>
+        <v>67.353719370047</v>
       </c>
       <c r="I2" t="n">
-        <v>0.670504795205127</v>
+        <v>66.4965123651615</v>
       </c>
       <c r="J2" t="n">
-        <v>0.635823622009053</v>
+        <v>53.5212409476305</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7567947956425</v>
+        <v>68.1433597197012</v>
       </c>
       <c r="L2" t="n">
-        <v>0.720406204237396</v>
+        <v>87.6358643506975</v>
       </c>
       <c r="M2" t="n">
-        <v>0.62592635305428</v>
+        <v>61.7830664136398</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="n">
+        <v>55.6397895159913</v>
+      </c>
+      <c r="C3" t="n">
+        <v>59.8385761272752</v>
+      </c>
+      <c r="D3" t="n">
+        <v>63.5292411561426</v>
+      </c>
+      <c r="E3" t="n">
+        <v>53.400299859363</v>
+      </c>
+      <c r="F3" t="n">
+        <v>77.2842012385981</v>
+      </c>
+      <c r="G3" t="n">
+        <v>48.7904886430868</v>
+      </c>
+      <c r="H3" t="n">
+        <v>65.3372172173408</v>
+      </c>
+      <c r="I3" t="n">
+        <v>53.0087197505916</v>
+      </c>
+      <c r="J3" t="n">
+        <v>63.0232518060541</v>
+      </c>
+      <c r="K3" t="n">
+        <v>57.3187073709986</v>
+      </c>
+      <c r="L3" t="n">
+        <v>84.6049047609271</v>
+      </c>
+      <c r="M3" t="n">
+        <v>45.8184570589519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="n">
+        <v>35.1141014545863</v>
+      </c>
+      <c r="C4" t="n">
+        <v>27.6633852111035</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.3819169552489</v>
+      </c>
+      <c r="E4" t="n">
+        <v>24.380250296693</v>
+      </c>
+      <c r="F4" t="n">
+        <v>29.5785526480387</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32.4118963098679</v>
+      </c>
+      <c r="H4" t="n">
+        <v>28.6472871585359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>27.1893445864172</v>
+      </c>
+      <c r="J4" t="n">
+        <v>25.8845451284831</v>
+      </c>
+      <c r="K4" t="n">
+        <v>30.7580330175846</v>
+      </c>
+      <c r="L4" t="n">
+        <v>45.4091539061278</v>
+      </c>
+      <c r="M4" t="n">
+        <v>44.4293951520934</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>41.9873929493001</v>
+      </c>
+      <c r="C5" t="n">
+        <v>42.1715346405757</v>
+      </c>
+      <c r="D5" t="n">
+        <v>44.251875827686</v>
+      </c>
+      <c r="E5" t="n">
+        <v>38.7374982409203</v>
+      </c>
+      <c r="F5" t="n">
+        <v>43.3146762581329</v>
+      </c>
+      <c r="G5" t="n">
+        <v>41.7568157671271</v>
+      </c>
+      <c r="H5" t="n">
+        <v>43.0038892990848</v>
+      </c>
+      <c r="I5" t="n">
+        <v>42.7391448977195</v>
+      </c>
+      <c r="J5" t="n">
+        <v>44.8467299156933</v>
+      </c>
+      <c r="K5" t="n">
+        <v>37.1894180359108</v>
+      </c>
+      <c r="L5" t="n">
+        <v>54.8868174089149</v>
+      </c>
+      <c r="M5" t="n">
+        <v>42.5306342230128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>69.2721656438609</v>
+      </c>
+      <c r="C6" t="n">
+        <v>73.2585171309042</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.7498942934659</v>
+      </c>
+      <c r="E6" t="n">
+        <v>79.6480019699949</v>
+      </c>
+      <c r="F6" t="n">
+        <v>79.5398268462392</v>
+      </c>
+      <c r="G6" t="n">
+        <v>72.0077760686355</v>
+      </c>
+      <c r="H6" t="n">
+        <v>73.4192028656965</v>
+      </c>
+      <c r="I6" t="n">
+        <v>60.7217483757996</v>
+      </c>
+      <c r="J6" t="n">
+        <v>77.9728828213442</v>
+      </c>
+      <c r="K6" t="n">
+        <v>70.1897252986994</v>
+      </c>
+      <c r="L6" t="n">
+        <v>89.606999922271</v>
+      </c>
+      <c r="M6" t="n">
+        <v>62.9657334899789</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>61.9194188819647</v>
+      </c>
+      <c r="C7" t="n">
+        <v>67.2710679655062</v>
+      </c>
+      <c r="D7" t="n">
+        <v>59.7986013142994</v>
+      </c>
+      <c r="E7" t="n">
+        <v>67.2814135417663</v>
+      </c>
+      <c r="F7" t="n">
+        <v>80.1383055797017</v>
+      </c>
+      <c r="G7" t="n">
+        <v>58.0466040127207</v>
+      </c>
+      <c r="H7" t="n">
+        <v>76.8392463607422</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62.6438087621243</v>
+      </c>
+      <c r="J7" t="n">
+        <v>65.5085287839802</v>
+      </c>
+      <c r="K7" t="n">
+        <v>62.9995293195343</v>
+      </c>
+      <c r="L7" t="n">
+        <v>87.5000615572334</v>
+      </c>
+      <c r="M7" t="n">
+        <v>53.8633671055717</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>68.608382336033</v>
+      </c>
+      <c r="C8" t="n">
+        <v>73.7747865623621</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75.9143211244513</v>
+      </c>
+      <c r="E8" t="n">
+        <v>77.7821500341743</v>
+      </c>
+      <c r="F8" t="n">
+        <v>82.7125282124079</v>
+      </c>
+      <c r="G8" t="n">
+        <v>57.5061436015004</v>
+      </c>
+      <c r="H8" t="n">
+        <v>77.562574141932</v>
+      </c>
+      <c r="I8" t="n">
+        <v>63.0929544265643</v>
+      </c>
+      <c r="J8" t="n">
+        <v>65.441209520763</v>
+      </c>
+      <c r="K8" t="n">
+        <v>68.4293334926366</v>
+      </c>
+      <c r="L8" t="n">
+        <v>86.5036107524227</v>
+      </c>
+      <c r="M8" t="n">
+        <v>60.5245040069312</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>64.8106046830804</v>
+      </c>
+      <c r="C9" t="n">
+        <v>67.8750882052422</v>
+      </c>
+      <c r="D9" t="n">
+        <v>74.1559688392613</v>
+      </c>
+      <c r="E9" t="n">
+        <v>62.5479356463123</v>
+      </c>
+      <c r="F9" t="n">
+        <v>84.0392863268597</v>
+      </c>
+      <c r="G9" t="n">
+        <v>61.950827367926</v>
+      </c>
+      <c r="H9" t="n">
+        <v>68.6586942883502</v>
+      </c>
+      <c r="I9" t="n">
+        <v>58.4505049639036</v>
+      </c>
+      <c r="J9" t="n">
+        <v>62.7024126401683</v>
+      </c>
+      <c r="K9" t="n">
+        <v>67.1246837505235</v>
+      </c>
+      <c r="L9" t="n">
+        <v>87.0785953799257</v>
+      </c>
+      <c r="M9" t="n">
+        <v>58.0464492256474</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
   </si>
   <si>
     <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
@@ -457,40 +454,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>66.1036722833492</v>
+        <v>56.0650539932544</v>
       </c>
       <c r="C2" t="n">
-        <v>66.7783924141804</v>
+        <v>59.9767867316001</v>
       </c>
       <c r="D2" t="n">
-        <v>61.9845777208619</v>
+        <v>63.2700981847943</v>
       </c>
       <c r="E2" t="n">
-        <v>68.654571695664</v>
+        <v>53.9437883785325</v>
       </c>
       <c r="F2" t="n">
-        <v>72.9149757060565</v>
+        <v>77.6556203940037</v>
       </c>
       <c r="G2" t="n">
-        <v>62.3347021614265</v>
+        <v>49.9398713953255</v>
       </c>
       <c r="H2" t="n">
-        <v>67.353719370047</v>
+        <v>67.1115053493221</v>
       </c>
       <c r="I2" t="n">
-        <v>66.4965123651615</v>
+        <v>55.6336797510309</v>
       </c>
       <c r="J2" t="n">
-        <v>53.5212409476305</v>
+        <v>64.5175728082397</v>
       </c>
       <c r="K2" t="n">
-        <v>68.1433597197012</v>
+        <v>57.3517481952712</v>
       </c>
       <c r="L2" t="n">
-        <v>87.6358643506975</v>
+        <v>84.4269389541221</v>
       </c>
       <c r="M2" t="n">
-        <v>61.7830664136398</v>
+        <v>47.8269033083932</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +495,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>55.6397895159913</v>
+        <v>35.1042798121032</v>
       </c>
       <c r="C3" t="n">
-        <v>59.8385761272752</v>
+        <v>27.6518716447151</v>
       </c>
       <c r="D3" t="n">
-        <v>63.5292411561426</v>
+        <v>27.2294748169102</v>
       </c>
       <c r="E3" t="n">
-        <v>53.400299859363</v>
+        <v>24.5994790740185</v>
       </c>
       <c r="F3" t="n">
-        <v>77.2842012385981</v>
+        <v>29.6762973985407</v>
       </c>
       <c r="G3" t="n">
-        <v>48.7904886430868</v>
+        <v>32.5372156021431</v>
       </c>
       <c r="H3" t="n">
-        <v>65.3372172173408</v>
+        <v>29.052834078804</v>
       </c>
       <c r="I3" t="n">
-        <v>53.0087197505916</v>
+        <v>27.3824938125986</v>
       </c>
       <c r="J3" t="n">
-        <v>63.0232518060541</v>
+        <v>25.6402293477376</v>
       </c>
       <c r="K3" t="n">
-        <v>57.3187073709986</v>
+        <v>30.647815935588</v>
       </c>
       <c r="L3" t="n">
-        <v>84.6049047609271</v>
+        <v>45.8491347721866</v>
       </c>
       <c r="M3" t="n">
-        <v>45.8184570589519</v>
+        <v>44.2670019029335</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +536,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>35.1141014545863</v>
+        <v>42.1246803058577</v>
       </c>
       <c r="C4" t="n">
-        <v>27.6633852111035</v>
+        <v>42.2253854565563</v>
       </c>
       <c r="D4" t="n">
-        <v>27.3819169552489</v>
+        <v>44.470418822047</v>
       </c>
       <c r="E4" t="n">
-        <v>24.380250296693</v>
+        <v>38.8721664498457</v>
       </c>
       <c r="F4" t="n">
-        <v>29.5785526480387</v>
+        <v>43.2099455377032</v>
       </c>
       <c r="G4" t="n">
-        <v>32.4118963098679</v>
+        <v>41.3978517628264</v>
       </c>
       <c r="H4" t="n">
-        <v>28.6472871585359</v>
+        <v>42.5332510847262</v>
       </c>
       <c r="I4" t="n">
-        <v>27.1893445864172</v>
+        <v>42.3868565281114</v>
       </c>
       <c r="J4" t="n">
-        <v>25.8845451284831</v>
+        <v>45.7080771208213</v>
       </c>
       <c r="K4" t="n">
-        <v>30.7580330175846</v>
+        <v>37.201299617047</v>
       </c>
       <c r="L4" t="n">
-        <v>45.4091539061278</v>
+        <v>54.540958857809</v>
       </c>
       <c r="M4" t="n">
-        <v>44.4293951520934</v>
+        <v>42.7454939880076</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +577,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>41.9873929493001</v>
+        <v>68.7680772081816</v>
       </c>
       <c r="C5" t="n">
-        <v>42.1715346405757</v>
+        <v>73.1218926963556</v>
       </c>
       <c r="D5" t="n">
-        <v>44.251875827686</v>
+        <v>74.8167047886158</v>
       </c>
       <c r="E5" t="n">
-        <v>38.7374982409203</v>
+        <v>77.6651627043769</v>
       </c>
       <c r="F5" t="n">
-        <v>43.3146762581329</v>
+        <v>78.8397130847818</v>
       </c>
       <c r="G5" t="n">
-        <v>41.7568157671271</v>
+        <v>72.2699048322857</v>
       </c>
       <c r="H5" t="n">
-        <v>43.0038892990848</v>
+        <v>74.5477531500109</v>
       </c>
       <c r="I5" t="n">
-        <v>42.7391448977195</v>
+        <v>60.0402570984565</v>
       </c>
       <c r="J5" t="n">
-        <v>44.8467299156933</v>
+        <v>73.6100890945228</v>
       </c>
       <c r="K5" t="n">
-        <v>37.1894180359108</v>
+        <v>70.1481006948373</v>
       </c>
       <c r="L5" t="n">
-        <v>54.8868174089149</v>
+        <v>90.0654906679775</v>
       </c>
       <c r="M5" t="n">
-        <v>42.5306342230128</v>
+        <v>60.7478220876848</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +618,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>69.2721656438609</v>
+        <v>62.1896236156339</v>
       </c>
       <c r="C6" t="n">
-        <v>73.2585171309042</v>
+        <v>67.1115592003635</v>
       </c>
       <c r="D6" t="n">
-        <v>72.7498942934659</v>
+        <v>60.4730488644622</v>
       </c>
       <c r="E6" t="n">
-        <v>79.6480019699949</v>
+        <v>68.0636151109856</v>
       </c>
       <c r="F6" t="n">
-        <v>79.5398268462392</v>
+        <v>79.4761890940301</v>
       </c>
       <c r="G6" t="n">
-        <v>72.0077760686355</v>
+        <v>56.7344935799568</v>
       </c>
       <c r="H6" t="n">
-        <v>73.4192028656965</v>
+        <v>75.0361553936562</v>
       </c>
       <c r="I6" t="n">
-        <v>60.7217483757996</v>
+        <v>62.8577545120797</v>
       </c>
       <c r="J6" t="n">
-        <v>77.9728828213442</v>
+        <v>64.0106767264055</v>
       </c>
       <c r="K6" t="n">
-        <v>70.1897252986994</v>
+        <v>62.3553312644136</v>
       </c>
       <c r="L6" t="n">
-        <v>89.606999922271</v>
+        <v>87.2000915084034</v>
       </c>
       <c r="M6" t="n">
-        <v>62.9657334899789</v>
+        <v>56.1980732174042</v>
       </c>
     </row>
     <row r="7">
@@ -662,40 +659,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>61.9194188819647</v>
+        <v>68.295755153958</v>
       </c>
       <c r="C7" t="n">
-        <v>67.2710679655062</v>
+        <v>74.00108635788</v>
       </c>
       <c r="D7" t="n">
-        <v>59.7986013142994</v>
+        <v>75.9824976861691</v>
       </c>
       <c r="E7" t="n">
-        <v>67.2814135417663</v>
+        <v>76.5212509698029</v>
       </c>
       <c r="F7" t="n">
-        <v>80.1383055797017</v>
+        <v>82.0911143552899</v>
       </c>
       <c r="G7" t="n">
-        <v>58.0466040127207</v>
+        <v>57.844321296245</v>
       </c>
       <c r="H7" t="n">
-        <v>76.8392463607422</v>
+        <v>77.1387230629468</v>
       </c>
       <c r="I7" t="n">
-        <v>62.6438087621243</v>
+        <v>63.9288486521255</v>
       </c>
       <c r="J7" t="n">
-        <v>65.5085287839802</v>
+        <v>65.3226794291234</v>
       </c>
       <c r="K7" t="n">
-        <v>62.9995293195343</v>
+        <v>68.0870870197065</v>
       </c>
       <c r="L7" t="n">
-        <v>87.5000615572334</v>
+        <v>86.5707126249889</v>
       </c>
       <c r="M7" t="n">
-        <v>53.8633671055717</v>
+        <v>58.8203739198101</v>
       </c>
     </row>
     <row r="8">
@@ -703,81 +700,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>68.608382336033</v>
+        <v>64.9140364624805</v>
       </c>
       <c r="C8" t="n">
-        <v>73.7747865623621</v>
+        <v>67.6681288442518</v>
       </c>
       <c r="D8" t="n">
-        <v>75.9143211244513</v>
+        <v>74.0987064843566</v>
       </c>
       <c r="E8" t="n">
-        <v>77.7821500341743</v>
+        <v>60.4196721477108</v>
       </c>
       <c r="F8" t="n">
-        <v>82.7125282124079</v>
+        <v>84.8527289283848</v>
       </c>
       <c r="G8" t="n">
-        <v>57.5061436015004</v>
+        <v>61.8758199978058</v>
       </c>
       <c r="H8" t="n">
-        <v>77.562574141932</v>
+        <v>69.2345950551897</v>
       </c>
       <c r="I8" t="n">
-        <v>63.0929544265643</v>
+        <v>63.0583838143701</v>
       </c>
       <c r="J8" t="n">
-        <v>65.441209520763</v>
+        <v>61.9437084459907</v>
       </c>
       <c r="K8" t="n">
-        <v>68.4293334926366</v>
+        <v>67.2484523865818</v>
       </c>
       <c r="L8" t="n">
-        <v>86.5036107524227</v>
+        <v>86.9585511765621</v>
       </c>
       <c r="M8" t="n">
-        <v>60.5245040069312</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>64.8106046830804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67.8750882052422</v>
-      </c>
-      <c r="D9" t="n">
-        <v>74.1559688392613</v>
-      </c>
-      <c r="E9" t="n">
-        <v>62.5479356463123</v>
-      </c>
-      <c r="F9" t="n">
-        <v>84.0392863268597</v>
-      </c>
-      <c r="G9" t="n">
-        <v>61.950827367926</v>
-      </c>
-      <c r="H9" t="n">
-        <v>68.6586942883502</v>
-      </c>
-      <c r="I9" t="n">
-        <v>58.4505049639036</v>
-      </c>
-      <c r="J9" t="n">
-        <v>62.7024126401683</v>
-      </c>
-      <c r="K9" t="n">
-        <v>67.1246837505235</v>
-      </c>
-      <c r="L9" t="n">
-        <v>87.0785953799257</v>
-      </c>
-      <c r="M9" t="n">
-        <v>58.0464492256474</v>
+        <v>58.7690833811101</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
@@ -53,30 +53,23 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in the U.S.
-(except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions
-*High: Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 64-72% of world emissions,
-*High color: High + Distributive effects displayed using colors on world map</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 56% of world emissions
-*Mid: Global South + China)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the GCS if its other members* cover 25-33% of world emissions
-*Low: Global South + EU)</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -454,40 +447,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.0650539932544</v>
+        <v>0.24502784407319</v>
       </c>
       <c r="C2" t="n">
-        <v>59.9767867316001</v>
+        <v>0.237731295253419</v>
       </c>
       <c r="D2" t="n">
-        <v>63.2700981847943</v>
+        <v>0.243781094527363</v>
       </c>
       <c r="E2" t="n">
-        <v>53.9437883785325</v>
+        <v>0.243761996161228</v>
       </c>
       <c r="F2" t="n">
-        <v>77.6556203940037</v>
+        <v>0.145118733509235</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9398713953255</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="H2" t="n">
-        <v>67.1115053493221</v>
+        <v>0.219047619047619</v>
       </c>
       <c r="I2" t="n">
-        <v>55.6336797510309</v>
+        <v>0.279487179487179</v>
       </c>
       <c r="J2" t="n">
-        <v>64.5175728082397</v>
+        <v>0.339055793991416</v>
       </c>
       <c r="K2" t="n">
-        <v>57.3517481952712</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>84.4269389541221</v>
+        <v>0.157446808510638</v>
       </c>
       <c r="M2" t="n">
-        <v>47.8269033083932</v>
+        <v>0.338475499092559</v>
       </c>
     </row>
     <row r="3">
@@ -495,40 +488,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>35.1042798121032</v>
+        <v>0.293436293436293</v>
       </c>
       <c r="C3" t="n">
-        <v>27.6518716447151</v>
+        <v>0.295068714632175</v>
       </c>
       <c r="D3" t="n">
-        <v>27.2294748169102</v>
+        <v>0.252525252525253</v>
       </c>
       <c r="E3" t="n">
-        <v>24.5994790740185</v>
+        <v>0.309236947791165</v>
       </c>
       <c r="F3" t="n">
-        <v>29.6762973985407</v>
+        <v>0.254641909814324</v>
       </c>
       <c r="G3" t="n">
-        <v>32.5372156021431</v>
+        <v>0.240157480314961</v>
       </c>
       <c r="H3" t="n">
-        <v>29.052834078804</v>
+        <v>0.289198606271777</v>
       </c>
       <c r="I3" t="n">
-        <v>27.3824938125986</v>
+        <v>0.266978922716628</v>
       </c>
       <c r="J3" t="n">
-        <v>25.6402293477376</v>
+        <v>0.519148936170213</v>
       </c>
       <c r="K3" t="n">
-        <v>30.647815935588</v>
+        <v>0.284466019417476</v>
       </c>
       <c r="L3" t="n">
-        <v>45.8491347721866</v>
+        <v>0.145283018867925</v>
       </c>
       <c r="M3" t="n">
-        <v>44.2670019029335</v>
+        <v>0.366492146596859</v>
       </c>
     </row>
     <row r="4">
@@ -536,40 +529,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>42.1246803058577</v>
+        <v>0.234130094043887</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2253854565563</v>
+        <v>0.197983870967742</v>
       </c>
       <c r="D4" t="n">
-        <v>44.470418822047</v>
+        <v>0.18546365914787</v>
       </c>
       <c r="E4" t="n">
-        <v>38.8721664498457</v>
+        <v>0.213935230618253</v>
       </c>
       <c r="F4" t="n">
-        <v>43.2099455377032</v>
+        <v>0.113756613756614</v>
       </c>
       <c r="G4" t="n">
-        <v>41.3978517628264</v>
+        <v>0.142</v>
       </c>
       <c r="H4" t="n">
-        <v>42.5332510847262</v>
+        <v>0.13953488372093</v>
       </c>
       <c r="I4" t="n">
-        <v>42.3868565281114</v>
+        <v>0.290085679314565</v>
       </c>
       <c r="J4" t="n">
-        <v>45.7080771208213</v>
+        <v>0.294871794871795</v>
       </c>
       <c r="K4" t="n">
-        <v>37.201299617047</v>
+        <v>0.242</v>
       </c>
       <c r="L4" t="n">
-        <v>54.540958857809</v>
+        <v>0.063</v>
       </c>
       <c r="M4" t="n">
-        <v>42.7454939880076</v>
+        <v>0.383007117437722</v>
       </c>
     </row>
     <row r="5">
@@ -577,40 +570,32 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>68.7680772081816</v>
+        <v>0.415384615384615</v>
       </c>
       <c r="C5" t="n">
-        <v>73.1218926963556</v>
+        <v>0.384769539078156</v>
       </c>
       <c r="D5" t="n">
-        <v>74.8167047886158</v>
+        <v>0.422305764411028</v>
       </c>
       <c r="E5" t="n">
-        <v>77.6651627043769</v>
+        <v>0.425907752698724</v>
       </c>
       <c r="F5" t="n">
-        <v>78.8397130847818</v>
-      </c>
-      <c r="G5" t="n">
-        <v>72.2699048322857</v>
-      </c>
+        <v>0.247354497354497</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" t="n">
-        <v>74.5477531500109</v>
+        <v>0.387043189368771</v>
       </c>
       <c r="I5" t="n">
-        <v>60.0402570984565</v>
-      </c>
-      <c r="J5" t="n">
-        <v>73.6100890945228</v>
-      </c>
-      <c r="K5" t="n">
-        <v>70.1481006948373</v>
-      </c>
-      <c r="L5" t="n">
-        <v>90.0654906679775</v>
-      </c>
+        <v>0.422276621787026</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
       <c r="M5" t="n">
-        <v>60.7478220876848</v>
+        <v>0.469750889679715</v>
       </c>
     </row>
     <row r="6">
@@ -618,122 +603,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>62.1896236156339</v>
+        <v>0.266359717868339</v>
       </c>
       <c r="C6" t="n">
-        <v>67.1115592003635</v>
+        <v>0.284677419354839</v>
       </c>
       <c r="D6" t="n">
-        <v>60.4730488644622</v>
+        <v>0.422305764411028</v>
       </c>
       <c r="E6" t="n">
-        <v>68.0636151109856</v>
+        <v>0.273797841020608</v>
       </c>
       <c r="F6" t="n">
-        <v>79.4761890940301</v>
+        <v>0.16005291005291</v>
       </c>
       <c r="G6" t="n">
-        <v>56.7344935799568</v>
+        <v>0.244</v>
       </c>
       <c r="H6" t="n">
-        <v>75.0361553936562</v>
+        <v>0.20265780730897</v>
       </c>
       <c r="I6" t="n">
-        <v>62.8577545120797</v>
+        <v>0.329253365973072</v>
       </c>
       <c r="J6" t="n">
-        <v>64.0106767264055</v>
+        <v>0.346153846153846</v>
       </c>
       <c r="K6" t="n">
-        <v>62.3553312644136</v>
+        <v>0.227</v>
       </c>
       <c r="L6" t="n">
-        <v>87.2000915084034</v>
+        <v>0.09</v>
       </c>
       <c r="M6" t="n">
-        <v>56.1980732174042</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>68.295755153958</v>
-      </c>
-      <c r="C7" t="n">
-        <v>74.00108635788</v>
-      </c>
-      <c r="D7" t="n">
-        <v>75.9824976861691</v>
-      </c>
-      <c r="E7" t="n">
-        <v>76.5212509698029</v>
-      </c>
-      <c r="F7" t="n">
-        <v>82.0911143552899</v>
-      </c>
-      <c r="G7" t="n">
-        <v>57.844321296245</v>
-      </c>
-      <c r="H7" t="n">
-        <v>77.1387230629468</v>
-      </c>
-      <c r="I7" t="n">
-        <v>63.9288486521255</v>
-      </c>
-      <c r="J7" t="n">
-        <v>65.3226794291234</v>
-      </c>
-      <c r="K7" t="n">
-        <v>68.0870870197065</v>
-      </c>
-      <c r="L7" t="n">
-        <v>86.5707126249889</v>
-      </c>
-      <c r="M7" t="n">
-        <v>58.8203739198101</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>64.9140364624805</v>
-      </c>
-      <c r="C8" t="n">
-        <v>67.6681288442518</v>
-      </c>
-      <c r="D8" t="n">
-        <v>74.0987064843566</v>
-      </c>
-      <c r="E8" t="n">
-        <v>60.4196721477108</v>
-      </c>
-      <c r="F8" t="n">
-        <v>84.8527289283848</v>
-      </c>
-      <c r="G8" t="n">
-        <v>61.8758199978058</v>
-      </c>
-      <c r="H8" t="n">
-        <v>69.2345950551897</v>
-      </c>
-      <c r="I8" t="n">
-        <v>63.0583838143701</v>
-      </c>
-      <c r="J8" t="n">
-        <v>61.9437084459907</v>
-      </c>
-      <c r="K8" t="n">
-        <v>67.2484523865818</v>
-      </c>
-      <c r="L8" t="n">
-        <v>86.9585511765621</v>
-      </c>
-      <c r="M8" t="n">
-        <v>58.7690833811101</v>
+        <v>0.3394128113879</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,23 +53,43 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Minimum tax of 2% on billionaires'
+wealth, in voluntary countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
+allocating revenues to countries based on sales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
+India, Brazil, African Union), restrict veto use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
+payments until they are more able to repay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with cliamte Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -447,40 +467,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.24502784407319</v>
+        <v>0.148411158609732</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237731295253419</v>
+        <v>0.127367362019113</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243781094527363</v>
+        <v>0.109933448842978</v>
       </c>
       <c r="E2" t="n">
-        <v>0.243761996161228</v>
+        <v>0.143525585652246</v>
       </c>
       <c r="F2" t="n">
-        <v>0.145118733509235</v>
+        <v>0.0913254616728243</v>
       </c>
       <c r="G2" t="n">
-        <v>0.219512195121951</v>
+        <v>0.153360376703335</v>
       </c>
       <c r="H2" t="n">
-        <v>0.219047619047619</v>
+        <v>0.150374387776383</v>
       </c>
       <c r="I2" t="n">
-        <v>0.279487179487179</v>
+        <v>0.12399372850677</v>
       </c>
       <c r="J2" t="n">
-        <v>0.339055793991416</v>
+        <v>0.161513616365756</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.125171699445903</v>
       </c>
       <c r="L2" t="n">
-        <v>0.157446808510638</v>
+        <v>0.110377046736948</v>
       </c>
       <c r="M2" t="n">
-        <v>0.338475499092559</v>
+        <v>0.185166093251691</v>
       </c>
     </row>
     <row r="3">
@@ -488,40 +508,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.293436293436293</v>
+        <v>0.20697303846017</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295068714632175</v>
+        <v>0.196813901690284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252525252525253</v>
+        <v>0.176547992095516</v>
       </c>
       <c r="E3" t="n">
-        <v>0.309236947791165</v>
+        <v>0.211398176923285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.254641909814324</v>
+        <v>0.125627068303495</v>
       </c>
       <c r="G3" t="n">
-        <v>0.240157480314961</v>
+        <v>0.232199463336905</v>
       </c>
       <c r="H3" t="n">
-        <v>0.289198606271777</v>
+        <v>0.22277319274832</v>
       </c>
       <c r="I3" t="n">
-        <v>0.266978922716628</v>
+        <v>0.211966981710679</v>
       </c>
       <c r="J3" t="n">
-        <v>0.519148936170213</v>
+        <v>0.310792388807311</v>
       </c>
       <c r="K3" t="n">
-        <v>0.284466019417476</v>
+        <v>0.158768660159623</v>
       </c>
       <c r="L3" t="n">
-        <v>0.145283018867925</v>
+        <v>0.157115619059223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.366492146596859</v>
+        <v>0.241329890817207</v>
       </c>
     </row>
     <row r="4">
@@ -529,40 +549,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.234130094043887</v>
+        <v>0.186889434612058</v>
       </c>
       <c r="C4" t="n">
-        <v>0.197983870967742</v>
+        <v>0.175027983477433</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18546365914787</v>
+        <v>0.196097189091831</v>
       </c>
       <c r="E4" t="n">
-        <v>0.213935230618253</v>
+        <v>0.178999130720323</v>
       </c>
       <c r="F4" t="n">
-        <v>0.113756613756614</v>
+        <v>0.157354696878663</v>
       </c>
       <c r="G4" t="n">
-        <v>0.142</v>
+        <v>0.182905725090882</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13953488372093</v>
+        <v>0.173189267703201</v>
       </c>
       <c r="I4" t="n">
-        <v>0.290085679314565</v>
+        <v>0.159350823469788</v>
       </c>
       <c r="J4" t="n">
-        <v>0.294871794871795</v>
+        <v>0.221366176392822</v>
       </c>
       <c r="K4" t="n">
-        <v>0.242</v>
+        <v>0.15911641252624</v>
       </c>
       <c r="L4" t="n">
-        <v>0.063</v>
+        <v>0.122590099469001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.383007117437722</v>
+        <v>0.21728397744249</v>
       </c>
     </row>
     <row r="5">
@@ -570,32 +590,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.415384615384615</v>
+        <v>0.222138588539116</v>
       </c>
       <c r="C5" t="n">
-        <v>0.384769539078156</v>
+        <v>0.232415929676449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.422305764411028</v>
+        <v>0.243458582786536</v>
       </c>
       <c r="E5" t="n">
-        <v>0.425907752698724</v>
+        <v>0.245388687636043</v>
       </c>
       <c r="F5" t="n">
-        <v>0.247354497354497</v>
-      </c>
-      <c r="G5"/>
+        <v>0.159046791878941</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.285519804219645</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.387043189368771</v>
+        <v>0.166944077350883</v>
       </c>
       <c r="I5" t="n">
-        <v>0.422276621787026</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+        <v>0.2784998318028</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.301278255335149</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.193205582281265</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.109054134900181</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.469750889679715</v>
+        <v>0.230662828222715</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +631,245 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.266359717868339</v>
+        <v>0.21859190314369</v>
       </c>
       <c r="C6" t="n">
-        <v>0.284677419354839</v>
+        <v>0.226298764471716</v>
       </c>
       <c r="D6" t="n">
-        <v>0.422305764411028</v>
+        <v>0.264477706602908</v>
       </c>
       <c r="E6" t="n">
-        <v>0.273797841020608</v>
+        <v>0.297372636630687</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16005291005291</v>
+        <v>0.149046426477306</v>
       </c>
       <c r="G6" t="n">
-        <v>0.244</v>
+        <v>0.136208711216249</v>
       </c>
       <c r="H6" t="n">
-        <v>0.20265780730897</v>
+        <v>0.213104406213548</v>
       </c>
       <c r="I6" t="n">
-        <v>0.329253365973072</v>
+        <v>0.219057936571344</v>
       </c>
       <c r="J6" t="n">
-        <v>0.346153846153846</v>
+        <v>0.281473138287187</v>
       </c>
       <c r="K6" t="n">
-        <v>0.227</v>
+        <v>0.171701433885582</v>
       </c>
       <c r="L6" t="n">
-        <v>0.09</v>
+        <v>0.0940010038130505</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3394128113879</v>
+        <v>0.237900062547766</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.146453022326621</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.124987066130454</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.122907237473455</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.126941181008286</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.096358293580016</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.153592455099443</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.127101554925317</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.123760559417072</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.196618936861419</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.108436025078905</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.105997389098425</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1887377350203</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.198242133584621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1958641337298</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.213022785719962</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.201515081223321</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.134618832174744</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.211763220097501</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.179013006226043</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.223851140610931</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.2672864564632</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.162752670130138</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0905324327872699</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.223019996020911</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.245300737335823</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.236865415528246</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.237370732399604</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.233868554655149</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.201348944050005</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.251620205670537</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.199320726506784</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.274073369674434</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.304084349610131</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.223211184621225</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.112301044383776</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.27279923064959</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.205510438309768</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.193851424111881</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.158485359578153</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.20903700142735</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.175237487643693</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.254940236685131</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.193425924889296</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.189674496227929</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.201150272086723</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.210642315503035</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.138794820787494</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.221694697738682</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.33443918906776</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.348626551534708</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.291538733722915</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.352032278586897</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.362488340219554</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.335718037299407</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.361488212073643</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.367026945803315</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.414471755932825</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.301286136847194</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.236240404654281</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.338259504437874</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,43 +53,26 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum tax of 2% on billionaires'
-wealth, in voluntary countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
-India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with cliamte Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">Development aid agencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government, unconditional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local authorities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local NGOs with democratic processes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeted cash transfers (child allowances,
+disability &amp; elderly pensions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unconditional cash transfers to each household</t>
   </si>
 </sst>
 </file>
@@ -467,40 +450,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.148411158609732</v>
+        <v>0.0766917413534957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.127367362019113</v>
+        <v>0.0754820391245927</v>
       </c>
       <c r="D2" t="n">
-        <v>0.109933448842978</v>
+        <v>0.0595997703484054</v>
       </c>
       <c r="E2" t="n">
-        <v>0.143525585652246</v>
+        <v>0.110149417743538</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0913254616728243</v>
+        <v>0.0603708499911824</v>
       </c>
       <c r="G2" t="n">
-        <v>0.153360376703335</v>
+        <v>0.039745739741579</v>
       </c>
       <c r="H2" t="n">
-        <v>0.150374387776383</v>
+        <v>0.0751450877921328</v>
       </c>
       <c r="I2" t="n">
-        <v>0.12399372850677</v>
+        <v>0.0841472071319461</v>
       </c>
       <c r="J2" t="n">
-        <v>0.161513616365756</v>
+        <v>0.0603551553527478</v>
       </c>
       <c r="K2" t="n">
-        <v>0.125171699445903</v>
+        <v>0.0405173806633981</v>
       </c>
       <c r="L2" t="n">
-        <v>0.110377046736948</v>
+        <v>0.17076884021045</v>
       </c>
       <c r="M2" t="n">
-        <v>0.185166093251691</v>
+        <v>0.084075862485457</v>
       </c>
     </row>
     <row r="3">
@@ -508,40 +491,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.20697303846017</v>
+        <v>0.0865301283469281</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196813901690284</v>
+        <v>0.0917426933712238</v>
       </c>
       <c r="D3" t="n">
-        <v>0.176547992095516</v>
+        <v>0.0731761747123721</v>
       </c>
       <c r="E3" t="n">
-        <v>0.211398176923285</v>
+        <v>0.109134375525017</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125627068303495</v>
+        <v>0.123784651582842</v>
       </c>
       <c r="G3" t="n">
-        <v>0.232199463336905</v>
+        <v>0.0550954229106604</v>
       </c>
       <c r="H3" t="n">
-        <v>0.22277319274832</v>
+        <v>0.0958257096355598</v>
       </c>
       <c r="I3" t="n">
-        <v>0.211966981710679</v>
+        <v>0.0761440883671617</v>
       </c>
       <c r="J3" t="n">
-        <v>0.310792388807311</v>
+        <v>0.0982578851183006</v>
       </c>
       <c r="K3" t="n">
-        <v>0.158768660159623</v>
+        <v>0.0194809182773129</v>
       </c>
       <c r="L3" t="n">
-        <v>0.157115619059223</v>
+        <v>0.231806590338819</v>
       </c>
       <c r="M3" t="n">
-        <v>0.241329890817207</v>
+        <v>0.0942794349163734</v>
       </c>
     </row>
     <row r="4">
@@ -549,40 +532,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.186889434612058</v>
+        <v>0.0394459985508277</v>
       </c>
       <c r="C4" t="n">
-        <v>0.175027983477433</v>
+        <v>0.0362473171004471</v>
       </c>
       <c r="D4" t="n">
-        <v>0.196097189091831</v>
+        <v>0.0414804676812955</v>
       </c>
       <c r="E4" t="n">
-        <v>0.178999130720323</v>
+        <v>0.0344538089632999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.157354696878663</v>
+        <v>0.03309009516717</v>
       </c>
       <c r="G4" t="n">
-        <v>0.182905725090882</v>
+        <v>0.0348696189036289</v>
       </c>
       <c r="H4" t="n">
-        <v>0.173189267703201</v>
+        <v>0.0351086780229573</v>
       </c>
       <c r="I4" t="n">
-        <v>0.159350823469788</v>
+        <v>0.0386211557592524</v>
       </c>
       <c r="J4" t="n">
-        <v>0.221366176392822</v>
+        <v>0.0303723203485516</v>
       </c>
       <c r="K4" t="n">
-        <v>0.15911641252624</v>
+        <v>0.0101627824022081</v>
       </c>
       <c r="L4" t="n">
-        <v>0.122590099469001</v>
+        <v>0.156140901193764</v>
       </c>
       <c r="M4" t="n">
-        <v>0.21728397744249</v>
+        <v>0.0443736016803717</v>
       </c>
     </row>
     <row r="5">
@@ -590,40 +573,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.222138588539116</v>
+        <v>0.0474270129010441</v>
       </c>
       <c r="C5" t="n">
-        <v>0.232415929676449</v>
+        <v>0.0481393730112663</v>
       </c>
       <c r="D5" t="n">
-        <v>0.243458582786536</v>
+        <v>0.055859121175601</v>
       </c>
       <c r="E5" t="n">
-        <v>0.245388687636043</v>
+        <v>0.0437275316087981</v>
       </c>
       <c r="F5" t="n">
-        <v>0.159046791878941</v>
+        <v>0.0403023737635101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.285519804219645</v>
+        <v>0.0634184458183936</v>
       </c>
       <c r="H5" t="n">
-        <v>0.166944077350883</v>
+        <v>0.04719511591536</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2784998318028</v>
+        <v>0.0465661475066531</v>
       </c>
       <c r="J5" t="n">
-        <v>0.301278255335149</v>
+        <v>0.0366370090808876</v>
       </c>
       <c r="K5" t="n">
-        <v>0.193205582281265</v>
+        <v>0.01630696769064</v>
       </c>
       <c r="L5" t="n">
-        <v>0.109054134900181</v>
+        <v>0.136724151153815</v>
       </c>
       <c r="M5" t="n">
-        <v>0.230662828222715</v>
+        <v>0.0510392002495497</v>
       </c>
     </row>
     <row r="6">
@@ -631,40 +614,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.21859190314369</v>
+        <v>0.0575524657246036</v>
       </c>
       <c r="C6" t="n">
-        <v>0.226298764471716</v>
+        <v>0.0613954433112801</v>
       </c>
       <c r="D6" t="n">
-        <v>0.264477706602908</v>
+        <v>0.0659210461597061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.297372636630687</v>
+        <v>0.0621527275011062</v>
       </c>
       <c r="F6" t="n">
-        <v>0.149046426477306</v>
+        <v>0.0522005930978082</v>
       </c>
       <c r="G6" t="n">
-        <v>0.136208711216249</v>
+        <v>0.0733904219913755</v>
       </c>
       <c r="H6" t="n">
-        <v>0.213104406213548</v>
+        <v>0.0632855299939989</v>
       </c>
       <c r="I6" t="n">
-        <v>0.219057936571344</v>
+        <v>0.0577481586684558</v>
       </c>
       <c r="J6" t="n">
-        <v>0.281473138287187</v>
+        <v>0.0480354911577042</v>
       </c>
       <c r="K6" t="n">
-        <v>0.171701433885582</v>
+        <v>0.0123821470916413</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0940010038130505</v>
+        <v>0.156121472269398</v>
       </c>
       <c r="M6" t="n">
-        <v>0.237900062547766</v>
+        <v>0.0623332320765254</v>
       </c>
     </row>
     <row r="7">
@@ -672,40 +655,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.146453022326621</v>
+        <v>0.137802514534763</v>
       </c>
       <c r="C7" t="n">
-        <v>0.124987066130454</v>
+        <v>0.133556119503567</v>
       </c>
       <c r="D7" t="n">
-        <v>0.122907237473455</v>
+        <v>0.0770608300916263</v>
       </c>
       <c r="E7" t="n">
-        <v>0.126941181008286</v>
+        <v>0.136816033990605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.096358293580016</v>
+        <v>0.186001611764116</v>
       </c>
       <c r="G7" t="n">
-        <v>0.153592455099443</v>
+        <v>0.128997524558661</v>
       </c>
       <c r="H7" t="n">
-        <v>0.127101554925317</v>
+        <v>0.147808590255039</v>
       </c>
       <c r="I7" t="n">
-        <v>0.123760559417072</v>
+        <v>0.131413904080766</v>
       </c>
       <c r="J7" t="n">
-        <v>0.196618936861419</v>
+        <v>0.123012111124148</v>
       </c>
       <c r="K7" t="n">
-        <v>0.108436025078905</v>
+        <v>0.07924947026822</v>
       </c>
       <c r="L7" t="n">
-        <v>0.105997389098425</v>
+        <v>0.36278282065533</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1887377350203</v>
+        <v>0.145940601835244</v>
       </c>
     </row>
     <row r="8">
@@ -713,163 +696,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.198242133584621</v>
+        <v>0.0960735331570994</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1958641337298</v>
+        <v>0.0826746833974449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213022785719962</v>
+        <v>0.0574308462687048</v>
       </c>
       <c r="E8" t="n">
-        <v>0.201515081223321</v>
+        <v>0.0867627630095793</v>
       </c>
       <c r="F8" t="n">
-        <v>0.134618832174744</v>
+        <v>0.0944612621449872</v>
       </c>
       <c r="G8" t="n">
-        <v>0.211763220097501</v>
+        <v>0.084811729403589</v>
       </c>
       <c r="H8" t="n">
-        <v>0.179013006226043</v>
+        <v>0.097084347006874</v>
       </c>
       <c r="I8" t="n">
-        <v>0.223851140610931</v>
+        <v>0.078246492219218</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2672864564632</v>
+        <v>0.0964259715894588</v>
       </c>
       <c r="K8" t="n">
-        <v>0.162752670130138</v>
+        <v>0.0782549579083505</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0905324327872699</v>
+        <v>0.236864168774997</v>
       </c>
       <c r="M8" t="n">
-        <v>0.223019996020911</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.245300737335823</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.236865415528246</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.237370732399604</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.233868554655149</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.201348944050005</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.251620205670537</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.199320726506784</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.274073369674434</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.304084349610131</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.223211184621225</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.112301044383776</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.27279923064959</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.205510438309768</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.193851424111881</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.158485359578153</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.20903700142735</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.175237487643693</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.254940236685131</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.193425924889296</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.189674496227929</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.201150272086723</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.210642315503035</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.138794820787494</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.221694697738682</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.33443918906776</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.348626551534708</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.291538733722915</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.352032278586897</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.362488340219554</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.335718037299407</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.361488212073643</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.367026945803315</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.414471755932825</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.301286136847194</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.236240404654281</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.338259504437874</v>
+        <v>0.105975911457824</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -53,26 +53,25 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Development aid agencies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government, conditional on financing poverty reduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government, unconditional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local authorities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Local NGOs with democratic processes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Targeted cash transfers (child allowances,
-disability &amp; elderly pensions)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unconditional cash transfers to each household</t>
+    <t xml:space="preserve">Preferred share of winners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of losers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred degree of redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied minimum income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied transfer (in % of world income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to skip this question.</t>
   </si>
 </sst>
 </file>
@@ -450,40 +449,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0766917413534957</v>
+        <v>47.3766926551491</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0754820391245927</v>
+        <v>47.8950716257654</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0595997703484054</v>
+        <v>47.3399172155425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.110149417743538</v>
+        <v>46.2527184424661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0603708499911824</v>
+        <v>48.6664577469501</v>
       </c>
       <c r="G2" t="n">
-        <v>0.039745739741579</v>
+        <v>49.9338871707625</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0751450877921328</v>
+        <v>48.854345233411</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0841472071319461</v>
+        <v>48.376458650109</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0603551553527478</v>
+        <v>44.6752992863916</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0405173806633981</v>
+        <v>46.8652884975425</v>
       </c>
       <c r="L2" t="n">
-        <v>0.17076884021045</v>
+        <v>49.8384797332685</v>
       </c>
       <c r="M2" t="n">
-        <v>0.084075862485457</v>
+        <v>46.7697705695816</v>
       </c>
     </row>
     <row r="3">
@@ -491,40 +490,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0865301283469281</v>
+        <v>17.7499398734608</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0917426933712238</v>
+        <v>17.8182043484875</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0731761747123721</v>
+        <v>18.4829667465005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.109134375525017</v>
+        <v>17.7989992345778</v>
       </c>
       <c r="F3" t="n">
-        <v>0.123784651582842</v>
+        <v>17.2232489267789</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0550954229106604</v>
+        <v>16.8688117343447</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0958257096355598</v>
+        <v>18.5211044224375</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0761440883671617</v>
+        <v>17.6676612649794</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0982578851183006</v>
+        <v>18.5043124927994</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0194809182773129</v>
+        <v>17.6666333170005</v>
       </c>
       <c r="L3" t="n">
-        <v>0.231806590338819</v>
+        <v>17.4309175273669</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0942794349163734</v>
+        <v>17.7332113385154</v>
       </c>
     </row>
     <row r="4">
@@ -532,40 +531,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0394459985508277</v>
+        <v>4.66328252218349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0362473171004471</v>
+        <v>4.79167861593244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0414804676812955</v>
+        <v>4.59712596556425</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0344538089632999</v>
+        <v>4.60542381071992</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03309009516717</v>
+        <v>5.15558292166329</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0348696189036289</v>
+        <v>4.91983256626391</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0351086780229573</v>
+        <v>5.0454388000938</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0386211557592524</v>
+        <v>4.69101516681557</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0303723203485516</v>
+        <v>4.32085104887429</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0101627824022081</v>
+        <v>4.55446282545926</v>
       </c>
       <c r="L4" t="n">
-        <v>0.156140901193764</v>
+        <v>4.95538856601748</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0443736016803717</v>
+        <v>4.53398909797246</v>
       </c>
     </row>
     <row r="5">
@@ -573,40 +572,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0474270129010441</v>
+        <v>2916.69157969768</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0481393730112663</v>
+        <v>3013.70192114343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.055859121175601</v>
+        <v>2830.60494061808</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0437275316087981</v>
+        <v>2891.33844398474</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0403023737635101</v>
+        <v>3259.54044711991</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0634184458183936</v>
+        <v>3245.40613633103</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04719511591536</v>
+        <v>3166.75074655609</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0465661475066531</v>
+        <v>2934.78196648777</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0366370090808876</v>
+        <v>2603.09872742232</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01630696769064</v>
+        <v>2805.43855947385</v>
       </c>
       <c r="L5" t="n">
-        <v>0.136724151153815</v>
+        <v>3269.66419485418</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0510392002495497</v>
+        <v>2818.80286312606</v>
       </c>
     </row>
     <row r="6">
@@ -614,40 +613,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0575524657246036</v>
+        <v>5.14320088394063</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0613954433112801</v>
+        <v>5.39975144533437</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0659210461597061</v>
+        <v>4.99316242689823</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0621527275011062</v>
+        <v>5.13793534008123</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0522005930978082</v>
+        <v>5.90369783761418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0733904219913755</v>
+        <v>6.05807216515456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0632855299939989</v>
+        <v>5.63552870729822</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0577481586684558</v>
+        <v>5.22784861379415</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0480354911577042</v>
+        <v>4.60308789814359</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0123821470916413</v>
+        <v>4.69468665966866</v>
       </c>
       <c r="L6" t="n">
-        <v>0.156121472269398</v>
+        <v>5.86672750314487</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0623332320765254</v>
+        <v>4.96395633987067</v>
       </c>
     </row>
     <row r="7">
@@ -655,40 +654,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.137802514534763</v>
+        <v>0.556862301345772</v>
       </c>
       <c r="C7" t="n">
-        <v>0.133556119503567</v>
+        <v>0.58103898576041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0770608300916263</v>
+        <v>0.534310477367436</v>
       </c>
       <c r="E7" t="n">
-        <v>0.136816033990605</v>
+        <v>0.558168699391735</v>
       </c>
       <c r="F7" t="n">
-        <v>0.186001611764116</v>
+        <v>0.633876504878303</v>
       </c>
       <c r="G7" t="n">
-        <v>0.128997524558661</v>
+        <v>0.579119797953457</v>
       </c>
       <c r="H7" t="n">
-        <v>0.147808590255039</v>
+        <v>0.624925865768044</v>
       </c>
       <c r="I7" t="n">
-        <v>0.131413904080766</v>
+        <v>0.584054744303498</v>
       </c>
       <c r="J7" t="n">
-        <v>0.123012111124148</v>
+        <v>0.531024860561446</v>
       </c>
       <c r="K7" t="n">
-        <v>0.07924947026822</v>
+        <v>0.396540192224612</v>
       </c>
       <c r="L7" t="n">
-        <v>0.36278282065533</v>
+        <v>0.673076664181392</v>
       </c>
       <c r="M7" t="n">
-        <v>0.145940601835244</v>
+        <v>0.58245381128998</v>
       </c>
     </row>
     <row r="8">
@@ -696,40 +695,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0960735331570994</v>
+        <v>0.431239978596012</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0826746833974449</v>
+        <v>0.402407038168094</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0574308462687048</v>
+        <v>0.437244089313782</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0867627630095793</v>
+        <v>0.431491692867765</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0944612621449872</v>
+        <v>0.346666410324087</v>
       </c>
       <c r="G8" t="n">
-        <v>0.084811729403589</v>
+        <v>0.409284709305281</v>
       </c>
       <c r="H8" t="n">
-        <v>0.097084347006874</v>
+        <v>0.358241310645866</v>
       </c>
       <c r="I8" t="n">
-        <v>0.078246492219218</v>
+        <v>0.404790381643791</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0964259715894588</v>
+        <v>0.441873182615463</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0782549579083505</v>
+        <v>0.59319073869808</v>
       </c>
       <c r="L8" t="n">
-        <v>0.236864168774997</v>
+        <v>0.326752007969194</v>
       </c>
       <c r="M8" t="n">
-        <v>0.105975911457824</v>
+        <v>0.409281991569508</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,25 +53,15 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred share of losers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred degree of redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implied minimum income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implied transfer (in % of world income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to skip this question.</t>
+    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
+(except for the U.S.: support in the EU)</t>
   </si>
 </sst>
 </file>
@@ -449,40 +439,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>47.3766926551491</v>
+        <v>56.9461678435988</v>
       </c>
       <c r="C2" t="n">
-        <v>47.8950716257654</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="D2" t="n">
-        <v>47.3399172155425</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="E2" t="n">
-        <v>46.2527184424661</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="F2" t="n">
-        <v>48.6664577469501</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9338871707625</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="H2" t="n">
-        <v>48.854345233411</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="I2" t="n">
-        <v>48.376458650109</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="J2" t="n">
-        <v>44.6752992863916</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="K2" t="n">
-        <v>46.8652884975425</v>
+        <v>56.8487902138407</v>
       </c>
       <c r="L2" t="n">
-        <v>49.8384797332685</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="M2" t="n">
-        <v>46.7697705695816</v>
+        <v>48.604165854654</v>
       </c>
     </row>
     <row r="3">
@@ -490,40 +480,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7499398734608</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C3" t="n">
-        <v>17.8182043484875</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4829667465005</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E3" t="n">
-        <v>17.7989992345778</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F3" t="n">
-        <v>17.2232489267789</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G3" t="n">
-        <v>16.8688117343447</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H3" t="n">
-        <v>18.5211044224375</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I3" t="n">
-        <v>17.6676612649794</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J3" t="n">
-        <v>18.5043124927994</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K3" t="n">
-        <v>17.6666333170005</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L3" t="n">
-        <v>17.4309175273669</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M3" t="n">
-        <v>17.7332113385154</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="4">
@@ -531,204 +521,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.66328252218349</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C4" t="n">
-        <v>4.79167861593244</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D4" t="n">
-        <v>4.59712596556425</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E4" t="n">
-        <v>4.60542381071992</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F4" t="n">
-        <v>5.15558292166329</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G4" t="n">
-        <v>4.91983256626391</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H4" t="n">
-        <v>5.0454388000938</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I4" t="n">
-        <v>4.69101516681557</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J4" t="n">
-        <v>4.32085104887429</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K4" t="n">
-        <v>4.55446282545926</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L4" t="n">
-        <v>4.95538856601748</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M4" t="n">
-        <v>4.53398909797246</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2916.69157969768</v>
-      </c>
-      <c r="C5" t="n">
-        <v>3013.70192114343</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2830.60494061808</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2891.33844398474</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3259.54044711991</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3245.40613633103</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3166.75074655609</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2934.78196648777</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2603.09872742232</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2805.43855947385</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3269.66419485418</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2818.80286312606</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5.14320088394063</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5.39975144533437</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.99316242689823</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.13793534008123</v>
-      </c>
-      <c r="F6" t="n">
-        <v>5.90369783761418</v>
-      </c>
-      <c r="G6" t="n">
-        <v>6.05807216515456</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.63552870729822</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5.22784861379415</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.60308789814359</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.69468665966866</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.86672750314487</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.96395633987067</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.556862301345772</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.58103898576041</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.534310477367436</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.558168699391735</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.633876504878303</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.579119797953457</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.624925865768044</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.584054744303498</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.531024860561446</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.396540192224612</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.673076664181392</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.58245381128998</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.431239978596012</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.402407038168094</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.437244089313782</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.431491692867765</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.346666410324087</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.409284709305281</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.358241310645866</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.404790381643791</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.441873182615463</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.59319073869808</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.326752007969194</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.409281991569508</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,15 +53,23 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Belief about GCS support in the U.S.
-(except for the U.S.: support in the EU)</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -439,40 +447,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>56.9461678435988</v>
+        <v>0.25435325275351</v>
       </c>
       <c r="C2" t="n">
-        <v>61.0914766632881</v>
+        <v>0.229733730195768</v>
       </c>
       <c r="D2" t="n">
-        <v>64.9673122291722</v>
+        <v>0.247924142470634</v>
       </c>
       <c r="E2" t="n">
-        <v>53.4385977368577</v>
+        <v>0.238142009469067</v>
       </c>
       <c r="F2" t="n">
-        <v>77.6272593268426</v>
+        <v>0.143059479651997</v>
       </c>
       <c r="G2" t="n">
-        <v>50.6505049421928</v>
+        <v>0.217759808476751</v>
       </c>
       <c r="H2" t="n">
-        <v>68.1637766424686</v>
+        <v>0.228800388151237</v>
       </c>
       <c r="I2" t="n">
-        <v>58.1054438205453</v>
+        <v>0.271569064568047</v>
       </c>
       <c r="J2" t="n">
-        <v>62.3284705512702</v>
+        <v>0.348020929777486</v>
       </c>
       <c r="K2" t="n">
-        <v>56.8487902138407</v>
+        <v>0.195415895464876</v>
       </c>
       <c r="L2" t="n">
-        <v>84.6671870687128</v>
+        <v>0.151475972013406</v>
       </c>
       <c r="M2" t="n">
-        <v>48.604165854654</v>
+        <v>0.308390049665346</v>
       </c>
     </row>
     <row r="3">
@@ -480,40 +488,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>41.7372453377052</v>
+        <v>0.29487749862458</v>
       </c>
       <c r="C3" t="n">
-        <v>42.2297683433051</v>
+        <v>0.281518536195659</v>
       </c>
       <c r="D3" t="n">
-        <v>44.4877182903437</v>
+        <v>0.253607080882867</v>
       </c>
       <c r="E3" t="n">
-        <v>38.552586222486</v>
+        <v>0.320972713411269</v>
       </c>
       <c r="F3" t="n">
-        <v>43.3335742727043</v>
+        <v>0.249981556506401</v>
       </c>
       <c r="G3" t="n">
-        <v>39.2814968440086</v>
+        <v>0.2356708529277</v>
       </c>
       <c r="H3" t="n">
-        <v>43.8010508208596</v>
+        <v>0.294159408870184</v>
       </c>
       <c r="I3" t="n">
-        <v>43.8290682999177</v>
+        <v>0.272340441194078</v>
       </c>
       <c r="J3" t="n">
-        <v>45.7593973431738</v>
+        <v>0.497083662868131</v>
       </c>
       <c r="K3" t="n">
-        <v>36.9068079681403</v>
+        <v>0.286636713460478</v>
       </c>
       <c r="L3" t="n">
-        <v>54.6783899296328</v>
+        <v>0.150456874440543</v>
       </c>
       <c r="M3" t="n">
-        <v>41.687361942331</v>
+        <v>0.331806163279924</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +529,114 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>34.7728459875887</v>
+        <v>0.260446615334856</v>
       </c>
       <c r="C4" t="n">
-        <v>28.1800572752332</v>
+        <v>0.187897042714528</v>
       </c>
       <c r="D4" t="n">
-        <v>27.3641066555449</v>
+        <v>0.190489827374271</v>
       </c>
       <c r="E4" t="n">
-        <v>25.6678080584812</v>
+        <v>0.205650306022925</v>
       </c>
       <c r="F4" t="n">
-        <v>29.6625949546182</v>
+        <v>0.112376946594845</v>
       </c>
       <c r="G4" t="n">
-        <v>31.851890054073</v>
+        <v>0.142081356516132</v>
       </c>
       <c r="H4" t="n">
-        <v>29.1910171733495</v>
+        <v>0.135688096653865</v>
       </c>
       <c r="I4" t="n">
-        <v>28.6093000748544</v>
+        <v>0.287580264300726</v>
       </c>
       <c r="J4" t="n">
-        <v>25.624783349908</v>
+        <v>0.291140890930959</v>
       </c>
       <c r="K4" t="n">
-        <v>30.4387261840999</v>
+        <v>0.240413858618638</v>
       </c>
       <c r="L4" t="n">
-        <v>45.8572414678735</v>
+        <v>0.0567640373741542</v>
       </c>
       <c r="M4" t="n">
-        <v>42.9925088066507</v>
+        <v>0.370153042354525</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.422171960688106</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.385573018604744</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.425132188839284</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.428969403537556</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.243243479170587</v>
+      </c>
+      <c r="G5"/>
+      <c r="H5" t="n">
+        <v>0.390552355519347</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.416880526453407</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" t="n">
+        <v>0.457532301162332</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.281764207324566</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.280799377736503</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.426295117933464</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.270461415958884</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.157494415225418</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.249815362045575</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.20798277366565</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.334776926213514</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.337111171711107</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.227457431436811</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.0828743570297473</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.32215909520563</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,23 +53,85 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment; climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
 </sst>
 </file>
@@ -447,40 +509,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25435325275351</v>
+        <v>0.176948673858409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229733730195768</v>
+        <v>0.155206454498852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247924142470634</v>
+        <v>0.165760187529138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.238142009469067</v>
+        <v>0.132688996855489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143059479651997</v>
+        <v>0.170569645844742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.217759808476751</v>
+        <v>0.179335609610556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.228800388151237</v>
+        <v>0.13071460385036</v>
       </c>
       <c r="I2" t="n">
-        <v>0.271569064568047</v>
+        <v>0.167744724240085</v>
       </c>
       <c r="J2" t="n">
-        <v>0.348020929777486</v>
+        <v>0.121355113394281</v>
       </c>
       <c r="K2" t="n">
-        <v>0.195415895464876</v>
+        <v>0.148495010217095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.151475972013406</v>
+        <v>0.217623806326528</v>
       </c>
       <c r="M2" t="n">
-        <v>0.308390049665346</v>
+        <v>0.231973932858366</v>
       </c>
     </row>
     <row r="3">
@@ -488,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29487749862458</v>
+        <v>0.023746245554371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281518536195659</v>
+        <v>0.019454285576107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253607080882867</v>
+        <v>0.023277143708419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.320972713411269</v>
+        <v>0.0207336999054023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.249981556506401</v>
+        <v>0.0175328661238039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2356708529277</v>
+        <v>0.0187877053768524</v>
       </c>
       <c r="H3" t="n">
-        <v>0.294159408870184</v>
+        <v>0.0178566210555686</v>
       </c>
       <c r="I3" t="n">
-        <v>0.272340441194078</v>
+        <v>0.0173152017198904</v>
       </c>
       <c r="J3" t="n">
-        <v>0.497083662868131</v>
+        <v>0.0194274400460883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.286636713460478</v>
+        <v>0.00536727269964157</v>
       </c>
       <c r="L3" t="n">
-        <v>0.150456874440543</v>
+        <v>0.0460861309434834</v>
       </c>
       <c r="M3" t="n">
-        <v>0.331806163279924</v>
+        <v>0.0366365520055472</v>
       </c>
     </row>
     <row r="4">
@@ -529,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.260446615334856</v>
+        <v>0.038653527602944</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187897042714528</v>
+        <v>0.0396355976118138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190489827374271</v>
+        <v>0.0488453402092147</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205650306022925</v>
+        <v>0.0299275495122006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112376946594845</v>
+        <v>0.063182973582403</v>
       </c>
       <c r="G4" t="n">
-        <v>0.142081356516132</v>
+        <v>0.0293863348233816</v>
       </c>
       <c r="H4" t="n">
-        <v>0.135688096653865</v>
+        <v>0.048261771227565</v>
       </c>
       <c r="I4" t="n">
-        <v>0.287580264300726</v>
+        <v>0.0239296293435979</v>
       </c>
       <c r="J4" t="n">
-        <v>0.291140890930959</v>
+        <v>0.0158092268062042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.240413858618638</v>
+        <v>0.0131676068923577</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0567640373741542</v>
+        <v>0.131664923797143</v>
       </c>
       <c r="M4" t="n">
-        <v>0.370153042354525</v>
+        <v>0.030113635988895</v>
       </c>
     </row>
     <row r="5">
@@ -570,32 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422171960688106</v>
+        <v>0.072433196337855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385573018604744</v>
+        <v>0.0897430512402594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.425132188839284</v>
+        <v>0.0815300483553539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.428969403537556</v>
+        <v>0.108999927307447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.243243479170587</v>
-      </c>
-      <c r="G5"/>
+        <v>0.0859696735401653</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.097729749508078</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.390552355519347</v>
+        <v>0.0737373460322634</v>
       </c>
       <c r="I5" t="n">
-        <v>0.416880526453407</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
+        <v>0.0800897030643499</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.118689407285363</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.0707751809688699</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.0411491335889016</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.457532301162332</v>
+        <v>0.0390959751910479</v>
       </c>
     </row>
     <row r="6">
@@ -603,40 +673,942 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.281764207324566</v>
+        <v>0.0134410842070921</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280799377736503</v>
+        <v>0.0166129673627565</v>
       </c>
       <c r="D6" t="n">
-        <v>0.426295117933464</v>
+        <v>0.00990324370778222</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270461415958884</v>
+        <v>0.0100257576458049</v>
       </c>
       <c r="F6" t="n">
-        <v>0.157494415225418</v>
+        <v>0.0310965348388076</v>
       </c>
       <c r="G6" t="n">
-        <v>0.249815362045575</v>
+        <v>0.0187937296808294</v>
       </c>
       <c r="H6" t="n">
-        <v>0.20798277366565</v>
+        <v>0.0227853914465942</v>
       </c>
       <c r="I6" t="n">
-        <v>0.334776926213514</v>
+        <v>0.0130893432948986</v>
       </c>
       <c r="J6" t="n">
-        <v>0.337111171711107</v>
+        <v>0.0131440337020383</v>
       </c>
       <c r="K6" t="n">
-        <v>0.227457431436811</v>
+        <v>0.00511429124769571</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0828743570297473</v>
+        <v>0.00992595285253889</v>
       </c>
       <c r="M6" t="n">
-        <v>0.32215909520563</v>
+        <v>0.0101423291658875</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.119249582821528</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.136879279973913</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.120324740670292</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.109488055833458</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.155975584689061</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.138918781982572</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.16014865621119</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.155415205525748</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.116143119897375</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.058352512190181</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0516680166571416</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.11496867295714</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.0440703328458708</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0556835908767662</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.0396349712847709</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.0821377590537621</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.0287056885989428</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0354198209688927</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0340088165155789</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.0909184296970719</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0532106449141004</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0158215408500238</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.00632678822322605</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0355544106849215</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0232845404949315</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.0277190418004305</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0209335563539556</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0187494817203833</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.0144099090952224</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0169933817648993</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0818728898352045</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.0266003234543923</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0131806164171693</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0146937576608452</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.00526088777606903</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0197410863201918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0413945679478235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0527612876240678</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0378478605827785</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0640960220201268</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0754831299559596</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0221724636293523</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0489547657952483</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0515957186258728</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0629643291809819</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00995748759022352</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0401051644319554</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0284913632790919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0610075318045988</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0682625497106202</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.11476818594713</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0393363139888575</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0848555762131242</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0227930323951762</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0633951364910317</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0778012495096747</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0350708572062188</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0177302736228577</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0392402832550644</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.065220313719315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.036318313733475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0303492751701462</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0305627962732717</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0264317915553203</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.034093123900644</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0126742700578683</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0254991210870382</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0443011694538446</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0398784872706214</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0281040310229985</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0240291073428676</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0550443378159004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0316619023583936</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.020167126115703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.012436959125538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.015254879727607</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0240251118972616</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0136802596231349</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0167572994369076</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0341142180962793</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0414125956620657</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0278375740358052</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.037357798631603</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0577809170495888</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0270711259919894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0310465966023829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0254065753213864</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0174198071731154</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0473346575981105</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0164898986204219</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.017704736977718</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.057995023038915</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0269991451826757</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0128543543549344</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0218472473238587</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0245978902847182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0606381063267319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0847187754510992</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0514829203403444</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.113468714902909</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.122399066294443</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.116752665308591</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0547975117455974</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0478921388154982</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.100305476507664</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0149209786920427</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0588883645207161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0243221311329973</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0715444499861098</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0742247482511581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0968802933753493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0653488341490191</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0669329178080904</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0373841093051816</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0514033398038403</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.110932848292568</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0509445319215343</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.160236623877362</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00259584218681808</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0427086483595602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0438713209812911</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0229189727406162</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0203047890339714</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0378843527230824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0189346000174674</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0130491389225625</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00951853360227524</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.026871057567979</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0141139196218575</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0333209351965288</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.102941226332114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.00912296727788547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0090905907641623</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00861603556073884</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0147080327277219</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00654357988851507</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00536247626473339</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.011106023696502</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.00464674298425364</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0148563509789483</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00114312378109044</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00779960431154217</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.012504935511294</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.00548439090212051</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.00738544044333992</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00842704851418689</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0106175169548618</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00535221128258067</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0110870113292001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0031425168348546</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00471247697531813</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.00984903169908945</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00111540434016411</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.00421941073126723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00903084455774402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00350747267813929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00240140039481314</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00301388411452899</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0026974301047993</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0092221941939587</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.00406859162073066</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00175842094182187</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00375924498514015</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0427657775628182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.017558389011036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0299395379640607</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0307080033339235</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0239433045098027</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0159204887615089</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0209681437129943</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0281447893994951</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0653390788490106</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0421129108189791</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0253025873266461</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00600177916881286</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0344377143298887</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0374342235485173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0225570852665277</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0242247062909054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0127877887089121</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.038101941816959</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0173965795919296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0102241499270583</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0388779572908386</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0198134289823329</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0378033562142717</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0155109272498332</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0514429547160629</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0161626898189773</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0323250644293763</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0332771655305157</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0288447172197366</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0695657997417108</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0133416408178441</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0134564935505487</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.026229722760271</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0271151403596097</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0280780210661461</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.071711581519768</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0112898831610919</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0179785869922492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0473249104815912</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0480314017698516</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0513258945872917</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0257853652953644</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0585395107540181</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.046207997690817</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0425554224405343</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0707934688656888</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0315922988317157</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0521321802651446</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0760092820323943</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0390763141446832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0389666735972933</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0460228362443624</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0528611468776913</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.048095279732958</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.051046397560614</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0498480559610093</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0380105738124306</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0364497278863142</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0392455795985156</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0160678239474841</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0541528634172794</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.029048691788262</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0216536003001745</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0248207347219647</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0163511671350575</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0485662219745389</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0112276432244119</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0358078413818051</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0191124040881251</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0157885681956608</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.00599281533977228</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.011539037887782</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0128482567735397</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0197595653702909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.127140761791366</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.104596364579166</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.121129745948714</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0784908462762879</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.105397921368922</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.120168576782413</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.102948798652095</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.109001218234964</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.132777811109319</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.182170110782153</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.180026939982192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.145992376067682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0932294855086049</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0918378018291469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0983621789594571</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.128972183901413</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.052217230565829</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.114297886560459</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0729564800276328</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0709886380284247</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.122372587777753</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.150484018727778</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0807607818857155</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0763595325583267</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,33 +53,85 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment; climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
 </sst>
 </file>
@@ -457,40 +509,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244781082578977</v>
+        <v>0.176948673858409</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237490071485306</v>
+        <v>0.155206454498852</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243781094527363</v>
+        <v>0.165760187529138</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242201834862385</v>
+        <v>0.132688996855489</v>
       </c>
       <c r="F2" t="n">
-        <v>0.145118733509235</v>
+        <v>0.170569645844742</v>
       </c>
       <c r="G2" t="n">
-        <v>0.219512195121951</v>
+        <v>0.179335609610556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.218354430379747</v>
+        <v>0.13071460385036</v>
       </c>
       <c r="I2" t="n">
-        <v>0.277777777777778</v>
+        <v>0.167744724240085</v>
       </c>
       <c r="J2" t="n">
-        <v>0.341880341880342</v>
+        <v>0.121355113394281</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.148495010217095</v>
       </c>
       <c r="L2" t="n">
-        <v>0.157446808510638</v>
+        <v>0.217623806326528</v>
       </c>
       <c r="M2" t="n">
-        <v>0.315463917525773</v>
+        <v>0.231973932858366</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288705924467514</v>
+        <v>0.023746245554371</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295729250604351</v>
+        <v>0.019454285576107</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252525252525253</v>
+        <v>0.023277143708419</v>
       </c>
       <c r="E3" t="n">
-        <v>0.312127236580517</v>
+        <v>0.0207336999054023</v>
       </c>
       <c r="F3" t="n">
-        <v>0.254641909814324</v>
+        <v>0.0175328661238039</v>
       </c>
       <c r="G3" t="n">
-        <v>0.240157480314961</v>
+        <v>0.0187877053768524</v>
       </c>
       <c r="H3" t="n">
-        <v>0.289198606271777</v>
+        <v>0.0178566210555686</v>
       </c>
       <c r="I3" t="n">
-        <v>0.267441860465116</v>
+        <v>0.0173152017198904</v>
       </c>
       <c r="J3" t="n">
-        <v>0.519148936170213</v>
+        <v>0.0194274400460883</v>
       </c>
       <c r="K3" t="n">
-        <v>0.284466019417476</v>
+        <v>0.00536727269964157</v>
       </c>
       <c r="L3" t="n">
-        <v>0.145283018867925</v>
+        <v>0.0460861309434834</v>
       </c>
       <c r="M3" t="n">
-        <v>0.329449838187702</v>
+        <v>0.0366365520055472</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.038653527602944</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.0396355976118138</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.0488453402092147</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.0299275495122006</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.063182973582403</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.0293863348233816</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.048261771227565</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0239296293435979</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.0158092268062042</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0131676068923577</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.131664923797143</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.030113635988895</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240272727272727</v>
+        <v>0.072433196337855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1972</v>
+        <v>0.0897430512402594</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18546365914787</v>
+        <v>0.0815300483553539</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21087786259542</v>
+        <v>0.108999927307447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.113756613756614</v>
+        <v>0.0859696735401653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142</v>
+        <v>0.097729749508078</v>
       </c>
       <c r="H5" t="n">
-        <v>0.139303482587065</v>
+        <v>0.0737373460322634</v>
       </c>
       <c r="I5" t="n">
-        <v>0.288135593220339</v>
+        <v>0.0800897030643499</v>
       </c>
       <c r="J5" t="n">
-        <v>0.294243070362473</v>
+        <v>0.118689407285363</v>
       </c>
       <c r="K5" t="n">
-        <v>0.242</v>
+        <v>0.0707751809688699</v>
       </c>
       <c r="L5" t="n">
-        <v>0.063</v>
+        <v>0.0411491335889016</v>
       </c>
       <c r="M5" t="n">
-        <v>0.37</v>
+        <v>0.0390959751910479</v>
       </c>
     </row>
     <row r="6">
@@ -621,40 +673,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.0134410842070921</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.0166129673627565</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.00990324370778222</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.0100257576458049</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.0310965348388076</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0187937296808294</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0227853914465942</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.0130893432948986</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.0131440337020383</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.00511429124769571</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.00992595285253889</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>0.0101423291658875</v>
       </c>
     </row>
     <row r="7">
@@ -662,38 +714,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1704</v>
+        <v>0.119249582821528</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16</v>
+        <v>0.136879279973913</v>
       </c>
       <c r="D7" t="n">
-        <v>0.171679197994987</v>
+        <v>0.120324740670292</v>
       </c>
       <c r="E7" t="n">
-        <v>0.157442748091603</v>
+        <v>0.109488055833458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.111111111111111</v>
+        <v>0.155975584689061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.166</v>
+        <v>0.138918781982572</v>
       </c>
       <c r="H7" t="n">
-        <v>0.129353233830846</v>
+        <v>0.16014865621119</v>
       </c>
       <c r="I7" t="n">
-        <v>0.174334140435835</v>
+        <v>0.155415205525748</v>
       </c>
       <c r="J7" t="n">
-        <v>0.232409381663113</v>
+        <v>0.116143119897375</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1765</v>
-      </c>
-      <c r="L7"/>
+        <v>0.058352512190181</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0516680166571416</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.183666666666667</v>
+        <v>0.11496867295714</v>
       </c>
     </row>
     <row r="8">
@@ -701,32 +755,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414450291565922</v>
+        <v>0.0440703328458708</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384271892830563</v>
+        <v>0.0556835908767662</v>
       </c>
       <c r="D8" t="n">
-        <v>0.422305764411028</v>
+        <v>0.0396349712847709</v>
       </c>
       <c r="E8" t="n">
-        <v>0.425572519083969</v>
+        <v>0.0821377590537621</v>
       </c>
       <c r="F8" t="n">
-        <v>0.247354497354497</v>
-      </c>
-      <c r="G8"/>
+        <v>0.0287056885989428</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0354198209688927</v>
+      </c>
       <c r="H8" t="n">
-        <v>0.386401326699834</v>
+        <v>0.0340088165155789</v>
       </c>
       <c r="I8" t="n">
-        <v>0.418886198547215</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+        <v>0.0909184296970719</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0532106449141004</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0158215408500238</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.00632678822322605</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.455</v>
+        <v>0.0355544106849215</v>
       </c>
     </row>
     <row r="9">
@@ -734,40 +796,819 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266363636363636</v>
+        <v>0.0232845404949315</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2838</v>
+        <v>0.0277190418004305</v>
       </c>
       <c r="D9" t="n">
-        <v>0.422305764411028</v>
+        <v>0.0209335563539556</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270038167938931</v>
+        <v>0.0187494817203833</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16005291005291</v>
+        <v>0.0144099090952224</v>
       </c>
       <c r="G9" t="n">
-        <v>0.244</v>
+        <v>0.0169933817648993</v>
       </c>
       <c r="H9" t="n">
-        <v>0.203980099502488</v>
+        <v>0.0818728898352045</v>
       </c>
       <c r="I9" t="n">
-        <v>0.328087167070218</v>
+        <v>0.0266003234543923</v>
       </c>
       <c r="J9" t="n">
-        <v>0.345415778251599</v>
+        <v>0.0131806164171693</v>
       </c>
       <c r="K9" t="n">
-        <v>0.227</v>
+        <v>0.0146937576608452</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09</v>
+        <v>0.00526088777606903</v>
       </c>
       <c r="M9" t="n">
-        <v>0.322333333333333</v>
+        <v>0.0197410863201918</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0413945679478235</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0527612876240678</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.0378478605827785</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0640960220201268</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0754831299559596</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0221724636293523</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0489547657952483</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0515957186258728</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0629643291809819</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00995748759022352</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0401051644319554</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0284913632790919</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.0610075318045988</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0682625497106202</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.11476818594713</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0393363139888575</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0848555762131242</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0227930323951762</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0633951364910317</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0778012495096747</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0350708572062188</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0177302736228577</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.0392402832550644</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.065220313719315</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.036318313733475</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0303492751701462</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0305627962732717</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.0264317915553203</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.034093123900644</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0126742700578683</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0254991210870382</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0443011694538446</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0398784872706214</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.0281040310229985</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.0240291073428676</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0550443378159004</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0316619023583936</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.020167126115703</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.012436959125538</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.015254879727607</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0240251118972616</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0136802596231349</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0167572994369076</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0341142180962793</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0414125956620657</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0278375740358052</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.037357798631603</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0577809170495888</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0270711259919894</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.0310465966023829</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0254065753213864</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0174198071731154</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0473346575981105</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0164898986204219</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.017704736977718</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.057995023038915</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0269991451826757</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0128543543549344</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0218472473238587</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0245978902847182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0606381063267319</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0847187754510992</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0514829203403444</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.113468714902909</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.122399066294443</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.116752665308591</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0547975117455974</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0478921388154982</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.100305476507664</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0149209786920427</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0588883645207161</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0243221311329973</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0715444499861098</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0742247482511581</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0968802933753493</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0653488341490191</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0669329178080904</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0373841093051816</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0514033398038403</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.110932848292568</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0509445319215343</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.160236623877362</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00259584218681808</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0427086483595602</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0438713209812911</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0229189727406162</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0203047890339714</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0378843527230824</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0189346000174674</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0130491389225625</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00951853360227524</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.026871057567979</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.0141139196218575</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0333209351965288</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.102941226332114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.00912296727788547</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0090905907641623</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00861603556073884</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0147080327277219</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00654357988851507</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00536247626473339</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.011106023696502</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.00464674298425364</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.0148563509789483</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00114312378109044</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00779960431154217</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.012504935511294</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.00548439090212051</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.00738544044333992</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00842704851418689</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0106175169548618</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00535221128258067</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0110870113292001</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0031425168348546</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00471247697531813</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.00984903169908945</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00111540434016411</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.00421941073126723</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00903084455774402</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00350747267813929</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00240140039481314</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00301388411452899</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0026974301047993</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0092221941939587</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.00406859162073066</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00175842094182187</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00375924498514015</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0427657775628182</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.017558389011036</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0299395379640607</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0307080033339235</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0239433045098027</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0159204887615089</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0209681437129943</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0281447893994951</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0653390788490106</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0421129108189791</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0253025873266461</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00600177916881286</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.0344377143298887</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0374342235485173</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0225570852665277</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0242247062909054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0127877887089121</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.038101941816959</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0173965795919296</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0102241499270583</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0388779572908386</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0198134289823329</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0378033562142717</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0155109272498332</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0514429547160629</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0161626898189773</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0323250644293763</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0332771655305157</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0288447172197366</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0695657997417108</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0133416408178441</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0134564935505487</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.026229722760271</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0271151403596097</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0280780210661461</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.071711581519768</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0112898831610919</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0179785869922492</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0473249104815912</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0480314017698516</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0513258945872917</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0257853652953644</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0585395107540181</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.046207997690817</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0425554224405343</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0707934688656888</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0315922988317157</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0521321802651446</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0760092820323943</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0390763141446832</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0389666735972933</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0460228362443624</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0528611468776913</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.048095279732958</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.051046397560614</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0498480559610093</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0380105738124306</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.0364497278863142</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0392455795985156</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0160678239474841</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0541528634172794</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.029048691788262</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0216536003001745</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0248207347219647</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0163511671350575</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0485662219745389</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0112276432244119</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0358078413818051</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0191124040881251</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0157885681956608</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.00599281533977228</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.011539037887782</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0128482567735397</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0197595653702909</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.127140761791366</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.104596364579166</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.121129745948714</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0784908462762879</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.105397921368922</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.120168576782413</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.102948798652095</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.109001218234964</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.132777811109319</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.182170110782153</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.180026939982192</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.145992376067682</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0932294855086049</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0918378018291469</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0983621789594571</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.128972183901413</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.052217230565829</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.114297886560459</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0729564800276328</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0709886380284247</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.122372587777753</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.150484018727778</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0807607818857155</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0763595325583267</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,15 +53,33 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">Prefers sustainable future
-(Variant: Scenario A = Sustainable)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future
-(Variant: Scenario B = Sustainable)</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have
+all countries converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -439,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.679366394096195</v>
+        <v>0.244781082578977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.701539116816613</v>
+        <v>0.237490071485306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.721220700610069</v>
+        <v>0.243781094527363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.703415187125182</v>
+        <v>0.242201834862385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.759706650286704</v>
+        <v>0.145118733509235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.575101001313061</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.731116681894394</v>
+        <v>0.218354430379747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.683377424047149</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="J2" t="n">
-        <v>0.659704988708263</v>
+        <v>0.341880341880342</v>
       </c>
       <c r="K2" t="n">
-        <v>0.759423291434471</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.721853509181885</v>
+        <v>0.157446808510638</v>
       </c>
       <c r="M2" t="n">
-        <v>0.618615448895168</v>
+        <v>0.315463917525773</v>
       </c>
     </row>
     <row r="3">
@@ -480,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.693628531000139</v>
+        <v>0.288705924467514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.720085595824866</v>
+        <v>0.295729250604351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.736984879434596</v>
+        <v>0.252525252525253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.725881595869102</v>
+        <v>0.312127236580517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.765907100909998</v>
+        <v>0.254641909814324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.611889231338192</v>
+        <v>0.240157480314961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.743424508873319</v>
+        <v>0.289198606271777</v>
       </c>
       <c r="I3" t="n">
-        <v>0.704613116707588</v>
+        <v>0.267441860465116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.658773642965459</v>
+        <v>0.519148936170213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.757102957447094</v>
+        <v>0.284466019417476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.815436145072691</v>
+        <v>0.145283018867925</v>
       </c>
       <c r="M3" t="n">
-        <v>0.623296468364111</v>
+        <v>0.329449838187702</v>
       </c>
     </row>
     <row r="4">
@@ -521,40 +539,235 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.664640848496477</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.68320853906189</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.702621358461442</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.685046818395573</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.754990230010101</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.532316461825255</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.729425485286049</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.651605593520223</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.672192292694225</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.758873295962316</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.598082915941509</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.609951253611223</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.240272727272727</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1972</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.18546365914787</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.21087786259542</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.113756613756614</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.142</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.139303482587065</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.294243070362473</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1704</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.171679197994987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.157442748091603</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.129353233830846</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.174334140435835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.232409381663113</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7" t="n">
+        <v>0.183666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.414450291565922</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.384271892830563</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.422305764411028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.425572519083969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.247354497354497</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="n">
+        <v>0.386401326699834</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.418886198547215</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.266363636363636</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2838</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.422305764411028</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.270038167938931</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16005291005291</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.203980099502488</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.328087167070218</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.345415778251599</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.322333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -457,40 +457,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.244781082578977</v>
+        <v>0.240715268225585</v>
       </c>
       <c r="C2" t="n">
-        <v>0.237490071485306</v>
+        <v>0.240353982300885</v>
       </c>
       <c r="D2" t="n">
-        <v>0.243781094527363</v>
+        <v>0.26353482356548</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242201834862385</v>
+        <v>0.242804438327043</v>
       </c>
       <c r="F2" t="n">
-        <v>0.145118733509235</v>
+        <v>0.155707828877863</v>
       </c>
       <c r="G2" t="n">
-        <v>0.219512195121951</v>
+        <v>0.223065324625228</v>
       </c>
       <c r="H2" t="n">
-        <v>0.218354430379747</v>
+        <v>0.219462038199082</v>
       </c>
       <c r="I2" t="n">
-        <v>0.277777777777778</v>
+        <v>0.257262885030522</v>
       </c>
       <c r="J2" t="n">
-        <v>0.341880341880342</v>
+        <v>0.333886233051242</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2</v>
+        <v>0.19412187953393</v>
       </c>
       <c r="L2" t="n">
-        <v>0.157446808510638</v>
+        <v>0.153517029970293</v>
       </c>
       <c r="M2" t="n">
-        <v>0.315463917525773</v>
+        <v>0.309699306434451</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +498,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.288705924467514</v>
+        <v>0.27202380952381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.295729250604351</v>
+        <v>0.282647584973166</v>
       </c>
       <c r="D3" t="n">
-        <v>0.252525252525253</v>
+        <v>0.249293903118303</v>
       </c>
       <c r="E3" t="n">
-        <v>0.312127236580517</v>
+        <v>0.311006202350114</v>
       </c>
       <c r="F3" t="n">
-        <v>0.254641909814324</v>
+        <v>0.239650459214149</v>
       </c>
       <c r="G3" t="n">
-        <v>0.240157480314961</v>
+        <v>0.225384521943047</v>
       </c>
       <c r="H3" t="n">
-        <v>0.289198606271777</v>
+        <v>0.274251128645325</v>
       </c>
       <c r="I3" t="n">
-        <v>0.267441860465116</v>
+        <v>0.251506423485516</v>
       </c>
       <c r="J3" t="n">
-        <v>0.519148936170213</v>
+        <v>0.477931588157487</v>
       </c>
       <c r="K3" t="n">
-        <v>0.284466019417476</v>
+        <v>0.264157823102362</v>
       </c>
       <c r="L3" t="n">
-        <v>0.145283018867925</v>
+        <v>0.146024373876468</v>
       </c>
       <c r="M3" t="n">
-        <v>0.329449838187702</v>
+        <v>0.31532849622526</v>
       </c>
     </row>
     <row r="4">
@@ -580,40 +580,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.240272727272727</v>
+        <v>0.230566236899646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1972</v>
+        <v>0.19288256227758</v>
       </c>
       <c r="D5" t="n">
-        <v>0.18546365914787</v>
+        <v>0.180483239419028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.21087786259542</v>
+        <v>0.210784972155353</v>
       </c>
       <c r="F5" t="n">
-        <v>0.113756613756614</v>
+        <v>0.113603397886076</v>
       </c>
       <c r="G5" t="n">
-        <v>0.142</v>
+        <v>0.146745775257112</v>
       </c>
       <c r="H5" t="n">
-        <v>0.139303482587065</v>
+        <v>0.142450745909501</v>
       </c>
       <c r="I5" t="n">
-        <v>0.288135593220339</v>
+        <v>0.27223852956076</v>
       </c>
       <c r="J5" t="n">
-        <v>0.294243070362473</v>
+        <v>0.277403460412491</v>
       </c>
       <c r="K5" t="n">
-        <v>0.242</v>
+        <v>0.254361416213627</v>
       </c>
       <c r="L5" t="n">
-        <v>0.063</v>
+        <v>0.0540317028840882</v>
       </c>
       <c r="M5" t="n">
-        <v>0.37</v>
+        <v>0.346783218117061</v>
       </c>
     </row>
     <row r="6">
@@ -662,38 +662,38 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1704</v>
+        <v>0.177319211102995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.16</v>
+        <v>0.161498953775918</v>
       </c>
       <c r="D7" t="n">
-        <v>0.171679197994987</v>
+        <v>0.174430164168424</v>
       </c>
       <c r="E7" t="n">
-        <v>0.157442748091603</v>
+        <v>0.161122702776255</v>
       </c>
       <c r="F7" t="n">
-        <v>0.111111111111111</v>
+        <v>0.118947260057302</v>
       </c>
       <c r="G7" t="n">
-        <v>0.166</v>
+        <v>0.154213152151577</v>
       </c>
       <c r="H7" t="n">
-        <v>0.129353233830846</v>
+        <v>0.132238369752285</v>
       </c>
       <c r="I7" t="n">
-        <v>0.174334140435835</v>
+        <v>0.172775580173251</v>
       </c>
       <c r="J7" t="n">
-        <v>0.232409381663113</v>
+        <v>0.225707379012653</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1765</v>
+        <v>0.203387782186873</v>
       </c>
       <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.183666666666667</v>
+        <v>0.186639316920998</v>
       </c>
     </row>
     <row r="8">
@@ -701,32 +701,32 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.414450291565922</v>
+        <v>0.410383024155879</v>
       </c>
       <c r="C8" t="n">
-        <v>0.384271892830563</v>
+        <v>0.380285035629454</v>
       </c>
       <c r="D8" t="n">
-        <v>0.422305764411028</v>
+        <v>0.423623879929119</v>
       </c>
       <c r="E8" t="n">
-        <v>0.425572519083969</v>
+        <v>0.42194507731163</v>
       </c>
       <c r="F8" t="n">
-        <v>0.247354497354497</v>
+        <v>0.245056734915212</v>
       </c>
       <c r="G8"/>
       <c r="H8" t="n">
-        <v>0.386401326699834</v>
+        <v>0.386401266700585</v>
       </c>
       <c r="I8" t="n">
-        <v>0.418886198547215</v>
+        <v>0.408886230745263</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
       <c r="L8"/>
       <c r="M8" t="n">
-        <v>0.455</v>
+        <v>0.459386062935015</v>
       </c>
     </row>
     <row r="9">
@@ -734,40 +734,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.266363636363636</v>
+        <v>0.254549987534281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2838</v>
+        <v>0.276964047936085</v>
       </c>
       <c r="D9" t="n">
-        <v>0.422305764411028</v>
+        <v>0.415927910850548</v>
       </c>
       <c r="E9" t="n">
-        <v>0.270038167938931</v>
+        <v>0.260450555022208</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16005291005291</v>
+        <v>0.152255234163317</v>
       </c>
       <c r="G9" t="n">
-        <v>0.244</v>
+        <v>0.224832940970923</v>
       </c>
       <c r="H9" t="n">
-        <v>0.203980099502488</v>
+        <v>0.201797747271923</v>
       </c>
       <c r="I9" t="n">
-        <v>0.328087167070218</v>
+        <v>0.322018991707979</v>
       </c>
       <c r="J9" t="n">
-        <v>0.345415778251599</v>
+        <v>0.343790800610466</v>
       </c>
       <c r="K9" t="n">
-        <v>0.227</v>
+        <v>0.207033983701805</v>
       </c>
       <c r="L9" t="n">
-        <v>0.09</v>
+        <v>0.0872022620104777</v>
       </c>
       <c r="M9" t="n">
-        <v>0.322333333333333</v>
+        <v>0.314410890244692</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,33 +53,19 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
+    <t xml:space="preserve">Would not support such a movement</t>
   </si>
   <si>
     <t xml:space="preserve">Could sign a petition and spread ideas</t>
   </si>
   <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Could attend a demonstration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could go on strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could donate [$100] to a strike fund</t>
   </si>
 </sst>
 </file>
@@ -457,40 +443,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.240715268225585</v>
+        <v>0.320926957001515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.240353982300885</v>
+        <v>0.278475647107507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.26353482356548</v>
+        <v>0.294093954964281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.242804438327043</v>
+        <v>0.306999196784687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.155707828877863</v>
+        <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.223065324625228</v>
+        <v>0.290122876594547</v>
       </c>
       <c r="H2" t="n">
-        <v>0.219462038199082</v>
+        <v>0.253886167121302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.257262885030522</v>
+        <v>0.31438130842165</v>
       </c>
       <c r="J2" t="n">
-        <v>0.333886233051242</v>
+        <v>0.362537857136665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.19412187953393</v>
+        <v>0.437685282340813</v>
       </c>
       <c r="L2" t="n">
-        <v>0.153517029970293</v>
+        <v>0.262613866561213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.309699306434451</v>
+        <v>0.328319631097193</v>
       </c>
     </row>
     <row r="3">
@@ -498,40 +484,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.27202380952381</v>
+        <v>0.517681293588919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.282647584973166</v>
+        <v>0.54627578656303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.249293903118303</v>
+        <v>0.534923147437985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.311006202350114</v>
+        <v>0.526521842869553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.239650459214149</v>
+        <v>0.575681110382423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.225384521943047</v>
+        <v>0.541447431254404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.274251128645325</v>
+        <v>0.56757184923964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.251506423485516</v>
+        <v>0.552165435505529</v>
       </c>
       <c r="J3" t="n">
-        <v>0.477931588157487</v>
+        <v>0.477777082615971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.264157823102362</v>
+        <v>0.512682328274899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.146024373876468</v>
+        <v>0.401448708245477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.31532849622526</v>
+        <v>0.497295721158366</v>
       </c>
     </row>
     <row r="4">
@@ -539,40 +525,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.193757331037532</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.210178986079405</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.222373163189663</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.181082414160383</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.263929780996636</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.147682919391645</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.270559772268355</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.187224275049165</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.0414235973359027</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.239448322059387</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.231271689923813</v>
       </c>
     </row>
     <row r="5">
@@ -580,40 +566,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.230566236899646</v>
+        <v>0.0738340049950829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.19288256227758</v>
+        <v>0.0936479323164794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.180483239419028</v>
+        <v>0.0748321566031003</v>
       </c>
       <c r="E5" t="n">
-        <v>0.210784972155353</v>
+        <v>0.113455534552083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.113603397886076</v>
+        <v>0.146585323549601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.146745775257112</v>
+        <v>0.0756771377174381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.142450745909501</v>
+        <v>0.0950565133040533</v>
       </c>
       <c r="I5" t="n">
-        <v>0.27223852956076</v>
+        <v>0.0526514577600121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.277403460412491</v>
+        <v>0.0582779037491039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.254361416213627</v>
+        <v>0.019059891303726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0540317028840882</v>
+        <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.346783218117061</v>
+        <v>0.071315755441049</v>
       </c>
     </row>
     <row r="6">
@@ -621,153 +607,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.10124092951548</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.104803107568438</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.0783920047707798</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.119136121104366</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.117764178444178</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0665018894486479</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.0991777516511175</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.12373315427868</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.133371788659431</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>0.0243397353076628</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>0.175584168878879</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.177319211102995</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.161498953775918</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.174430164168424</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.161122702776255</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.118947260057302</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.154213152151577</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.132238369752285</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.172775580173251</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.225707379012653</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.203387782186873</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.186639316920998</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.410383024155879</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.380285035629454</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.423623879929119</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.42194507731163</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.245056734915212</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="n">
-        <v>0.386401266700585</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.408886230745263</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.459386062935015</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.254549987534281</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.276964047936085</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.415927910850548</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.260450555022208</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.152255234163317</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.224832940970923</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.201797747271923</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.322018991707979</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.343790800610466</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.207033983701805</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0872022620104777</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.314410890244692</v>
+        <v>0.121043041081575</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,85 +20,64 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l tax on millionaires
-with 30% funding LICs (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of winners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of losers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred degree of redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied minimum income (in $/year)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied transfer (in % of world income)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to skip this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has not touched the sliders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touched sliders and satisfied</t>
   </si>
 </sst>
 </file>
@@ -470,561 +449,374 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.664226512802836</v>
+        <v>47.3738987802139</v>
       </c>
       <c r="C2" t="n">
-        <v>0.572848551968255</v>
+        <v>47.9271661362879</v>
       </c>
       <c r="D2" t="n">
-        <v>0.644575228658036</v>
+        <v>47.235101025608</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>46.5056769193759</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>48.7201520505185</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>49.4760424962276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686245500193959</v>
+        <v>49.0283360313302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693180009940773</v>
+        <v>48.4130854078035</v>
       </c>
       <c r="J2" t="n">
-        <v>0.70121194589928</v>
+        <v>44.7857599076557</v>
       </c>
       <c r="K2" t="n">
-        <v>0.880240645828153</v>
+        <v>46.7817073785458</v>
       </c>
       <c r="L2" t="n">
-        <v>0.909247309965247</v>
+        <v>49.8918139075144</v>
       </c>
       <c r="M2" t="n">
-        <v>0.635891200808388</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.784787411820172</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.496232098818529</v>
+        <v>46.7542391167642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.564056918460414</v>
+        <v>17.7284309346652</v>
       </c>
       <c r="C3" t="n">
-        <v>0.438519909819211</v>
+        <v>17.6757157738403</v>
       </c>
       <c r="D3" t="n">
-        <v>0.608336262307662</v>
+        <v>18.4467406250294</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>17.483715865681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>17.2320852638926</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>16.754096665448</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484301365259412</v>
+        <v>18.4623046745572</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612085827792447</v>
+        <v>17.4189241105924</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572309112554739</v>
+        <v>18.3851242687856</v>
       </c>
       <c r="K3" t="n">
-        <v>0.845249604687817</v>
+        <v>17.7384550005227</v>
       </c>
       <c r="L3" t="n">
-        <v>0.851579637309937</v>
+        <v>17.4538497656465</v>
       </c>
       <c r="M3" t="n">
-        <v>0.53634538292824</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.578812451569643</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.351976770537292</v>
+        <v>17.8088827749863</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.66651612376134</v>
+        <v>4.66215828721021</v>
       </c>
       <c r="C4" t="n">
-        <v>0.573361650550744</v>
+        <v>4.81863675290261</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667007243291184</v>
+        <v>4.62639569404863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>4.64029111788804</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>5.15669116783075</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>4.91824763267677</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613467393904764</v>
+        <v>5.02493311213579</v>
       </c>
       <c r="I4" t="n">
-        <v>0.747738543210677</v>
+        <v>4.77084250692855</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687280315653707</v>
+        <v>4.42395634859103</v>
       </c>
       <c r="K4" t="n">
-        <v>0.879515634668033</v>
+        <v>4.54104222019968</v>
       </c>
       <c r="L4" t="n">
-        <v>0.911224469217849</v>
+        <v>4.98006182286059</v>
       </c>
       <c r="M4" t="n">
-        <v>0.626914750584237</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.751213818870576</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425296011477573</v>
+        <v>4.50342546995902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.698602594648788</v>
+        <v>2904.13174396868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.406090627387198</v>
+        <v>3013.99648441846</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723594997027424</v>
+        <v>2856.27218254474</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493868</v>
+        <v>2866.37646927345</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>3268.67955624125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>3174.89746134272</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601734056180248</v>
+        <v>3168.21066966258</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736254582714072</v>
+        <v>2966.48272925279</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678198041159092</v>
+        <v>2660.91125126678</v>
       </c>
       <c r="K5" t="n">
-        <v>0.832453270416735</v>
+        <v>2791.36080801827</v>
       </c>
       <c r="L5" t="n">
-        <v>0.831456137791045</v>
+        <v>3291.56572730894</v>
       </c>
       <c r="M5" t="n">
-        <v>0.685388571356183</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.792944541873363</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.496524297223254</v>
+        <v>2789.12603881073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.548749204972874</v>
+        <v>5.11274339194611</v>
       </c>
       <c r="C6" t="n">
-        <v>0.366613390750273</v>
+        <v>5.39514273808263</v>
       </c>
       <c r="D6" t="n">
-        <v>0.583987178202389</v>
+        <v>5.0147638962913</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>5.10885958685904</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>5.93329114050014</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>5.86127261939289</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356013330649719</v>
+        <v>5.65083244023413</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508382107274219</v>
+        <v>5.28587527204688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451398568187944</v>
+        <v>4.66029346746541</v>
       </c>
       <c r="K6" t="n">
-        <v>0.677827112481047</v>
+        <v>4.6584932524887</v>
       </c>
       <c r="L6" t="n">
-        <v>0.743498584988873</v>
+        <v>5.91408224230056</v>
       </c>
       <c r="M6" t="n">
-        <v>0.503559387678212</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.636870250532107</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.373907558453907</v>
+        <v>4.89938812724382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.488009346515533</v>
+        <v>0.557747404615879</v>
       </c>
       <c r="C7" t="n">
-        <v>0.304486035670833</v>
+        <v>0.581924165984681</v>
       </c>
       <c r="D7" t="n">
-        <v>0.513014491525721</v>
+        <v>0.528351073871356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71931115965366</v>
+        <v>0.568251340340844</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495264748486105</v>
+        <v>0.633294813075585</v>
       </c>
       <c r="G7" t="n">
-        <v>0.440316456384772</v>
+        <v>0.56683869430922</v>
       </c>
       <c r="H7" t="n">
-        <v>0.342128267431882</v>
+        <v>0.627561397537583</v>
       </c>
       <c r="I7" t="n">
-        <v>0.454830804343478</v>
+        <v>0.586565171659253</v>
       </c>
       <c r="J7" t="n">
-        <v>0.306878691636744</v>
+        <v>0.541107445542664</v>
       </c>
       <c r="K7" t="n">
-        <v>0.671355992475847</v>
+        <v>0.396397500500417</v>
       </c>
       <c r="L7" t="n">
-        <v>0.73716679715381</v>
+        <v>0.675626482239489</v>
       </c>
       <c r="M7" t="n">
-        <v>0.45566201329143</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.566039039099673</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.339022055208755</v>
+        <v>0.583598508969987</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.679366394096195</v>
+        <v>0.429455777564688</v>
       </c>
       <c r="C8" t="n">
-        <v>0.595648253088616</v>
+        <v>0.399938028884069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680987204503282</v>
+        <v>0.444355939422213</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831184500933943</v>
+        <v>0.413791210382809</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695788344040076</v>
+        <v>0.347683813345704</v>
       </c>
       <c r="G8" t="n">
-        <v>0.538162773640089</v>
+        <v>0.423972329239059</v>
       </c>
       <c r="H8" t="n">
-        <v>0.743500976587183</v>
+        <v>0.354534285584268</v>
       </c>
       <c r="I8" t="n">
-        <v>0.81462228490617</v>
+        <v>0.400478141047647</v>
       </c>
       <c r="J8" t="n">
-        <v>0.756962294490717</v>
+        <v>0.434832711547606</v>
       </c>
       <c r="K8" t="n">
-        <v>0.713280127381035</v>
+        <v>0.592104616524749</v>
       </c>
       <c r="L8" t="n">
-        <v>0.703520370125625</v>
+        <v>0.324134427552624</v>
       </c>
       <c r="M8" t="n">
-        <v>0.671406780430398</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.776812968723143</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.425499404919733</v>
+        <v>0.408076772619088</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.582407081968796</v>
+        <v>0.408374634826883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.440671030859726</v>
+        <v>0.388588909468523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.616661919613841</v>
+        <v>0.399590058385227</v>
       </c>
       <c r="E9" t="n">
-        <v>0.791367358009102</v>
+        <v>0.384091647511391</v>
       </c>
       <c r="F9" t="n">
-        <v>0.647850068391449</v>
+        <v>0.410195834228784</v>
       </c>
       <c r="G9" t="n">
-        <v>0.562087374904841</v>
+        <v>0.302872499149178</v>
       </c>
       <c r="H9" t="n">
-        <v>0.529885434677782</v>
+        <v>0.371813108427663</v>
       </c>
       <c r="I9" t="n">
-        <v>0.619694338952137</v>
+        <v>0.437136028711529</v>
       </c>
       <c r="J9" t="n">
-        <v>0.581289088318094</v>
+        <v>0.303667681206425</v>
       </c>
       <c r="K9" t="n">
-        <v>0.756844881931732</v>
+        <v>0.475448989690047</v>
       </c>
       <c r="L9" t="n">
-        <v>0.822839088961434</v>
+        <v>0.388366284732463</v>
       </c>
       <c r="M9" t="n">
-        <v>0.529363660067618</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.581144289159245</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.389096341662054</v>
+        <v>0.406177169426307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" t="n">
-        <v>0.517681293588919</v>
+        <v>0.398118456901027</v>
       </c>
       <c r="C10" t="n">
-        <v>0.37450861498383</v>
+        <v>0.410488474534835</v>
       </c>
       <c r="D10" t="n">
-        <v>0.54400229948967</v>
+        <v>0.369081820440341</v>
       </c>
       <c r="E10" t="n">
-        <v>0.661278534958537</v>
+        <v>0.430038380653647</v>
       </c>
       <c r="F10" t="n">
-        <v>0.497096533902024</v>
+        <v>0.410781068299679</v>
       </c>
       <c r="G10" t="n">
-        <v>0.442405137881287</v>
+        <v>0.459008243270367</v>
       </c>
       <c r="H10" t="n">
-        <v>0.389456592496737</v>
+        <v>0.427013225872613</v>
       </c>
       <c r="I10" t="n">
-        <v>0.639772161098881</v>
+        <v>0.380331129442371</v>
       </c>
       <c r="J10" t="n">
-        <v>0.541929639804469</v>
+        <v>0.455290253425317</v>
       </c>
       <c r="K10" t="n">
-        <v>0.404576421408372</v>
+        <v>0.279967106328976</v>
       </c>
       <c r="L10" t="n">
-        <v>0.407592835762763</v>
+        <v>0.442866209980246</v>
       </c>
       <c r="M10" t="n">
-        <v>0.489892191381658</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.654584229780058</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.324832521986835</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.364700740506257</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.301437840047023</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.347757564445013</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.612564469882184</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.329076922032927</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.266032348749018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.163374634470308</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.313128420422624</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.218439546291854</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" t="n">
-        <v>0.282837312902432</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.521302744077032</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.271064836019934</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.347856888878235</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.261828422049271</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.393011358029993</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.540846531529226</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.236110214107178</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" t="n">
-        <v>0.31201873214884</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.450138037793688</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.174002494177101</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.414163491723958</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.396411998512916</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.37990538035527</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.606618681027554</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.404741669455715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.296470179474792</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.282576495496765</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.376409725924188</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.325947806714271</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.698489352155402</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.362460536490887</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.536101382797469</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.265773612275098</v>
+        <v>0.426810711448192</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,31 +53,34 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Preferred share of winners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred share of losers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preferred degree of redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implied minimum income (in $/year)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implied transfer (in % of world income)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I am satisfied with my custom redistribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I want to skip this question.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Has not touched the sliders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Touched sliders and satisfied</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belief about GCS support in own country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Belief about GCS support in the U.S.
+(except for the U.S.: support in the EU)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
+                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
+                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
+                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
+                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
   </si>
 </sst>
 </file>
@@ -455,40 +458,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>47.3738987802139</v>
+        <v>66.4226512802836</v>
       </c>
       <c r="C2" t="n">
-        <v>47.9271661362879</v>
+        <v>65.7193301686884</v>
       </c>
       <c r="D2" t="n">
-        <v>47.235101025608</v>
+        <v>63.2178756299858</v>
       </c>
       <c r="E2" t="n">
-        <v>46.5056769193759</v>
+        <v>62.5788710577029</v>
       </c>
       <c r="F2" t="n">
-        <v>48.7201520505185</v>
+        <v>73.7750703446263</v>
       </c>
       <c r="G2" t="n">
-        <v>49.4760424962276</v>
+        <v>55.7958636289971</v>
       </c>
       <c r="H2" t="n">
-        <v>49.0283360313302</v>
+        <v>68.9928868694489</v>
       </c>
       <c r="I2" t="n">
-        <v>48.4130854078035</v>
+        <v>69.5057232484879</v>
       </c>
       <c r="J2" t="n">
-        <v>44.7857599076557</v>
+        <v>57.7523185799727</v>
       </c>
       <c r="K2" t="n">
-        <v>46.7817073785458</v>
+        <v>67.9794880829724</v>
       </c>
       <c r="L2" t="n">
-        <v>49.8918139075144</v>
+        <v>88.0240645828152</v>
       </c>
       <c r="M2" t="n">
-        <v>46.7542391167642</v>
+        <v>64.0316340570691</v>
       </c>
     </row>
     <row r="3">
@@ -496,40 +499,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>17.7284309346652</v>
+        <v>56.9461678435988</v>
       </c>
       <c r="C3" t="n">
-        <v>17.6757157738403</v>
+        <v>61.0914766632881</v>
       </c>
       <c r="D3" t="n">
-        <v>18.4467406250294</v>
+        <v>64.9673122291722</v>
       </c>
       <c r="E3" t="n">
-        <v>17.483715865681</v>
+        <v>53.4385977368577</v>
       </c>
       <c r="F3" t="n">
-        <v>17.2320852638926</v>
+        <v>77.6272593268426</v>
       </c>
       <c r="G3" t="n">
-        <v>16.754096665448</v>
+        <v>50.6505049421928</v>
       </c>
       <c r="H3" t="n">
-        <v>18.4623046745572</v>
+        <v>68.1637766424686</v>
       </c>
       <c r="I3" t="n">
-        <v>17.4189241105924</v>
+        <v>58.1054438205453</v>
       </c>
       <c r="J3" t="n">
-        <v>18.3851242687856</v>
+        <v>62.3284705512702</v>
       </c>
       <c r="K3" t="n">
-        <v>17.7384550005227</v>
+        <v>56.8487902138407</v>
       </c>
       <c r="L3" t="n">
-        <v>17.4538497656465</v>
+        <v>84.6671870687128</v>
       </c>
       <c r="M3" t="n">
-        <v>17.8088827749863</v>
+        <v>48.604165854654</v>
       </c>
     </row>
     <row r="4">
@@ -537,40 +540,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>4.66215828721021</v>
+        <v>41.7372453377052</v>
       </c>
       <c r="C4" t="n">
-        <v>4.81863675290261</v>
+        <v>42.2297683433051</v>
       </c>
       <c r="D4" t="n">
-        <v>4.62639569404863</v>
+        <v>44.4877182903437</v>
       </c>
       <c r="E4" t="n">
-        <v>4.64029111788804</v>
+        <v>38.552586222486</v>
       </c>
       <c r="F4" t="n">
-        <v>5.15669116783075</v>
+        <v>43.3335742727043</v>
       </c>
       <c r="G4" t="n">
-        <v>4.91824763267677</v>
+        <v>39.2814968440086</v>
       </c>
       <c r="H4" t="n">
-        <v>5.02493311213579</v>
+        <v>43.8010508208596</v>
       </c>
       <c r="I4" t="n">
-        <v>4.77084250692855</v>
+        <v>43.8290682999177</v>
       </c>
       <c r="J4" t="n">
-        <v>4.42395634859103</v>
+        <v>45.7593973431738</v>
       </c>
       <c r="K4" t="n">
-        <v>4.54104222019968</v>
+        <v>36.9068079681403</v>
       </c>
       <c r="L4" t="n">
-        <v>4.98006182286059</v>
+        <v>54.6783899296328</v>
       </c>
       <c r="M4" t="n">
-        <v>4.50342546995902</v>
+        <v>41.687361942331</v>
       </c>
     </row>
     <row r="5">
@@ -578,40 +581,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>2904.13174396868</v>
+        <v>34.7728459875887</v>
       </c>
       <c r="C5" t="n">
-        <v>3013.99648441846</v>
+        <v>28.1800572752332</v>
       </c>
       <c r="D5" t="n">
-        <v>2856.27218254474</v>
+        <v>27.3641066555449</v>
       </c>
       <c r="E5" t="n">
-        <v>2866.37646927345</v>
+        <v>25.6678080584812</v>
       </c>
       <c r="F5" t="n">
-        <v>3268.67955624125</v>
+        <v>29.6625949546182</v>
       </c>
       <c r="G5" t="n">
-        <v>3174.89746134272</v>
+        <v>31.851890054073</v>
       </c>
       <c r="H5" t="n">
-        <v>3168.21066966258</v>
+        <v>29.1910171733495</v>
       </c>
       <c r="I5" t="n">
-        <v>2966.48272925279</v>
+        <v>28.6093000748544</v>
       </c>
       <c r="J5" t="n">
-        <v>2660.91125126678</v>
+        <v>25.624783349908</v>
       </c>
       <c r="K5" t="n">
-        <v>2791.36080801827</v>
+        <v>30.4387261840999</v>
       </c>
       <c r="L5" t="n">
-        <v>3291.56572730894</v>
+        <v>45.8572414678735</v>
       </c>
       <c r="M5" t="n">
-        <v>2789.12603881073</v>
+        <v>42.9925088066507</v>
       </c>
     </row>
     <row r="6">
@@ -619,40 +622,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>5.11274339194611</v>
+        <v>65.7757973018818</v>
       </c>
       <c r="C6" t="n">
-        <v>5.39514273808263</v>
+        <v>68.8160595583607</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0147638962913</v>
+        <v>75.3397348285344</v>
       </c>
       <c r="E6" t="n">
-        <v>5.10885958685904</v>
+        <v>62.7385682537816</v>
       </c>
       <c r="F6" t="n">
-        <v>5.93329114050014</v>
+        <v>84.8771216338856</v>
       </c>
       <c r="G6" t="n">
-        <v>5.86127261939289</v>
+        <v>60.3075714398011</v>
       </c>
       <c r="H6" t="n">
-        <v>5.65083244023413</v>
+        <v>70.7904376466329</v>
       </c>
       <c r="I6" t="n">
-        <v>5.28587527204688</v>
+        <v>63.7497870612938</v>
       </c>
       <c r="J6" t="n">
-        <v>4.66029346746541</v>
+        <v>61.691572049826</v>
       </c>
       <c r="K6" t="n">
-        <v>4.6584932524887</v>
+        <v>66.5884503407556</v>
       </c>
       <c r="L6" t="n">
-        <v>5.91408224230056</v>
+        <v>86.9712358856764</v>
       </c>
       <c r="M6" t="n">
-        <v>4.89938812724382</v>
+        <v>60.3307739305438</v>
       </c>
     </row>
     <row r="7">
@@ -660,40 +663,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>0.557747404615879</v>
+        <v>67.6120341228827</v>
       </c>
       <c r="C7" t="n">
-        <v>0.581924165984681</v>
+        <v>73.1501666372061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.528351073871356</v>
+        <v>75.9578759812179</v>
       </c>
       <c r="E7" t="n">
-        <v>0.568251340340844</v>
+        <v>71.5781509811605</v>
       </c>
       <c r="F7" t="n">
-        <v>0.633294813075585</v>
+        <v>82.6621609973818</v>
       </c>
       <c r="G7" t="n">
-        <v>0.56683869430922</v>
+        <v>53.9542753382839</v>
       </c>
       <c r="H7" t="n">
-        <v>0.627561397537583</v>
+        <v>77.7187061273175</v>
       </c>
       <c r="I7" t="n">
-        <v>0.586565171659253</v>
+        <v>67.466334415845</v>
       </c>
       <c r="J7" t="n">
-        <v>0.541107445542664</v>
+        <v>63.7890555129928</v>
       </c>
       <c r="K7" t="n">
-        <v>0.396397500500417</v>
+        <v>67.2922348590199</v>
       </c>
       <c r="L7" t="n">
-        <v>0.675626482239489</v>
+        <v>86.513074970901</v>
       </c>
       <c r="M7" t="n">
-        <v>0.583598508969987</v>
+        <v>58.9366541153335</v>
       </c>
     </row>
     <row r="8">
@@ -701,40 +704,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>0.429455777564688</v>
+        <v>69.9010110708032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.399938028884069</v>
+        <v>73.33558792255</v>
       </c>
       <c r="D8" t="n">
-        <v>0.444355939422213</v>
+        <v>76.3148103910017</v>
       </c>
       <c r="E8" t="n">
-        <v>0.413791210382809</v>
+        <v>77.0272348727413</v>
       </c>
       <c r="F8" t="n">
-        <v>0.347683813345704</v>
+        <v>78.8435848365109</v>
       </c>
       <c r="G8" t="n">
-        <v>0.423972329239059</v>
+        <v>71.308717218709</v>
       </c>
       <c r="H8" t="n">
-        <v>0.354534285584268</v>
+        <v>74.199477200258</v>
       </c>
       <c r="I8" t="n">
-        <v>0.400478141047647</v>
+        <v>62.534539350272</v>
       </c>
       <c r="J8" t="n">
-        <v>0.434832711547606</v>
+        <v>74.3491876231661</v>
       </c>
       <c r="K8" t="n">
-        <v>0.592104616524749</v>
+        <v>70.796250180037</v>
       </c>
       <c r="L8" t="n">
-        <v>0.324134427552624</v>
+        <v>90.518282762834</v>
       </c>
       <c r="M8" t="n">
-        <v>0.408076772619088</v>
+        <v>63.6481822477839</v>
       </c>
     </row>
     <row r="9">
@@ -742,81 +745,40 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>0.408374634826883</v>
+        <v>63.2380148473265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388588909468523</v>
+        <v>67.9633244466616</v>
       </c>
       <c r="D9" t="n">
-        <v>0.399590058385227</v>
+        <v>61.4641799995525</v>
       </c>
       <c r="E9" t="n">
-        <v>0.384091647511391</v>
+        <v>68.0628787989001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.410195834228784</v>
+        <v>79.3318305400507</v>
       </c>
       <c r="G9" t="n">
-        <v>0.302872499149178</v>
+        <v>56.6663585514635</v>
       </c>
       <c r="H9" t="n">
-        <v>0.371813108427663</v>
+        <v>77.4540600482755</v>
       </c>
       <c r="I9" t="n">
-        <v>0.437136028711529</v>
+        <v>66.1815968025775</v>
       </c>
       <c r="J9" t="n">
-        <v>0.303667681206425</v>
+        <v>64.7145596361043</v>
       </c>
       <c r="K9" t="n">
-        <v>0.475448989690047</v>
+        <v>63.3776677259688</v>
       </c>
       <c r="L9" t="n">
-        <v>0.388366284732463</v>
+        <v>87.5032786022504</v>
       </c>
       <c r="M9" t="n">
-        <v>0.406177169426307</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.398118456901027</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.410488474534835</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.369081820440341</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.430038380653647</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.410781068299679</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.459008243270367</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.427013225872613</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.380331129442371</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.455290253425317</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.279967106328976</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.442866209980246</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.426810711448192</v>
+        <v>56.0366948341141</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -53,34 +53,85 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Belief about GCS support in the U.S.
-(except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
-                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
-                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment; climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
 </sst>
 </file>
@@ -458,40 +509,40 @@
         <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>66.4226512802836</v>
+        <v>0.0823229244381311</v>
       </c>
       <c r="C2" t="n">
-        <v>65.7193301686884</v>
+        <v>0.0977448568617962</v>
       </c>
       <c r="D2" t="n">
-        <v>63.2178756299858</v>
+        <v>0.104334600699903</v>
       </c>
       <c r="E2" t="n">
-        <v>62.5788710577029</v>
+        <v>0.120507267077377</v>
       </c>
       <c r="F2" t="n">
-        <v>73.7750703446263</v>
+        <v>0.0934588995436466</v>
       </c>
       <c r="G2" t="n">
-        <v>55.7958636289971</v>
+        <v>0.103514083948079</v>
       </c>
       <c r="H2" t="n">
-        <v>68.9928868694489</v>
+        <v>0.0776521610951006</v>
       </c>
       <c r="I2" t="n">
-        <v>69.5057232484879</v>
+        <v>0.0695532335044786</v>
       </c>
       <c r="J2" t="n">
-        <v>57.7523185799727</v>
+        <v>0.164253551537879</v>
       </c>
       <c r="K2" t="n">
-        <v>67.9794880829724</v>
+        <v>0.124066875614354</v>
       </c>
       <c r="L2" t="n">
-        <v>88.0240645828152</v>
+        <v>0.0400713299396836</v>
       </c>
       <c r="M2" t="n">
-        <v>64.0316340570691</v>
+        <v>0.0518529548712786</v>
       </c>
     </row>
     <row r="3">
@@ -499,40 +550,40 @@
         <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>56.9461678435988</v>
+        <v>0.0173745706524871</v>
       </c>
       <c r="C3" t="n">
-        <v>61.0914766632881</v>
+        <v>0.00785300887067463</v>
       </c>
       <c r="D3" t="n">
-        <v>64.9673122291722</v>
+        <v>0.0203534672696621</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4385977368577</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>77.6272593268426</v>
+        <v>0.0210808772951232</v>
       </c>
       <c r="G3" t="n">
-        <v>50.6505049421928</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>68.1637766424686</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>58.1054438205453</v>
+        <v>0.00423401188036329</v>
       </c>
       <c r="J3" t="n">
-        <v>62.3284705512702</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>56.8487902138407</v>
+        <v>0.00964784119563373</v>
       </c>
       <c r="L3" t="n">
-        <v>84.6671870687128</v>
+        <v>0.0514298367065798</v>
       </c>
       <c r="M3" t="n">
-        <v>48.604165854654</v>
+        <v>0.0280730333655435</v>
       </c>
     </row>
     <row r="4">
@@ -540,40 +591,40 @@
         <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>41.7372453377052</v>
+        <v>0.0475685392618647</v>
       </c>
       <c r="C4" t="n">
-        <v>42.2297683433051</v>
+        <v>0.0560052351637074</v>
       </c>
       <c r="D4" t="n">
-        <v>44.4877182903437</v>
+        <v>0.0663597896732093</v>
       </c>
       <c r="E4" t="n">
-        <v>38.552586222486</v>
+        <v>0.0740033428636093</v>
       </c>
       <c r="F4" t="n">
-        <v>43.3335742727043</v>
+        <v>0.0501773301882095</v>
       </c>
       <c r="G4" t="n">
-        <v>39.2814968440086</v>
+        <v>0.0457572768973239</v>
       </c>
       <c r="H4" t="n">
-        <v>43.8010508208596</v>
+        <v>0.031739749891729</v>
       </c>
       <c r="I4" t="n">
-        <v>43.8290682999177</v>
+        <v>0.0521387009436196</v>
       </c>
       <c r="J4" t="n">
-        <v>45.7593973431738</v>
+        <v>0.06226449026409</v>
       </c>
       <c r="K4" t="n">
-        <v>36.9068079681403</v>
+        <v>0.0895561897043315</v>
       </c>
       <c r="L4" t="n">
-        <v>54.6783899296328</v>
+        <v>0.0495569059119515</v>
       </c>
       <c r="M4" t="n">
-        <v>41.687361942331</v>
+        <v>0.0208615773762085</v>
       </c>
     </row>
     <row r="5">
@@ -581,40 +632,40 @@
         <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>34.7728459875887</v>
+        <v>0.291136997941129</v>
       </c>
       <c r="C5" t="n">
-        <v>28.1800572752332</v>
+        <v>0.379607824230184</v>
       </c>
       <c r="D5" t="n">
-        <v>27.3641066555449</v>
+        <v>0.372447600659162</v>
       </c>
       <c r="E5" t="n">
-        <v>25.6678080584812</v>
+        <v>0.422016798721976</v>
       </c>
       <c r="F5" t="n">
-        <v>29.6625949546182</v>
+        <v>0.394640825742928</v>
       </c>
       <c r="G5" t="n">
-        <v>31.851890054073</v>
+        <v>0.44781852748851</v>
       </c>
       <c r="H5" t="n">
-        <v>29.1910171733495</v>
+        <v>0.356268155889815</v>
       </c>
       <c r="I5" t="n">
-        <v>28.6093000748544</v>
+        <v>0.287464650482735</v>
       </c>
       <c r="J5" t="n">
-        <v>25.624783349908</v>
+        <v>0.466015652154362</v>
       </c>
       <c r="K5" t="n">
-        <v>30.4387261840999</v>
+        <v>0.40821538232695</v>
       </c>
       <c r="L5" t="n">
-        <v>45.8572414678735</v>
+        <v>0.163450007134339</v>
       </c>
       <c r="M5" t="n">
-        <v>42.9925088066507</v>
+        <v>0.156899736795101</v>
       </c>
     </row>
     <row r="6">
@@ -622,40 +673,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>65.7757973018818</v>
+        <v>0.0845691180748706</v>
       </c>
       <c r="C6" t="n">
-        <v>68.8160595583607</v>
+        <v>0.142222302723301</v>
       </c>
       <c r="D6" t="n">
-        <v>75.3397348285344</v>
+        <v>0.148447425673071</v>
       </c>
       <c r="E6" t="n">
-        <v>62.7385682537816</v>
+        <v>0.0811196738053382</v>
       </c>
       <c r="F6" t="n">
-        <v>84.8771216338856</v>
+        <v>0.198450801654352</v>
       </c>
       <c r="G6" t="n">
-        <v>60.3075714398011</v>
+        <v>0.137030387103</v>
       </c>
       <c r="H6" t="n">
-        <v>70.7904376466329</v>
+        <v>0.22056961013786</v>
       </c>
       <c r="I6" t="n">
-        <v>63.7497870612938</v>
+        <v>0.110957554355097</v>
       </c>
       <c r="J6" t="n">
-        <v>61.691572049826</v>
+        <v>0.0867197288426034</v>
       </c>
       <c r="K6" t="n">
-        <v>66.5884503407556</v>
+        <v>0.0216355396689436</v>
       </c>
       <c r="L6" t="n">
-        <v>86.9712358856764</v>
+        <v>0.0664318073813622</v>
       </c>
       <c r="M6" t="n">
-        <v>60.3307739305438</v>
+        <v>0.0488386965473746</v>
       </c>
     </row>
     <row r="7">
@@ -663,40 +714,40 @@
         <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>67.6120341228827</v>
+        <v>0.0455020542448211</v>
       </c>
       <c r="C7" t="n">
-        <v>73.1501666372061</v>
+        <v>0.0503222716239178</v>
       </c>
       <c r="D7" t="n">
-        <v>75.9578759812179</v>
+        <v>0.0873833755117719</v>
       </c>
       <c r="E7" t="n">
-        <v>71.5781509811605</v>
+        <v>0.0284473360093202</v>
       </c>
       <c r="F7" t="n">
-        <v>82.6621609973818</v>
+        <v>0.0521477024974351</v>
       </c>
       <c r="G7" t="n">
-        <v>53.9542753382839</v>
+        <v>0.0558622870016938</v>
       </c>
       <c r="H7" t="n">
-        <v>77.7187061273175</v>
+        <v>0.0516100263735257</v>
       </c>
       <c r="I7" t="n">
-        <v>67.466334415845</v>
+        <v>0.0326159865503835</v>
       </c>
       <c r="J7" t="n">
-        <v>63.7890555129928</v>
+        <v>0.0518261842575947</v>
       </c>
       <c r="K7" t="n">
-        <v>67.2922348590199</v>
+        <v>0.0234391653140683</v>
       </c>
       <c r="L7" t="n">
-        <v>86.513074970901</v>
+        <v>0.0319446755385184</v>
       </c>
       <c r="M7" t="n">
-        <v>58.9366541153335</v>
+        <v>0.0504651358158538</v>
       </c>
     </row>
     <row r="8">
@@ -704,40 +755,40 @@
         <v>19</v>
       </c>
       <c r="B8" t="n">
-        <v>69.9010110708032</v>
+        <v>0.0453980875137992</v>
       </c>
       <c r="C8" t="n">
-        <v>73.33558792255</v>
+        <v>0.0465839083523768</v>
       </c>
       <c r="D8" t="n">
-        <v>76.3148103910017</v>
+        <v>0.0317635570413176</v>
       </c>
       <c r="E8" t="n">
-        <v>77.0272348727413</v>
+        <v>0.069744612555712</v>
       </c>
       <c r="F8" t="n">
-        <v>78.8435848365109</v>
+        <v>0.0188718411194425</v>
       </c>
       <c r="G8" t="n">
-        <v>71.308717218709</v>
+        <v>0.0377009157262638</v>
       </c>
       <c r="H8" t="n">
-        <v>74.199477200258</v>
+        <v>0.0284039640404207</v>
       </c>
       <c r="I8" t="n">
-        <v>62.534539350272</v>
+        <v>0.0785664607010943</v>
       </c>
       <c r="J8" t="n">
-        <v>74.3491876231661</v>
+        <v>0.0400242421982144</v>
       </c>
       <c r="K8" t="n">
-        <v>70.796250180037</v>
+        <v>0.0273684559023861</v>
       </c>
       <c r="L8" t="n">
-        <v>90.518282762834</v>
+        <v>0.0097822242303841</v>
       </c>
       <c r="M8" t="n">
-        <v>63.6481822477839</v>
+        <v>0.0545760557368934</v>
       </c>
     </row>
     <row r="9">
@@ -745,40 +796,819 @@
         <v>20</v>
       </c>
       <c r="B9" t="n">
-        <v>63.2380148473265</v>
+        <v>0.134217475467326</v>
       </c>
       <c r="C9" t="n">
-        <v>67.9633244466616</v>
+        <v>0.10975621589324</v>
       </c>
       <c r="D9" t="n">
-        <v>61.4641799995525</v>
+        <v>0.0783080621486649</v>
       </c>
       <c r="E9" t="n">
-        <v>68.0628787989001</v>
+        <v>0.0852718004795922</v>
       </c>
       <c r="F9" t="n">
-        <v>79.3318305400507</v>
+        <v>0.13546947980576</v>
       </c>
       <c r="G9" t="n">
-        <v>56.6663585514635</v>
+        <v>0.0735987584893977</v>
       </c>
       <c r="H9" t="n">
-        <v>77.4540600482755</v>
+        <v>0.130762609037835</v>
       </c>
       <c r="I9" t="n">
-        <v>66.1815968025775</v>
+        <v>0.162484235065024</v>
       </c>
       <c r="J9" t="n">
-        <v>64.7145596361043</v>
+        <v>0.0501978918844334</v>
       </c>
       <c r="K9" t="n">
-        <v>63.3776677259688</v>
+        <v>0.0757780184022581</v>
       </c>
       <c r="L9" t="n">
-        <v>87.5032786022504</v>
+        <v>0.113010187836127</v>
       </c>
       <c r="M9" t="n">
-        <v>56.0366948341141</v>
+        <v>0.186912378887431</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.0153667001701971</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.0237797019455623</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00588354694309327</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.0330995303160602</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0300244617428607</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0309669089667218</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0208355559267281</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.0245208682024471</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0152913824660595</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00207826614711036</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0225104924514475</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0110033689971413</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.136223131000393</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.116423087925096</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.153523399945154</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.0245542366056575</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.159463785791702</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.044371342316057</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.12129234491608</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.199993937457158</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0429663888417339</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.0174718679478739</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.198666033881136</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.201468349984172</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.220432413887107</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.191318421688496</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.237688251834088</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.150869383038869</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.225128691941258</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0857986157564403</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.191909744584084</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.223534953463122</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.190133192419954</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.179316015202395</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.280988414658427</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.264083326253899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.181307952144108</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.123252222262904</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.119835974580187</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0724923793819851</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.160419521202212</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0697293140815619</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.108626733806847</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.201714516064335</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0933793039120148</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0396958654924628</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.288214720804481</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.294088346593517</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0386182842027851</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.020107200342392</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0192671137333122</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0152114399780527</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0479903213926106</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.00616350396379807</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0253245301823338</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0192826852229654</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0430156184206181</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.167196573710089</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0460731453609345</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0603315078192686</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0983685001711527</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0409658514697527</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0605980551025728</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.109597425004058</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.282733726278485</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0876481183082546</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0988049940029427</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0652541683703387</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00590418772075127</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.115737946061263</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0362949414752833</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.117030277480577</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.132640648633674</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.113919708891483</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.269567219554479</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0717367449786864</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0316320120929817</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0698652108348484</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.149597235715064</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.111403181988513</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.209411775772338</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.00635219267532108</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0713717336787608</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0482527194925654</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.0159273771810526</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00530540832827688</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0168365028874186</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0190267108469018</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0225919141367999</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.00419658808051044</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0290435131917566</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00866215769511762</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00381898012035089</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.106120542882817</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0266071510958039</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.017031276019717</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0152229564427368</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0331506977227106</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00768060568640225</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.00485684465016774</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.0292679421653915</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.00767953382529776</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.0342668833699244</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0442406030238046</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.0100702242817997</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0114919330079454</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00454636476167684</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0120231172080217</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.0139204075467309</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0211949009637864</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00812631018797692</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0143455711778477</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00473940265598009</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0131152930561028</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.01764788362408</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00936358964692031</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00524295428420706</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00379226933927737</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0130976969113205</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0114900365458576</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0132764960100609</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.0141564321318905</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.00924039614910425</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.0606407734608403</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0265039372096408</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0279741070658566</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0337159523942901</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0357407777436178</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0210840126571064</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0228163654964532</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00766466610567634</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0743901511162519</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.0437772268629334</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0152871981847866</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.00766836285669538</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0324397077237156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0278708284611801</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0246002728483537</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0198300356817806</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0576032737036901</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.01197283315675</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0064843891551355</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0196247963619864</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0147364714466795</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.026715346617234</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.0556167130637254</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0356363831593344</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0193657491473343</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0309876912805482</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0464235438367558</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0158798522283001</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.119939830342584</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0201099332709574</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0281365631314629</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0562044207912217</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0242591106332449</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0430666940206104</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0117509887070036</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0451357176472613</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0318956347139389</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0297347463207938</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0222269780307662</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0535105003946703</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0446264850278604</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0323556108750045</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0131362115059484</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0709513031206319</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0584854722118048</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0640153257245606</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0525335579477719</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.158377915751173</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.201367429719218</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.107421709620239</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.140225515042671</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.242188100295427</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.369132246596866</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.181860400851979</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.262346511845457</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.135633713244301</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0197306446170025</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.163333772123318</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.167916115831589</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.224954510914556</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.178310396537914</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.12296383341935</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.24197337506759</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.159312104743426</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.140021120879992</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.146259255878849</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.229573147299788</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.122623260363477</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.175761302422936</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0408679518792619</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.312126321050904</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.220823982436916</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.16434625623931</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.174646597237214</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.132741677451372</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.17106015178657</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0821560370523368</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.168596502633898</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.23172772611577</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.158676064858656</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.154764922290312</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.277640822163063</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.305061280837266</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.0833118649593642</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.0671024241823383</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0903100909305079</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0582096162032386</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0402337729431193</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.0358790646052462</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0743090268695431</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.0906640522432373</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0690531953451195</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.157897182459477</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.0664039031479636</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.071820039423376</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,43 +56,19 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Minimum tax of 2% on billionaires'
-wealth, in voluntary countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Raise global minimum tax on profit from 15% to 35%,
-allocating revenues to countries based on sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expand Security Council to new permanent members (e.g.
-India, Brazil, African Union), restrict veto use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At least 0.7% of developed countries' GDP in foreign aid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debt relief for vulnerable countries, suspending
-payments until they are more able to repay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with climate Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">Humans or Sentient beings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sentient beings (humans and animals)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fellow citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family and self</t>
   </si>
 </sst>
 </file>
@@ -473,43 +449,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.149255808600069</v>
+        <v>0.453632902569712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.130157267124456</v>
+        <v>0.500031777371218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.114816444092768</v>
+        <v>0.403728342686857</v>
       </c>
       <c r="E2" t="n">
-        <v>0.148194706874288</v>
+        <v>0.606454502103649</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0914902451968514</v>
+        <v>0.543166443561924</v>
       </c>
       <c r="G2" t="n">
-        <v>0.168844520048602</v>
+        <v>0.40862481827325</v>
       </c>
       <c r="H2" t="n">
-        <v>0.152556726848352</v>
+        <v>0.520635206979125</v>
       </c>
       <c r="I2" t="n">
-        <v>0.12019520284145</v>
+        <v>0.45163215452811</v>
       </c>
       <c r="J2" t="n">
-        <v>0.188583080664567</v>
+        <v>0.555843554662492</v>
       </c>
       <c r="K2" t="n">
-        <v>0.128922584161815</v>
+        <v>0.295463321618657</v>
       </c>
       <c r="L2" t="n">
-        <v>0.142439482797483</v>
+        <v>0.49848234887489</v>
       </c>
       <c r="M2" t="n">
-        <v>0.109610593330475</v>
+        <v>0.568215620604128</v>
       </c>
       <c r="N2" t="n">
-        <v>0.185603537870231</v>
+        <v>0.43396167722944</v>
       </c>
     </row>
     <row r="3">
@@ -517,43 +493,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.229287465257167</v>
+        <v>0.2311635817686</v>
       </c>
       <c r="C3" t="n">
-        <v>0.195259386564921</v>
+        <v>0.267798478633482</v>
       </c>
       <c r="D3" t="n">
-        <v>0.192720878702986</v>
+        <v>0.213628483878236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.200486686108102</v>
+        <v>0.315582655014669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.125600669794651</v>
+        <v>0.304540863124868</v>
       </c>
       <c r="G3" t="n">
-        <v>0.24321127147966</v>
+        <v>0.246260315140413</v>
       </c>
       <c r="H3" t="n">
-        <v>0.221311904500597</v>
+        <v>0.33916922836707</v>
       </c>
       <c r="I3" t="n">
-        <v>0.203634662035498</v>
+        <v>0.181724428843866</v>
       </c>
       <c r="J3" t="n">
-        <v>0.30463739231342</v>
+        <v>0.3090858048213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.16022411777428</v>
+        <v>0.0928217672043425</v>
       </c>
       <c r="L3" t="n">
-        <v>0.366499423004934</v>
+        <v>0.379199703236798</v>
       </c>
       <c r="M3" t="n">
-        <v>0.158416613296222</v>
+        <v>0.276652048791799</v>
       </c>
       <c r="N3" t="n">
-        <v>0.243446111139102</v>
+        <v>0.176742950122449</v>
       </c>
     </row>
     <row r="4">
@@ -561,41 +537,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.187153350404165</v>
+        <v>0.222469320801112</v>
       </c>
       <c r="C4" t="n">
-        <v>0.173896798018362</v>
+        <v>0.232233298737737</v>
       </c>
       <c r="D4" t="n">
-        <v>0.209369383538788</v>
+        <v>0.190099858808621</v>
       </c>
       <c r="E4" t="n">
-        <v>0.174539359080242</v>
+        <v>0.29087184708898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.156823354260105</v>
+        <v>0.238625580437056</v>
       </c>
       <c r="G4" t="n">
-        <v>0.189670268556331</v>
+        <v>0.162364503132837</v>
       </c>
       <c r="H4" t="n">
-        <v>0.170473661798214</v>
+        <v>0.181465978612055</v>
       </c>
       <c r="I4" t="n">
-        <v>0.153174275561127</v>
+        <v>0.269907725684244</v>
       </c>
       <c r="J4" t="n">
-        <v>0.207278996322298</v>
+        <v>0.246757749841191</v>
       </c>
       <c r="K4" t="n">
-        <v>0.164954911991993</v>
-      </c>
-      <c r="L4"/>
+        <v>0.202641554414314</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.119282645638092</v>
+      </c>
       <c r="M4" t="n">
-        <v>0.122749381036292</v>
+        <v>0.29156357181233</v>
       </c>
       <c r="N4" t="n">
-        <v>0.215869506683349</v>
+        <v>0.257218727106991</v>
       </c>
     </row>
     <row r="5">
@@ -603,43 +581,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.211084781322396</v>
+        <v>0.318228826507911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.230603285780605</v>
+        <v>0.300537158888977</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253156599132428</v>
+        <v>0.421398669942422</v>
       </c>
       <c r="E5" t="n">
-        <v>0.238632437027907</v>
+        <v>0.191854984973649</v>
       </c>
       <c r="F5" t="n">
-        <v>0.158907603855529</v>
+        <v>0.289001041734699</v>
       </c>
       <c r="G5" t="n">
-        <v>0.294188272078198</v>
+        <v>0.377133090520575</v>
       </c>
       <c r="H5" t="n">
-        <v>0.169415909850991</v>
+        <v>0.262477886538552</v>
       </c>
       <c r="I5" t="n">
-        <v>0.261442001696321</v>
+        <v>0.32286139809918</v>
       </c>
       <c r="J5" t="n">
-        <v>0.287526350585276</v>
+        <v>0.220040188372387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.197974385304569</v>
+        <v>0.451967910042794</v>
       </c>
       <c r="L5" t="n">
-        <v>0.132288983358669</v>
+        <v>0.227576614712255</v>
       </c>
       <c r="M5" t="n">
-        <v>0.108761943843116</v>
+        <v>0.156534240851949</v>
       </c>
       <c r="N5" t="n">
-        <v>0.234204562960702</v>
+        <v>0.338566502379068</v>
       </c>
     </row>
     <row r="6">
@@ -647,263 +625,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.214972956886866</v>
+        <v>0.173132661925441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225758307694176</v>
+        <v>0.156531801849446</v>
       </c>
       <c r="D6" t="n">
-        <v>0.268686301178898</v>
+        <v>0.141785829240512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.295809682347039</v>
+        <v>0.166158467826809</v>
       </c>
       <c r="F6" t="n">
-        <v>0.147764306589087</v>
+        <v>0.10824933493899</v>
       </c>
       <c r="G6" t="n">
-        <v>0.13826050486796</v>
+        <v>0.188864548775754</v>
       </c>
       <c r="H6" t="n">
-        <v>0.216191472400014</v>
+        <v>0.150598969781752</v>
       </c>
       <c r="I6" t="n">
-        <v>0.204742143017678</v>
+        <v>0.187038191288665</v>
       </c>
       <c r="J6" t="n">
-        <v>0.279728432417406</v>
+        <v>0.171252249950601</v>
       </c>
       <c r="K6" t="n">
-        <v>0.175023325730383</v>
+        <v>0.191667834390133</v>
       </c>
       <c r="L6" t="n">
-        <v>0.18318249858701</v>
+        <v>0.201756188330484</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0929003281313268</v>
+        <v>0.141491115102103</v>
       </c>
       <c r="N6" t="n">
-        <v>0.239892232899438</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.145210997248007</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.132542332167995</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.129596752130756</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.145675582853815</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.0954243293657346</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.187103716184443</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.133718785954441</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.11492056193604</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.200694966921401</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.108934797301173</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.110361853051849</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.103803725511012</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.190645354507088</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.184138392109715</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.194778464468711</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.213864747902659</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.201130669827433</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.133480638057468</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.215369575310077</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.182926447567268</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.211859250596182</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.259238044125371</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.165272179682437</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0898848372336057</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0889994868827042</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.223983980933038</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.224806242164759</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.237091536063245</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.242630093096098</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.242386252480975</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.198545795017619</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.269549366392053</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.197009596906079</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.256785775713629</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.293560168251507</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.224573726058832</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0876156245623316</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.110540387994507</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.273750099644573</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.202022338042131</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.196948123102502</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.169168517949569</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.212277412820648</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.174659754267382</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.283705683005757</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.192021566228126</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.179181000868458</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.219418118627448</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.211370747417242</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.167918355694364</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.137132444050968</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.222593638315052</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.33469935716075</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.348129936326248</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.291303617905378</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.351914348414487</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.360761234851986</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.350961918380286</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.36078150758704</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.357671887298782</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.405003093387077</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.305275672060071</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.314443474716844</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.233843638288844</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.347584039700156</v>
+        <v>0.17529311108781</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,28 +47,33 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Humans or Sentient beings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sentient beings (humans and animals)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Humans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fellow citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Family and self</t>
+    <t xml:space="preserve">Would not support such a movement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could attend a demonstration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could go on strike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Could donate [$100] to a strike fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would be part of a global movement to tackle CC, tax millionaires,
+ and fund LICs (either demonstrate, strike, or donate)</t>
   </si>
 </sst>
 </file>
@@ -440,228 +445,292 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.453632902569712</v>
+        <v>0.320926957001515</v>
       </c>
       <c r="C2" t="n">
-        <v>0.500031777371218</v>
+        <v>0.278475647107507</v>
       </c>
       <c r="D2" t="n">
-        <v>0.403728342686857</v>
+        <v>0.294093954964281</v>
       </c>
       <c r="E2" t="n">
-        <v>0.606454502103649</v>
+        <v>0.306999196784687</v>
       </c>
       <c r="F2" t="n">
-        <v>0.543166443561924</v>
+        <v>0.182911175028113</v>
       </c>
       <c r="G2" t="n">
-        <v>0.40862481827325</v>
+        <v>0.290122876594546</v>
       </c>
       <c r="H2" t="n">
-        <v>0.520635206979125</v>
+        <v>0.253886167121302</v>
       </c>
       <c r="I2" t="n">
-        <v>0.45163215452811</v>
+        <v>0.31438130842165</v>
       </c>
       <c r="J2" t="n">
-        <v>0.555843554662492</v>
+        <v>0.362537857136665</v>
       </c>
       <c r="K2" t="n">
-        <v>0.295463321618657</v>
+        <v>0.437685282340813</v>
       </c>
       <c r="L2" t="n">
-        <v>0.49848234887489</v>
+        <v>0.262613866561213</v>
       </c>
       <c r="M2" t="n">
-        <v>0.568215620604128</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.43396167722944</v>
+        <v>0.328319631097193</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2311635817686</v>
+        <v>0.517681293588919</v>
       </c>
       <c r="C3" t="n">
-        <v>0.267798478633482</v>
+        <v>0.54627578656303</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213628483878236</v>
+        <v>0.534923147437985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.315582655014669</v>
+        <v>0.526521842869553</v>
       </c>
       <c r="F3" t="n">
-        <v>0.304540863124868</v>
+        <v>0.575681110382423</v>
       </c>
       <c r="G3" t="n">
-        <v>0.246260315140413</v>
+        <v>0.541447431254404</v>
       </c>
       <c r="H3" t="n">
-        <v>0.33916922836707</v>
+        <v>0.56757184923964</v>
       </c>
       <c r="I3" t="n">
-        <v>0.181724428843866</v>
+        <v>0.552165435505529</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3090858048213</v>
+        <v>0.477777082615971</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0928217672043425</v>
+        <v>0.512682328274899</v>
       </c>
       <c r="L3" t="n">
-        <v>0.379199703236798</v>
+        <v>0.401448708245477</v>
       </c>
       <c r="M3" t="n">
-        <v>0.276652048791799</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.176742950122449</v>
+        <v>0.497295721158366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.222469320801112</v>
+        <v>0.193757331037532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.232233298737737</v>
+        <v>0.210178986079405</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190099858808621</v>
+        <v>0.222373163189663</v>
       </c>
       <c r="E4" t="n">
-        <v>0.29087184708898</v>
+        <v>0.181082414160383</v>
       </c>
       <c r="F4" t="n">
-        <v>0.238625580437056</v>
+        <v>0.263929780996636</v>
       </c>
       <c r="G4" t="n">
-        <v>0.162364503132837</v>
+        <v>0.147682919391645</v>
       </c>
       <c r="H4" t="n">
-        <v>0.181465978612055</v>
+        <v>0.270559772268355</v>
       </c>
       <c r="I4" t="n">
-        <v>0.269907725684244</v>
+        <v>0.187224275049165</v>
       </c>
       <c r="J4" t="n">
-        <v>0.246757749841191</v>
+        <v>0.138422252187228</v>
       </c>
       <c r="K4" t="n">
-        <v>0.202641554414314</v>
+        <v>0.0414235973359027</v>
       </c>
       <c r="L4" t="n">
-        <v>0.119282645638092</v>
+        <v>0.239448322059387</v>
       </c>
       <c r="M4" t="n">
-        <v>0.29156357181233</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.257218727106991</v>
+        <v>0.231271689923813</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.318228826507911</v>
+        <v>0.0738340049950829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.300537158888977</v>
+        <v>0.0936479323164794</v>
       </c>
       <c r="D5" t="n">
-        <v>0.421398669942422</v>
+        <v>0.0748321566031003</v>
       </c>
       <c r="E5" t="n">
-        <v>0.191854984973649</v>
+        <v>0.113455534552083</v>
       </c>
       <c r="F5" t="n">
-        <v>0.289001041734699</v>
+        <v>0.146585323549601</v>
       </c>
       <c r="G5" t="n">
-        <v>0.377133090520575</v>
+        <v>0.0756771377174381</v>
       </c>
       <c r="H5" t="n">
-        <v>0.262477886538552</v>
+        <v>0.0950565133040533</v>
       </c>
       <c r="I5" t="n">
-        <v>0.32286139809918</v>
+        <v>0.0526514577600121</v>
       </c>
       <c r="J5" t="n">
-        <v>0.220040188372387</v>
+        <v>0.0582779037491039</v>
       </c>
       <c r="K5" t="n">
-        <v>0.451967910042794</v>
+        <v>0.019059891303726</v>
       </c>
       <c r="L5" t="n">
-        <v>0.227576614712255</v>
+        <v>0.0917478520938045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.156534240851949</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.338566502379068</v>
+        <v>0.0713157554410489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.10124092951548</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.104803107568438</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.0783920047707799</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.119136121104366</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.117764178444178</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0665018894486479</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0991777516511175</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.12373315427868</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.133371788659431</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.0243397353076628</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.175584168878879</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.121043041081575</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.173132661925441</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.156531801849446</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.141785829240512</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.166158467826809</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.10824933493899</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.188864548775754</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.150598969781752</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.187038191288665</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.171252249950601</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.191667834390133</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.201756188330484</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.141491115102103</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.17529311108781</v>
+      <c r="B7" t="n">
+        <v>0.675505142809517</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.719216740354837</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.703425024778734</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.690418272415403</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.817088824971887</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.707832398863728</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.743080145118413</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.682786565268408</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.629978960602202</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.559271647397065</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.729122438104651</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.666881289815218</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.287069831355051</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.313647928541715</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.292077495215823</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.304756085078357</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.40706252635738</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.230574068203064</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.358545434948673</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.282929616672877</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.262261124032059</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.0712479621237995</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.439735495491456</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.328666385294041</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,33 +47,32 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Would not support such a movement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could attend a demonstration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could go on strike</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could donate [$100] to a strike fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would be part of a global movement to tackle CC, tax millionaires,
- and fund LICs (either demonstrate, strike, or donate)</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -445,292 +444,218 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.320926957001515</v>
+        <v>0.245639138393658</v>
       </c>
       <c r="C2" t="n">
-        <v>0.278475647107507</v>
+        <v>0.229733730195768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.294093954964281</v>
+        <v>0.247924142470634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.306999196784687</v>
+        <v>0.238142009469067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.182911175028113</v>
+        <v>0.143059479651997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.290122876594546</v>
+        <v>0.217759808476751</v>
       </c>
       <c r="H2" t="n">
-        <v>0.253886167121302</v>
+        <v>0.228800388151237</v>
       </c>
       <c r="I2" t="n">
-        <v>0.31438130842165</v>
+        <v>0.271569064568047</v>
       </c>
       <c r="J2" t="n">
-        <v>0.362537857136665</v>
+        <v>0.348020929777486</v>
       </c>
       <c r="K2" t="n">
-        <v>0.437685282340813</v>
+        <v>0.195415895464876</v>
       </c>
       <c r="L2" t="n">
-        <v>0.262613866561213</v>
+        <v>0.195290010165635</v>
       </c>
       <c r="M2" t="n">
-        <v>0.328319631097193</v>
+        <v>0.151475972013406</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.308390049665346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.517681293588919</v>
+        <v>0.280225312927298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.54627578656303</v>
+        <v>0.281518536195659</v>
       </c>
       <c r="D3" t="n">
-        <v>0.534923147437985</v>
+        <v>0.253607080882867</v>
       </c>
       <c r="E3" t="n">
-        <v>0.526521842869553</v>
+        <v>0.320972713411269</v>
       </c>
       <c r="F3" t="n">
-        <v>0.575681110382423</v>
+        <v>0.249981556506401</v>
       </c>
       <c r="G3" t="n">
-        <v>0.541447431254404</v>
+        <v>0.2356708529277</v>
       </c>
       <c r="H3" t="n">
-        <v>0.56757184923964</v>
+        <v>0.294159408870184</v>
       </c>
       <c r="I3" t="n">
-        <v>0.552165435505529</v>
+        <v>0.272340441194078</v>
       </c>
       <c r="J3" t="n">
-        <v>0.477777082615971</v>
+        <v>0.497083662868131</v>
       </c>
       <c r="K3" t="n">
-        <v>0.512682328274899</v>
+        <v>0.286636713460478</v>
       </c>
       <c r="L3" t="n">
-        <v>0.401448708245477</v>
+        <v>0.182880051386794</v>
       </c>
       <c r="M3" t="n">
-        <v>0.497295721158366</v>
+        <v>0.150456874440543</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.331806163279924</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.193757331037532</v>
+        <v>0.254374248643458</v>
       </c>
       <c r="C4" t="n">
-        <v>0.210178986079405</v>
+        <v>0.187897042714528</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222373163189663</v>
+        <v>0.190489827374271</v>
       </c>
       <c r="E4" t="n">
-        <v>0.181082414160383</v>
+        <v>0.205650306022925</v>
       </c>
       <c r="F4" t="n">
-        <v>0.263929780996636</v>
+        <v>0.112376946594845</v>
       </c>
       <c r="G4" t="n">
-        <v>0.147682919391645</v>
+        <v>0.142081356516132</v>
       </c>
       <c r="H4" t="n">
-        <v>0.270559772268355</v>
+        <v>0.135688096653865</v>
       </c>
       <c r="I4" t="n">
-        <v>0.187224275049165</v>
+        <v>0.287580264300726</v>
       </c>
       <c r="J4" t="n">
-        <v>0.138422252187228</v>
+        <v>0.291140890930959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0414235973359027</v>
+        <v>0.240413858618638</v>
       </c>
       <c r="L4" t="n">
-        <v>0.239448322059387</v>
+        <v>0.216312281488782</v>
       </c>
       <c r="M4" t="n">
-        <v>0.231271689923813</v>
+        <v>0.0567640373741542</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.370153042354525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0738340049950829</v>
+        <v>0.422171960688106</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0936479323164794</v>
+        <v>0.385573018604744</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0748321566031003</v>
+        <v>0.425132188839284</v>
       </c>
       <c r="E5" t="n">
-        <v>0.113455534552083</v>
+        <v>0.428969403537556</v>
       </c>
       <c r="F5" t="n">
-        <v>0.146585323549601</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0756771377174381</v>
-      </c>
+        <v>0.243243479170587</v>
+      </c>
+      <c r="G5"/>
       <c r="H5" t="n">
-        <v>0.0950565133040533</v>
+        <v>0.390552355519347</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0526514577600121</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.0582779037491039</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.019059891303726</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.0917478520938045</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0713157554410489</v>
+        <v>0.416880526453407</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5"/>
+      <c r="N5" t="n">
+        <v>0.457532301162332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.10124092951548</v>
+        <v>0.282824123860505</v>
       </c>
       <c r="C6" t="n">
-        <v>0.104803107568438</v>
+        <v>0.280799377736503</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0783920047707799</v>
+        <v>0.426295117933464</v>
       </c>
       <c r="E6" t="n">
-        <v>0.119136121104366</v>
+        <v>0.270461415958884</v>
       </c>
       <c r="F6" t="n">
-        <v>0.117764178444178</v>
+        <v>0.157494415225418</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0665018894486479</v>
+        <v>0.249815362045575</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0991777516511175</v>
+        <v>0.20798277366565</v>
       </c>
       <c r="I6" t="n">
-        <v>0.12373315427868</v>
+        <v>0.334776926213514</v>
       </c>
       <c r="J6" t="n">
-        <v>0.133371788659431</v>
+        <v>0.337111171711107</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0243397353076628</v>
+        <v>0.227457431436811</v>
       </c>
       <c r="L6" t="n">
-        <v>0.175584168878879</v>
+        <v>0.28868736465168</v>
       </c>
       <c r="M6" t="n">
-        <v>0.121043041081575</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.675505142809517</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.719216740354837</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.703425024778734</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.690418272415403</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.817088824971887</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.707832398863728</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.743080145118413</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.682786565268408</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.629978960602202</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.559271647397065</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.729122438104651</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.666881289815218</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.287069831355051</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.313647928541715</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.292077495215823</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.304756085078357</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.40706252635738</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.230574068203064</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.358545434948673</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.282929616672877</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.262261124032059</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.0712479621237995</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.439735495491456</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.328666385294041</v>
+        <v>0.0828743570297473</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.32215909520563</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -56,23 +56,24 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
+investments in LICs, and at lower interest rates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
+vulnerable countries cope with climate Loss and damage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
+year in climate finance for developing countries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on shipping carbon emissions,
+returned to countries based on population</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International levy on aviation carbon emissions, raising
+prices by 30%, returned to countries based on population</t>
   </si>
 </sst>
 </file>
@@ -453,43 +454,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245639138393658</v>
+        <v>0.146010599841289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229733730195768</v>
+        <v>0.132542332167995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247924142470634</v>
+        <v>0.129596752130756</v>
       </c>
       <c r="E2" t="n">
-        <v>0.238142009469067</v>
+        <v>0.145675582853815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143059479651997</v>
+        <v>0.0954243293657346</v>
       </c>
       <c r="G2" t="n">
-        <v>0.217759808476751</v>
+        <v>0.187103716184443</v>
       </c>
       <c r="H2" t="n">
-        <v>0.228800388151237</v>
+        <v>0.133718785954441</v>
       </c>
       <c r="I2" t="n">
-        <v>0.271569064568047</v>
+        <v>0.11492056193604</v>
       </c>
       <c r="J2" t="n">
-        <v>0.348020929777486</v>
+        <v>0.200694966921401</v>
       </c>
       <c r="K2" t="n">
-        <v>0.195415895464876</v>
+        <v>0.108934797301173</v>
       </c>
       <c r="L2" t="n">
-        <v>0.195290010165635</v>
+        <v>0.115957534266233</v>
       </c>
       <c r="M2" t="n">
-        <v>0.151475972013406</v>
+        <v>0.103803725511012</v>
       </c>
       <c r="N2" t="n">
-        <v>0.308390049665346</v>
+        <v>0.190645354507088</v>
       </c>
     </row>
     <row r="3">
@@ -497,43 +498,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.280225312927298</v>
+        <v>0.183841010690089</v>
       </c>
       <c r="C3" t="n">
-        <v>0.281518536195659</v>
+        <v>0.194778464468711</v>
       </c>
       <c r="D3" t="n">
-        <v>0.253607080882867</v>
+        <v>0.213864747902659</v>
       </c>
       <c r="E3" t="n">
-        <v>0.320972713411269</v>
+        <v>0.201130669827433</v>
       </c>
       <c r="F3" t="n">
-        <v>0.249981556506401</v>
+        <v>0.133480638057468</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2356708529277</v>
+        <v>0.215369575310077</v>
       </c>
       <c r="H3" t="n">
-        <v>0.294159408870184</v>
+        <v>0.182926447567268</v>
       </c>
       <c r="I3" t="n">
-        <v>0.272340441194078</v>
+        <v>0.211859250596182</v>
       </c>
       <c r="J3" t="n">
-        <v>0.497083662868131</v>
+        <v>0.259238044125371</v>
       </c>
       <c r="K3" t="n">
-        <v>0.286636713460478</v>
+        <v>0.165272179682437</v>
       </c>
       <c r="L3" t="n">
-        <v>0.182880051386794</v>
+        <v>0.0871473725545981</v>
       </c>
       <c r="M3" t="n">
-        <v>0.150456874440543</v>
+        <v>0.0889994868827042</v>
       </c>
       <c r="N3" t="n">
-        <v>0.331806163279924</v>
+        <v>0.223983980933038</v>
       </c>
     </row>
     <row r="4">
@@ -541,43 +542,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.254374248643458</v>
+        <v>0.224855569886564</v>
       </c>
       <c r="C4" t="n">
-        <v>0.187897042714528</v>
+        <v>0.237091536063245</v>
       </c>
       <c r="D4" t="n">
-        <v>0.190489827374271</v>
+        <v>0.242630093096098</v>
       </c>
       <c r="E4" t="n">
-        <v>0.205650306022925</v>
+        <v>0.242386252480975</v>
       </c>
       <c r="F4" t="n">
-        <v>0.112376946594845</v>
+        <v>0.198545795017619</v>
       </c>
       <c r="G4" t="n">
-        <v>0.142081356516132</v>
+        <v>0.269549366392053</v>
       </c>
       <c r="H4" t="n">
-        <v>0.135688096653865</v>
+        <v>0.197009596906079</v>
       </c>
       <c r="I4" t="n">
-        <v>0.287580264300726</v>
+        <v>0.256785775713629</v>
       </c>
       <c r="J4" t="n">
-        <v>0.291140890930959</v>
+        <v>0.293560168251507</v>
       </c>
       <c r="K4" t="n">
-        <v>0.240413858618638</v>
+        <v>0.224573726058832</v>
       </c>
       <c r="L4" t="n">
-        <v>0.216312281488782</v>
+        <v>0.0875701282476831</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0567640373741542</v>
+        <v>0.110540387994507</v>
       </c>
       <c r="N4" t="n">
-        <v>0.370153042354525</v>
+        <v>0.273750099644573</v>
       </c>
     </row>
     <row r="5">
@@ -585,33 +586,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.422171960688106</v>
+        <v>0.202578438222928</v>
       </c>
       <c r="C5" t="n">
-        <v>0.385573018604744</v>
+        <v>0.196948123102502</v>
       </c>
       <c r="D5" t="n">
-        <v>0.425132188839284</v>
+        <v>0.169168517949569</v>
       </c>
       <c r="E5" t="n">
-        <v>0.428969403537556</v>
+        <v>0.212277412820648</v>
       </c>
       <c r="F5" t="n">
-        <v>0.243243479170587</v>
-      </c>
-      <c r="G5"/>
+        <v>0.174659754267382</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.283705683005757</v>
+      </c>
       <c r="H5" t="n">
-        <v>0.390552355519347</v>
+        <v>0.192021566228126</v>
       </c>
       <c r="I5" t="n">
-        <v>0.416880526453407</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5"/>
-      <c r="L5"/>
-      <c r="M5"/>
+        <v>0.179181000868458</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.219418118627448</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.211370747417242</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.17153412063256</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.137132444050968</v>
+      </c>
       <c r="N5" t="n">
-        <v>0.457532301162332</v>
+        <v>0.222593638315052</v>
       </c>
     </row>
     <row r="6">
@@ -619,43 +630,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.282824123860505</v>
+        <v>0.335896829807718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.280799377736503</v>
+        <v>0.348129936326248</v>
       </c>
       <c r="D6" t="n">
-        <v>0.426295117933464</v>
+        <v>0.291303617905378</v>
       </c>
       <c r="E6" t="n">
-        <v>0.270461415958884</v>
+        <v>0.351914348414487</v>
       </c>
       <c r="F6" t="n">
-        <v>0.157494415225418</v>
+        <v>0.360761234851986</v>
       </c>
       <c r="G6" t="n">
-        <v>0.249815362045575</v>
+        <v>0.350961918380286</v>
       </c>
       <c r="H6" t="n">
-        <v>0.20798277366565</v>
+        <v>0.36078150758704</v>
       </c>
       <c r="I6" t="n">
-        <v>0.334776926213514</v>
+        <v>0.357671887298782</v>
       </c>
       <c r="J6" t="n">
-        <v>0.337111171711107</v>
+        <v>0.405003093387077</v>
       </c>
       <c r="K6" t="n">
-        <v>0.227457431436811</v>
+        <v>0.305275672060071</v>
       </c>
       <c r="L6" t="n">
-        <v>0.28868736465168</v>
+        <v>0.323298223558926</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0828743570297473</v>
+        <v>0.233843638288844</v>
       </c>
       <c r="N6" t="n">
-        <v>0.32215909520563</v>
+        <v>0.347584039700156</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,60 +20,74 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bridgetown initiative: MDBs expanding sustainable
-investments in LICs, and at lower interest rates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L&amp;D: Developed countries financing a fund to help
-vulnerable countries cope with climate Loss and damage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCQG: Developing countries providing $300 bn a
-year in climate finance for developing countries</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on shipping carbon emissions,
-returned to countries based on population</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International levy on aviation carbon emissions, raising
-prices by 30%, returned to countries based on population</t>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports int'l tax on millionaires
+with 30% funding LICs (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -439,234 +453,411 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.146010599841289</v>
+        <v>0.678679804978435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.132542332167995</v>
+        <v>0.582036706373417</v>
       </c>
       <c r="D2" t="n">
-        <v>0.129596752130756</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="E2" t="n">
-        <v>0.145675582853815</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0954243293657346</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="G2" t="n">
-        <v>0.187103716184443</v>
+        <v>0.880240645828153</v>
       </c>
       <c r="H2" t="n">
-        <v>0.133718785954441</v>
+        <v>0.909247309965247</v>
       </c>
       <c r="I2" t="n">
-        <v>0.11492056193604</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="J2" t="n">
-        <v>0.200694966921401</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="K2" t="n">
-        <v>0.108934797301173</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.115957534266233</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.103803725511012</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.190645354507088</v>
+        <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.183841010690089</v>
+        <v>0.553718303775116</v>
       </c>
       <c r="C3" t="n">
-        <v>0.194778464468711</v>
+        <v>0.452686105807208</v>
       </c>
       <c r="D3" t="n">
-        <v>0.213864747902659</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.201130669827433</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="F3" t="n">
-        <v>0.133480638057468</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.215369575310077</v>
+        <v>0.845257807486015</v>
       </c>
       <c r="H3" t="n">
-        <v>0.182926447567268</v>
+        <v>0.851579637309937</v>
       </c>
       <c r="I3" t="n">
-        <v>0.211859250596182</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="J3" t="n">
-        <v>0.259238044125371</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="K3" t="n">
-        <v>0.165272179682437</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.0871473725545981</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.0889994868827042</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.223983980933038</v>
+        <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.224855569886564</v>
+        <v>0.655979457579115</v>
       </c>
       <c r="C4" t="n">
-        <v>0.237091536063245</v>
+        <v>0.579707575675069</v>
       </c>
       <c r="D4" t="n">
-        <v>0.242630093096098</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="E4" t="n">
-        <v>0.242386252480975</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="F4" t="n">
-        <v>0.198545795017619</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="G4" t="n">
-        <v>0.269549366392053</v>
+        <v>0.879731656712811</v>
       </c>
       <c r="H4" t="n">
-        <v>0.197009596906079</v>
+        <v>0.911224469217849</v>
       </c>
       <c r="I4" t="n">
-        <v>0.256785775713629</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="J4" t="n">
-        <v>0.293560168251507</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="K4" t="n">
-        <v>0.224573726058832</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.0875701282476831</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.110540387994507</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.273750099644573</v>
+        <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.202578438222928</v>
+        <v>0.704317439138463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.196948123102502</v>
+        <v>0.42672101819368</v>
       </c>
       <c r="D5" t="n">
-        <v>0.169168517949569</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="E5" t="n">
-        <v>0.212277412820648</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.174659754267382</v>
+        <v>0.678172368299313</v>
       </c>
       <c r="G5" t="n">
-        <v>0.283705683005757</v>
+        <v>0.83244969139388</v>
       </c>
       <c r="H5" t="n">
-        <v>0.192021566228126</v>
+        <v>0.831456137791045</v>
       </c>
       <c r="I5" t="n">
-        <v>0.179181000868458</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="J5" t="n">
-        <v>0.219418118627448</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="K5" t="n">
-        <v>0.211370747417242</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.17153412063256</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.137132444050968</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.222593638315052</v>
+        <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.556007222541788</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.392706735271895</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.356105750421195</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.508432438341536</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.451519556659133</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.677827112481047</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.743498584988873</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.503741905167505</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.637096655800029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.373993319775201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.50312291438834</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.316198486427608</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.34215953895184</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.455068700122256</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.306824263084082</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.671355992475847</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.73716679715381</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.455679906453223</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.566496834134014</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.339067925103543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.680881448179833</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.616567982061628</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.743644347389163</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.814701212857562</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.757048871605567</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.713280127381035</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.703520370125625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.671270631778761</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.776836935461012</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.425661149175785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.335896829807718</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.348129936326248</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.291303617905378</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.351914348414487</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.360761234851986</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.350961918380286</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.36078150758704</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.357671887298782</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.405003093387077</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.305275672060071</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.323298223558926</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.233843638288844</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.347584039700156</v>
+      <c r="B9" t="n">
+        <v>0.609601586795904</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.459499864440356</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.529969608967456</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.619684579205792</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.581343297592584</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.756844881931732</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.822839088961434</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.529112697724995</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.580830159607851</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.389019482696932</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.675595447215337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.523930159271177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.433349195600366</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.696851480613757</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.583790255087382</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.727098526374066</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.741985444624183</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.641824096726743</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.834461320073758</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.474126518973143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.364717906507653</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.301242387158432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.163327499246366</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.313179598308858</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.218483573122562</v>
+      </c>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11" t="n">
+        <v>0.283095421815601</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.52122515690493</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.27084855688435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.347853243460036</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.262527011404327</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12" t="n">
+        <v>0.311745273790548</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.450524011973634</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.173904958357855</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.410626908494325</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.393121093071121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.282669471326983</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.376571407830385</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.32600471502799</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.662536527281334</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.698489352155402</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.362475436951784</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.535384805366787</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.265617828927838</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,74 +20,52 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l tax on millionaires
-with 30% funding LICs (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of winners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred share of losers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preferred degree of redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied minimum income (in PPP $/month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implied transfer (in % of world income)</t>
   </si>
 </sst>
 </file>
@@ -453,411 +431,216 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678679804978435</v>
+        <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582036706373417</v>
+        <v>50</v>
       </c>
       <c r="D2" t="n">
-        <v>0.686368170390751</v>
+        <v>50</v>
       </c>
       <c r="E2" t="n">
-        <v>0.693214710621706</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>0.701245337266761</v>
+        <v>50</v>
       </c>
       <c r="G2" t="n">
-        <v>0.880240645828153</v>
+        <v>51</v>
       </c>
       <c r="H2" t="n">
-        <v>0.909247309965247</v>
+        <v>50</v>
       </c>
       <c r="I2" t="n">
-        <v>0.636149633119223</v>
+        <v>50</v>
       </c>
       <c r="J2" t="n">
-        <v>0.785390250556912</v>
+        <v>42</v>
       </c>
       <c r="K2" t="n">
-        <v>0.496956252308101</v>
+        <v>48</v>
+      </c>
+      <c r="L2" t="n">
+        <v>49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553718303775116</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452686105807208</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>0.484321597862702</v>
+        <v>20</v>
       </c>
       <c r="E3" t="n">
-        <v>0.612111541228833</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.572331454255148</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.845257807486015</v>
+        <v>17</v>
       </c>
       <c r="H3" t="n">
-        <v>0.851579637309937</v>
+        <v>20</v>
       </c>
       <c r="I3" t="n">
-        <v>0.536291385483281</v>
+        <v>17</v>
       </c>
       <c r="J3" t="n">
-        <v>0.579183059294616</v>
+        <v>14</v>
       </c>
       <c r="K3" t="n">
-        <v>0.352117596369122</v>
+        <v>20</v>
+      </c>
+      <c r="L3" t="n">
+        <v>18</v>
+      </c>
+      <c r="M3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655979457579115</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579707575675069</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.613538232894647</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.74780131987402</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.687363838387126</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.879731656712811</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
-        <v>0.911224469217849</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>0.627010199560514</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.75157471671655</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.425288098957725</v>
+        <v>5</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704317439138463</v>
+        <v>208.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.42672101819368</v>
+        <v>219.497986103757</v>
       </c>
       <c r="D5" t="n">
-        <v>0.601842995962143</v>
+        <v>184.555</v>
       </c>
       <c r="E5" t="n">
-        <v>0.736252789377503</v>
+        <v>188.285586702541</v>
       </c>
       <c r="F5" t="n">
-        <v>0.678172368299313</v>
+        <v>277.733333333333</v>
       </c>
       <c r="G5" t="n">
-        <v>0.83244969139388</v>
+        <v>267.208333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>0.831456137791045</v>
+        <v>255.6</v>
       </c>
       <c r="I5" t="n">
-        <v>0.685485640466168</v>
+        <v>200.625</v>
       </c>
       <c r="J5" t="n">
-        <v>0.793249457133825</v>
+        <v>184.555</v>
       </c>
       <c r="K5" t="n">
-        <v>0.496836260204527</v>
+        <v>184.555</v>
+      </c>
+      <c r="L5" t="n">
+        <v>262.45</v>
+      </c>
+      <c r="M5" t="n">
+        <v>184.555</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556007222541788</v>
+        <v>4.41998759297688</v>
       </c>
       <c r="C6" t="n">
-        <v>0.392706735271895</v>
+        <v>4.41998759297688</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356105750421195</v>
+        <v>4.41998759297688</v>
       </c>
       <c r="E6" t="n">
-        <v>0.508432438341536</v>
+        <v>4.41998759297688</v>
       </c>
       <c r="F6" t="n">
-        <v>0.451519556659133</v>
+        <v>4.60629122321835</v>
       </c>
       <c r="G6" t="n">
-        <v>0.677827112481047</v>
+        <v>4.64972181101283</v>
       </c>
       <c r="H6" t="n">
-        <v>0.743498584988873</v>
+        <v>4.46522552211791</v>
       </c>
       <c r="I6" t="n">
-        <v>0.503741905167505</v>
+        <v>4.41998759297688</v>
       </c>
       <c r="J6" t="n">
-        <v>0.637096655800029</v>
+        <v>3.71065874583209</v>
       </c>
       <c r="K6" t="n">
-        <v>0.373993319775201</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.50312291438834</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.316198486427608</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.34215953895184</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.455068700122256</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.306824263084082</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.671355992475847</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.73716679715381</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.455679906453223</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.339067925103543</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.680881448179833</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.616567982061628</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.743644347389163</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.814701212857562</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.757048871605567</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.703520370125625</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.671270631778761</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.425661149175785</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.609601586795904</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.459499864440356</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.529969608967456</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.619684579205792</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.581343297592584</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.756844881931732</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.822839088961434</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.529112697724995</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.580830159607851</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.389019482696932</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.675595447215337</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.523930159271177</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.433349195600366</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.696851480613757</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.583790255087382</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.727098526374066</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.741985444624183</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.641824096726743</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.474126518973143</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.364717906507653</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.301242387158432</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.163327499246366</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.313179598308858</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.218483573122562</v>
-      </c>
-      <c r="G11"/>
-      <c r="H11"/>
-      <c r="I11" t="n">
-        <v>0.283095421815601</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.27084855688435</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.347853243460036</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.262527011404327</v>
-      </c>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12" t="n">
-        <v>0.311745273790548</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.173904958357855</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.410626908494325</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.393121093071121</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.282669471326983</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.376571407830385</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.32600471502799</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.698489352155402</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.362475436951784</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.265617828927838</v>
+        <v>4.41998759297688</v>
+      </c>
+      <c r="L6" t="n">
+        <v>4.53005212321091</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.41998759297688</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -47,49 +47,31 @@
     <t xml:space="preserve">Japan</t>
   </si>
   <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the Global Climate Scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belief about GCS support in own country</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Belief about GCS support in the U.S.
-(except for the U.S.: support in the EU)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 25-33% of world emissions', 
-                              '                                                                            *' * bold('Low') * ': Global South + EU')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('Supports the GCS if its other members* cover 56% of world emissions', 
-                              '                                                                   *' * bold('Mid') * ': Global South + China')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('                    Supports the GCS if its other members* cover 64-72% of world emissions', 
-                               '*' * bold(High) * ': Global South + China + EU + various HICs (UK, Japan, South Korea, Canada...)')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$ atop('     Supports the GCS if its other members* cover 64-72% of world emissions',          
-                                     '*' * bold('High color') * ': High + Distributive effects displayed using colors on world map')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inflation due to the GCS (in %)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Net monetary cost of the GCS (in $/month)</t>
+    <t xml:space="preserve">Supports tax on world top income to finance global poverty reduction
+(Any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affected by the (variant faced of the) top tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affected by the top 1% tax (income &gt; $PPP 120k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Affected by the top 3% tax (income &gt; $PPP 80k)</t>
   </si>
 </sst>
 </file>
@@ -461,446 +443,251 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>67.8679804978435</v>
+        <v>0.458655202633503</v>
       </c>
       <c r="C2" t="n">
-        <v>65.7193301686884</v>
+        <v>0.530633111073681</v>
       </c>
       <c r="D2" t="n">
-        <v>63.2178756299858</v>
+        <v>0.728060762438549</v>
       </c>
       <c r="E2" t="n">
-        <v>62.5788710577029</v>
+        <v>0.433277453890483</v>
       </c>
       <c r="F2" t="n">
-        <v>73.7750703446263</v>
+        <v>0.670220829481084</v>
       </c>
       <c r="G2" t="n">
-        <v>55.7958636289971</v>
+        <v>0.500997266398559</v>
       </c>
       <c r="H2" t="n">
-        <v>68.9928868694489</v>
+        <v>0.354532209125533</v>
       </c>
       <c r="I2" t="n">
-        <v>69.5057232484879</v>
+        <v>0.554162668358118</v>
       </c>
       <c r="J2" t="n">
-        <v>57.7523185799727</v>
+        <v>0.381407423879945</v>
       </c>
       <c r="K2" t="n">
-        <v>67.987520077397</v>
+        <v>0.312651458927067</v>
       </c>
       <c r="L2" t="n">
-        <v>74.0846263450239</v>
+        <v>0.637081457535834</v>
       </c>
       <c r="M2" t="n">
-        <v>88.0240645828152</v>
-      </c>
-      <c r="N2" t="n">
-        <v>64.0735542026883</v>
+        <v>0.44754651248597</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
-        <v>55.2953815419129</v>
+        <v>0.0591524213077198</v>
       </c>
       <c r="C3" t="n">
-        <v>61.0914766632881</v>
+        <v>0.0407707508788973</v>
       </c>
       <c r="D3" t="n">
-        <v>64.9673122291722</v>
+        <v>0.0323072107425518</v>
       </c>
       <c r="E3" t="n">
-        <v>53.4385977368577</v>
+        <v>0.0266191432108494</v>
       </c>
       <c r="F3" t="n">
-        <v>77.6272593268426</v>
+        <v>0.0508665529273163</v>
       </c>
       <c r="G3" t="n">
-        <v>50.6505049421928</v>
+        <v>0.0154979588373725</v>
       </c>
       <c r="H3" t="n">
-        <v>68.1637766424686</v>
+        <v>0.0308607490074744</v>
       </c>
       <c r="I3" t="n">
-        <v>58.1054438205453</v>
+        <v>0.0702529813060691</v>
       </c>
       <c r="J3" t="n">
-        <v>62.3284705512702</v>
+        <v>0.114402739983896</v>
       </c>
       <c r="K3" t="n">
-        <v>56.8474042011213</v>
+        <v>0.0300920300421565</v>
       </c>
       <c r="L3" t="n">
-        <v>48.4302557813727</v>
+        <v>0.213457131326528</v>
       </c>
       <c r="M3" t="n">
-        <v>84.6671870687128</v>
-      </c>
-      <c r="N3" t="n">
-        <v>48.666425997025</v>
+        <v>0.0779223306659385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>39</v>
+        <v>0.528888358626659</v>
       </c>
       <c r="C4" t="n">
-        <v>40</v>
+        <v>0.623206921829844</v>
       </c>
       <c r="D4" t="n">
-        <v>40</v>
+        <v>0.759306272998927</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>0.455234037906956</v>
       </c>
       <c r="F4" t="n">
-        <v>40</v>
+        <v>0.646319884351791</v>
       </c>
       <c r="G4" t="n">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>40</v>
+        <v>0.638361679043372</v>
       </c>
       <c r="I4" t="n">
-        <v>42</v>
+        <v>0.492036390872307</v>
       </c>
       <c r="J4" t="n">
-        <v>45</v>
+        <v>0.650144217307684</v>
       </c>
       <c r="K4" t="n">
-        <v>33</v>
+        <v>0.418169519433632</v>
       </c>
       <c r="L4" t="n">
-        <v>30</v>
+        <v>0.522951617509147</v>
       </c>
       <c r="M4" t="n">
-        <v>58</v>
-      </c>
-      <c r="N4" t="n">
-        <v>40</v>
+        <v>0.489850782983131</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>0.0324192263079185</v>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>0.0228809019118487</v>
       </c>
       <c r="D5" t="n">
-        <v>20</v>
+        <v>0.0168076927398806</v>
       </c>
       <c r="E5" t="n">
-        <v>19</v>
+        <v>0.0156399541396257</v>
       </c>
       <c r="F5" t="n">
-        <v>24</v>
+        <v>0.0379209062301266</v>
       </c>
       <c r="G5" t="n">
-        <v>29</v>
+        <v>0.00539414658045392</v>
       </c>
       <c r="H5" t="n">
-        <v>23</v>
+        <v>0.0135134355442693</v>
       </c>
       <c r="I5" t="n">
-        <v>21</v>
+        <v>0.0387987232432794</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>0.06987857565294</v>
       </c>
       <c r="K5" t="n">
-        <v>30</v>
-      </c>
-      <c r="L5"/>
+        <v>0.0191985328268543</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.132205913258965</v>
+      </c>
       <c r="M5" t="n">
-        <v>46</v>
-      </c>
-      <c r="N5" t="n">
-        <v>40</v>
+        <v>0.0409323300541326</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>64.7240480131028</v>
+        <v>0.432729011460262</v>
       </c>
       <c r="C6" t="n">
-        <v>68.8160595583607</v>
+        <v>0.494229631325223</v>
       </c>
       <c r="D6" t="n">
-        <v>75.3397348285344</v>
+        <v>0.694652395845772</v>
       </c>
       <c r="E6" t="n">
-        <v>62.7385682537816</v>
+        <v>0.622665668771534</v>
       </c>
       <c r="F6" t="n">
-        <v>84.8771216338856</v>
+        <v>0.548482144697428</v>
       </c>
       <c r="G6" t="n">
-        <v>60.3075714398011</v>
+        <v>0.434789042286224</v>
       </c>
       <c r="H6" t="n">
-        <v>70.7904376466329</v>
+        <v>0.376672900705601</v>
       </c>
       <c r="I6" t="n">
-        <v>63.7497870612938</v>
+        <v>0.610651971508659</v>
       </c>
       <c r="J6" t="n">
-        <v>61.691572049826</v>
+        <v>0.231936795277737</v>
       </c>
       <c r="K6" t="n">
-        <v>66.5933688883394</v>
+        <v>0.333000333000333</v>
       </c>
       <c r="L6" t="n">
-        <v>57.2690723237937</v>
+        <v>0.676810040857224</v>
       </c>
       <c r="M6" t="n">
-        <v>86.9712358856764</v>
-      </c>
-      <c r="N6" t="n">
-        <v>60.3471262597791</v>
+        <v>0.369319480210762</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
-        <v>67.2054760884641</v>
+        <v>0.085037992635904</v>
       </c>
       <c r="C7" t="n">
-        <v>73.150166637206</v>
+        <v>0.058871310106645</v>
       </c>
       <c r="D7" t="n">
-        <v>75.9578759812179</v>
+        <v>0.0460874543518805</v>
       </c>
       <c r="E7" t="n">
-        <v>71.5781509811605</v>
+        <v>0.0411657855802637</v>
       </c>
       <c r="F7" t="n">
-        <v>82.6621609973818</v>
+        <v>0.0660744172057993</v>
       </c>
       <c r="G7" t="n">
-        <v>53.9542753382839</v>
+        <v>0.0231861533967205</v>
       </c>
       <c r="H7" t="n">
-        <v>77.7187061273175</v>
+        <v>0.0483308966472912</v>
       </c>
       <c r="I7" t="n">
-        <v>67.466334415845</v>
+        <v>0.0953377939181177</v>
       </c>
       <c r="J7" t="n">
-        <v>63.7890555129928</v>
+        <v>0.165895078203565</v>
       </c>
       <c r="K7" t="n">
-        <v>67.292535125419</v>
+        <v>0.042539129854292</v>
       </c>
       <c r="L7" t="n">
-        <v>63.9033952437169</v>
+        <v>0.294709996866589</v>
       </c>
       <c r="M7" t="n">
-        <v>86.513074970901</v>
-      </c>
-      <c r="N7" t="n">
-        <v>58.9468339412676</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>68.518253119246</v>
-      </c>
-      <c r="C8" t="n">
-        <v>73.33558792255</v>
-      </c>
-      <c r="D8" t="n">
-        <v>76.3148103910017</v>
-      </c>
-      <c r="E8" t="n">
-        <v>77.0272348727413</v>
-      </c>
-      <c r="F8" t="n">
-        <v>78.8435848365109</v>
-      </c>
-      <c r="G8" t="n">
-        <v>71.308717218709</v>
-      </c>
-      <c r="H8" t="n">
-        <v>74.199477200258</v>
-      </c>
-      <c r="I8" t="n">
-        <v>62.534539350272</v>
-      </c>
-      <c r="J8" t="n">
-        <v>74.3491876231661</v>
-      </c>
-      <c r="K8" t="n">
-        <v>70.8149579691965</v>
-      </c>
-      <c r="L8" t="n">
-        <v>60.4866837966034</v>
-      </c>
-      <c r="M8" t="n">
-        <v>90.518282762834</v>
-      </c>
-      <c r="N8" t="n">
-        <v>63.6828257869627</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="n">
-        <v>61.895417279981</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67.9633244466616</v>
-      </c>
-      <c r="D9" t="n">
-        <v>61.4641799995525</v>
-      </c>
-      <c r="E9" t="n">
-        <v>68.0628787989001</v>
-      </c>
-      <c r="F9" t="n">
-        <v>79.3318305400507</v>
-      </c>
-      <c r="G9" t="n">
-        <v>56.6663585514635</v>
-      </c>
-      <c r="H9" t="n">
-        <v>77.4540600482755</v>
-      </c>
-      <c r="I9" t="n">
-        <v>66.1815968025775</v>
-      </c>
-      <c r="J9" t="n">
-        <v>64.7145596361043</v>
-      </c>
-      <c r="K9" t="n">
-        <v>63.3861854984241</v>
-      </c>
-      <c r="L9" t="n">
-        <v>54.11746546684</v>
-      </c>
-      <c r="M9" t="n">
-        <v>87.5032786022504</v>
-      </c>
-      <c r="N9" t="n">
-        <v>56.0767240057917</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1.77845357170878</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.32909936805347</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="n">
-        <v>52.3391390830897</v>
-      </c>
-      <c r="C11" t="n">
-        <v>27.0821052545845</v>
-      </c>
-      <c r="D11" t="n">
-        <v>17</v>
-      </c>
-      <c r="E11" t="n">
-        <v>48</v>
-      </c>
-      <c r="F11" t="n">
-        <v>18</v>
-      </c>
-      <c r="G11" t="n">
-        <v>39</v>
-      </c>
-      <c r="H11" t="n">
-        <v>13</v>
-      </c>
-      <c r="I11" t="n">
-        <v>24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>48</v>
-      </c>
-      <c r="L11" t="n">
-        <v>30</v>
-      </c>
-      <c r="M11" t="n">
-        <v>101</v>
-      </c>
-      <c r="N11" t="n">
-        <v>88</v>
+        <v>0.113010172525853</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -57,7 +60,7 @@
 (Any variant)</t>
   </si>
   <si>
-    <t xml:space="preserve">Affected by the (variant faced of the) top tax</t>
+    <t xml:space="preserve">Affected by the top tax (any variant)</t>
   </si>
   <si>
     <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
@@ -443,51 +446,57 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.458655202633503</v>
+        <v>0.562249333952068</v>
       </c>
       <c r="C2" t="n">
         <v>0.530633111073681</v>
       </c>
       <c r="D2" t="n">
-        <v>0.728060762438549</v>
+        <v>0.534615441391404</v>
       </c>
       <c r="E2" t="n">
-        <v>0.433277453890483</v>
+        <v>0.532199124020193</v>
       </c>
       <c r="F2" t="n">
-        <v>0.670220829481084</v>
+        <v>0.475339526743875</v>
       </c>
       <c r="G2" t="n">
-        <v>0.500997266398559</v>
+        <v>0.455066177183276</v>
       </c>
       <c r="H2" t="n">
-        <v>0.354532209125533</v>
+        <v>0.481053473314213</v>
       </c>
       <c r="I2" t="n">
-        <v>0.554162668358118</v>
+        <v>0.644527456241547</v>
       </c>
       <c r="J2" t="n">
-        <v>0.381407423879945</v>
+        <v>0.283838350853901</v>
       </c>
       <c r="K2" t="n">
-        <v>0.312651458927067</v>
+        <v>0.278766736483527</v>
       </c>
       <c r="L2" t="n">
-        <v>0.637081457535834</v>
+        <v>0.599907829518252</v>
       </c>
       <c r="M2" t="n">
-        <v>0.44754651248597</v>
+        <v>0.695880953418338</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.38602041410698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.0591524213077198</v>
@@ -519,57 +528,61 @@
       <c r="K3" t="n">
         <v>0.0300920300421565</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3"/>
+      <c r="M3" t="n">
         <v>0.213457131326528</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>0.0779223306659385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.528888358626659</v>
+        <v>0.593568464643459</v>
       </c>
       <c r="C4" t="n">
         <v>0.623206921829844</v>
       </c>
       <c r="D4" t="n">
-        <v>0.759306272998927</v>
+        <v>0.662100661962385</v>
       </c>
       <c r="E4" t="n">
-        <v>0.455234037906956</v>
+        <v>0.645129138499509</v>
       </c>
       <c r="F4" t="n">
-        <v>0.646319884351791</v>
+        <v>0.652088141940814</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.638361679043372</v>
+        <v>0.595169320047074</v>
       </c>
       <c r="I4" t="n">
-        <v>0.492036390872307</v>
+        <v>0.581049693515047</v>
       </c>
       <c r="J4" t="n">
-        <v>0.650144217307684</v>
+        <v>0.460003610927742</v>
       </c>
       <c r="K4" t="n">
-        <v>0.418169519433632</v>
+        <v>0.321840723174092</v>
       </c>
       <c r="L4" t="n">
-        <v>0.522951617509147</v>
+        <v>0.599907829518252</v>
       </c>
       <c r="M4" t="n">
-        <v>0.489850782983131</v>
+        <v>0.656234738255263</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.466960372968151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.0324192263079185</v>
@@ -578,80 +591,84 @@
         <v>0.0228809019118487</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0168076927398806</v>
+        <v>0.0152772811251959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0156399541396257</v>
+        <v>0.0158159265407275</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0379209062301266</v>
+        <v>0.0364460596482764</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00539414658045392</v>
+        <v>0.00635212756481645</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0135134355442693</v>
+        <v>0.013703147356521</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0387987232432794</v>
+        <v>0.0382299828227781</v>
       </c>
       <c r="J5" t="n">
-        <v>0.06987857565294</v>
+        <v>0.0699523880243387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0191985328268543</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.132205913258965</v>
-      </c>
+        <v>0.0195161254114759</v>
+      </c>
+      <c r="L5"/>
       <c r="M5" t="n">
-        <v>0.0409323300541326</v>
+        <v>0.136800251123575</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.0397521568871045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.432729011460262</v>
+        <v>0.564833073218838</v>
       </c>
       <c r="C6" t="n">
         <v>0.494229631325223</v>
       </c>
       <c r="D6" t="n">
-        <v>0.694652395845772</v>
+        <v>0.494509481529061</v>
       </c>
       <c r="E6" t="n">
-        <v>0.622665668771534</v>
+        <v>0.482293276239211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.548482144697428</v>
+        <v>0.377478972984925</v>
       </c>
       <c r="G6" t="n">
-        <v>0.434789042286224</v>
+        <v>0.317062120727541</v>
       </c>
       <c r="H6" t="n">
-        <v>0.376672900705601</v>
+        <v>0.446739876773781</v>
       </c>
       <c r="I6" t="n">
-        <v>0.610651971508659</v>
+        <v>0.666981999539339</v>
       </c>
       <c r="J6" t="n">
-        <v>0.231936795277737</v>
+        <v>0.204001758620865</v>
       </c>
       <c r="K6" t="n">
-        <v>0.333000333000333</v>
+        <v>0.259051167955435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.676810040857224</v>
+        <v>0.599907829518252</v>
       </c>
       <c r="M6" t="n">
-        <v>0.369319480210762</v>
+        <v>0.713245760172143</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.359482567475819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.085037992635904</v>
@@ -660,34 +677,35 @@
         <v>0.058871310106645</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0460874543518805</v>
+        <v>0.0497557537097689</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0411657855802637</v>
+        <v>0.0381284684121215</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0660744172057993</v>
+        <v>0.0651357948522902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0231861533967205</v>
+        <v>0.0243920108908461</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0483308966472912</v>
+        <v>0.0494954076529742</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0953377939181177</v>
+        <v>0.0998345665218679</v>
       </c>
       <c r="J7" t="n">
-        <v>0.165895078203565</v>
+        <v>0.160672303258471</v>
       </c>
       <c r="K7" t="n">
-        <v>0.042539129854292</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.294709996866589</v>
-      </c>
+        <v>0.0400180177711981</v>
+      </c>
+      <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.113010172525853</v>
+        <v>0.282886812048479</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.113725803486659</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
@@ -446,16 +443,13 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>0.562249333952068</v>
+        <v>0.458655202633503</v>
       </c>
       <c r="C2" t="n">
         <v>0.530633111073681</v>
@@ -485,18 +479,15 @@
         <v>0.278766736483527</v>
       </c>
       <c r="L2" t="n">
-        <v>0.599907829518252</v>
+        <v>0.695880953418338</v>
       </c>
       <c r="M2" t="n">
-        <v>0.695880953418338</v>
-      </c>
-      <c r="N2" t="n">
         <v>0.38602041410698</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="n">
         <v>0.0591524213077198</v>
@@ -528,20 +519,19 @@
       <c r="K3" t="n">
         <v>0.0300920300421565</v>
       </c>
-      <c r="L3"/>
+      <c r="L3" t="n">
+        <v>0.213457131326528</v>
+      </c>
       <c r="M3" t="n">
-        <v>0.213457131326528</v>
-      </c>
-      <c r="N3" t="n">
         <v>0.0779223306659385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="n">
-        <v>0.593568464643459</v>
+        <v>0.528888358626659</v>
       </c>
       <c r="C4" t="n">
         <v>0.623206921829844</v>
@@ -571,18 +561,15 @@
         <v>0.321840723174092</v>
       </c>
       <c r="L4" t="n">
-        <v>0.599907829518252</v>
+        <v>0.656234738255263</v>
       </c>
       <c r="M4" t="n">
-        <v>0.656234738255263</v>
-      </c>
-      <c r="N4" t="n">
         <v>0.466960372968151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" t="n">
         <v>0.0324192263079185</v>
@@ -614,20 +601,19 @@
       <c r="K5" t="n">
         <v>0.0195161254114759</v>
       </c>
-      <c r="L5"/>
+      <c r="L5" t="n">
+        <v>0.136800251123575</v>
+      </c>
       <c r="M5" t="n">
-        <v>0.136800251123575</v>
-      </c>
-      <c r="N5" t="n">
         <v>0.0397521568871045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>0.564833073218838</v>
+        <v>0.432729011460262</v>
       </c>
       <c r="C6" t="n">
         <v>0.494229631325223</v>
@@ -657,18 +643,15 @@
         <v>0.259051167955435</v>
       </c>
       <c r="L6" t="n">
-        <v>0.599907829518252</v>
+        <v>0.713245760172143</v>
       </c>
       <c r="M6" t="n">
-        <v>0.713245760172143</v>
-      </c>
-      <c r="N6" t="n">
         <v>0.359482567475819</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="n">
         <v>0.085037992635904</v>
@@ -700,11 +683,10 @@
       <c r="K7" t="n">
         <v>0.0400180177711981</v>
       </c>
-      <c r="L7"/>
+      <c r="L7" t="n">
+        <v>0.282886812048479</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.282886812048479</v>
-      </c>
-      <c r="N7" t="n">
         <v>0.113725803486659</v>
       </c>
     </row>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,58 +20,73 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top income to finance global poverty reduction
-(Any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Affected by the top tax (any variant)</t>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
     <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Affected by the top 1% tax (income &gt; $PPP 120k)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Affected by the top 3% tax (income &gt; $PPP 80k)</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -443,251 +458,373 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.458655202633503</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.530633111073681</v>
+        <v>0.410477795846558</v>
       </c>
       <c r="D2" t="n">
-        <v>0.534615441391404</v>
+        <v>0.752703517945016</v>
       </c>
       <c r="E2" t="n">
-        <v>0.532199124020193</v>
+        <v>0.881979509829607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.475339526743875</v>
+        <v>0.598370573496111</v>
       </c>
       <c r="G2" t="n">
-        <v>0.455066177183276</v>
+        <v>0.605019471892137</v>
       </c>
       <c r="H2" t="n">
-        <v>0.481053473314213</v>
+        <v>0.670930964239829</v>
       </c>
       <c r="I2" t="n">
-        <v>0.644527456241547</v>
+        <v>0.744286257234234</v>
       </c>
       <c r="J2" t="n">
-        <v>0.283838350853901</v>
+        <v>0.669437974908923</v>
       </c>
       <c r="K2" t="n">
-        <v>0.278766736483527</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="L2" t="n">
-        <v>0.695880953418338</v>
+        <v>0.848112605685568</v>
       </c>
       <c r="M2" t="n">
-        <v>0.38602041410698</v>
+        <v>0.725127730173656</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.770791010357976</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.422998865238901</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0591524213077198</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0407707508788973</v>
+        <v>0.369932629020835</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0323072107425518</v>
+        <v>0.660387750192438</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0266191432108494</v>
+        <v>0.812564364619181</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0508665529273163</v>
+        <v>0.593176728095437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0154979588373725</v>
+        <v>0.527806333768865</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0308607490074744</v>
+        <v>0.632917148987785</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0702529813060691</v>
+        <v>0.670937221461187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.114402739983896</v>
+        <v>0.457393328180411</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0300920300421565</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.213457131326528</v>
+        <v>0.837352904622364</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0779223306659385</v>
+        <v>0.676306813569887</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.697470165041275</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.414320739649134</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.528888358626659</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.623206921829844</v>
+        <v>0.616567982061628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.662100661962385</v>
+        <v>0.680987204503282</v>
       </c>
       <c r="E4" t="n">
-        <v>0.645129138499509</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="F4" t="n">
-        <v>0.652088141940814</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="H4" t="n">
-        <v>0.595169320047074</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="I4" t="n">
-        <v>0.581049693515047</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="J4" t="n">
-        <v>0.460003610927742</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="K4" t="n">
-        <v>0.321840723174092</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="L4" t="n">
-        <v>0.656234738255263</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.466960372968151</v>
+        <v>0.671270631778761</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.776836935461012</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0324192263079185</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0228809019118487</v>
+        <v>0.501352982535347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0152772811251959</v>
+        <v>0.787483813023996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0158159265407275</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0364460596482764</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="G5" t="n">
-        <v>0.00635212756481645</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.013703147356521</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0382299828227781</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0699523880243387</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0195161254114759</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="L5" t="n">
-        <v>0.136800251123575</v>
+        <v>0.938466265662205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0397521568871045</v>
+        <v>0.688883535477258</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.68963486840272</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.432729011460262</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.494229631325223</v>
+        <v>0.523930159271177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.494509481529061</v>
+        <v>0.709363981944143</v>
       </c>
       <c r="E6" t="n">
-        <v>0.482293276239211</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="F6" t="n">
-        <v>0.377478972984925</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="G6" t="n">
-        <v>0.317062120727541</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="H6" t="n">
-        <v>0.446739876773781</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="I6" t="n">
-        <v>0.666981999539339</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="J6" t="n">
-        <v>0.204001758620865</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="K6" t="n">
-        <v>0.259051167955435</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="L6" t="n">
-        <v>0.713245760172143</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="M6" t="n">
-        <v>0.359482567475819</v>
+        <v>0.641824096726743</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.834461320073758</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.085037992635904</v>
+        <v>0.682631646934764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.058871310106645</v>
+        <v>0.485395103641793</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0497557537097689</v>
+        <v>0.649420989523519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0381284684121215</v>
+        <v>0.949068510449696</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0651357948522902</v>
+        <v>0.643446016542881</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0243920108908461</v>
+        <v>0.49870325508058</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0494954076529742</v>
+        <v>0.421654543233796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0998345665218679</v>
+        <v>0.721859577098009</v>
       </c>
       <c r="J7" t="n">
-        <v>0.160672303258471</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.0400180177711981</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.282886812048479</v>
-      </c>
+        <v>0.567833043339243</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7"/>
       <c r="M7" t="n">
-        <v>0.113725803486659</v>
+        <v>0.594885214041605</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.89017740422893</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.463635219077665</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.451810364536854</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.300083084889478</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.557446034112919</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.671740407264302</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.381096922735002</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.302200617956964</v>
+      </c>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
+        <v>0.474757915976864</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.593250695193873</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.206703446618612</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.592122368373113</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.499097199497334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.580747265340527</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.809096347988613</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.561113372661989</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.398718648810441</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.57447231505182</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.652952489891304</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.576305239322503</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.887006592651732</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.880416868630143</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.585354296646937</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.757501496513123</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.336242924079427</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,73 +20,70 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing / No comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Praise survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticize survey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confusing/difficult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro climate action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doubt climate action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other / Vague / Unclassifiable</t>
   </si>
 </sst>
 </file>
@@ -461,370 +458,445 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.13072558464272</v>
       </c>
       <c r="C2" t="n">
-        <v>0.410477795846558</v>
+        <v>0.0697673234173536</v>
       </c>
       <c r="D2" t="n">
-        <v>0.752703517945016</v>
+        <v>0.0630817342536868</v>
       </c>
       <c r="E2" t="n">
-        <v>0.881979509829607</v>
+        <v>0.0449444193192533</v>
       </c>
       <c r="F2" t="n">
-        <v>0.598370573496111</v>
+        <v>0.0569984900845528</v>
       </c>
       <c r="G2" t="n">
-        <v>0.605019471892137</v>
+        <v>0.164766544547992</v>
       </c>
       <c r="H2" t="n">
-        <v>0.670930964239829</v>
+        <v>0.0573478962515916</v>
       </c>
       <c r="I2" t="n">
-        <v>0.744286257234234</v>
+        <v>0.0694645746623658</v>
       </c>
       <c r="J2" t="n">
-        <v>0.669437974908923</v>
+        <v>0.0527548345418779</v>
       </c>
       <c r="K2" t="n">
-        <v>0.817345461694808</v>
+        <v>0.257556758981729</v>
       </c>
       <c r="L2" t="n">
-        <v>0.848112605685568</v>
+        <v>0.134157104124194</v>
       </c>
       <c r="M2" t="n">
-        <v>0.725127730173656</v>
+        <v>0.0853698100966413</v>
       </c>
       <c r="N2" t="n">
-        <v>0.770791010357976</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.422998865238901</v>
+        <v>0.148773207255259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.0303602901607922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.369932629020835</v>
+        <v>0.0211108934443368</v>
       </c>
       <c r="D3" t="n">
-        <v>0.660387750192438</v>
+        <v>0.0248610699028946</v>
       </c>
       <c r="E3" t="n">
-        <v>0.812564364619181</v>
+        <v>0.0216348755270636</v>
       </c>
       <c r="F3" t="n">
-        <v>0.593176728095437</v>
+        <v>0.0041394033265417</v>
       </c>
       <c r="G3" t="n">
-        <v>0.527806333768865</v>
+        <v>0.0206036926349253</v>
       </c>
       <c r="H3" t="n">
-        <v>0.632917148987785</v>
+        <v>0.0313580062493146</v>
       </c>
       <c r="I3" t="n">
-        <v>0.670937221461187</v>
+        <v>0.0107294567071258</v>
       </c>
       <c r="J3" t="n">
-        <v>0.457393328180411</v>
+        <v>0.016081132699134</v>
       </c>
       <c r="K3" t="n">
-        <v>0.816920760799125</v>
+        <v>0.00415944145339634</v>
       </c>
       <c r="L3" t="n">
-        <v>0.837352904622364</v>
+        <v>0.0332729096951088</v>
       </c>
       <c r="M3" t="n">
-        <v>0.676306813569887</v>
+        <v>0.151800730147074</v>
       </c>
       <c r="N3" t="n">
-        <v>0.697470165041275</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.414320739649134</v>
+        <v>0.0408691760615335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.117088505696475</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616567982061628</v>
+        <v>0.107010523752855</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680987204503282</v>
+        <v>0.126912470438597</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.0990312553017035</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.130285728724539</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.0971550423406637</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743644347389163</v>
+        <v>0.112499273187769</v>
       </c>
       <c r="I4" t="n">
-        <v>0.814701212857562</v>
+        <v>0.162200388491488</v>
       </c>
       <c r="J4" t="n">
-        <v>0.757048871605567</v>
+        <v>0.0432825296829042</v>
       </c>
       <c r="K4" t="n">
-        <v>0.721853509181885</v>
+        <v>0.0460316825804056</v>
       </c>
       <c r="L4" t="n">
-        <v>0.703520370125625</v>
+        <v>0.0648121000074989</v>
       </c>
       <c r="M4" t="n">
-        <v>0.671270631778761</v>
+        <v>0.20403465096692</v>
       </c>
       <c r="N4" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425661149175785</v>
+        <v>0.169702542114192</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.0209305763179962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501352982535347</v>
+        <v>0.0218347128817252</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787483813023996</v>
+        <v>0.0218700451526134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.0279920491282482</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.0133860546555798</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.0519893723564105</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7335602187152</v>
+        <v>0.0281582658272028</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725922165695082</v>
+        <v>0.0237144708035906</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685126203737904</v>
+        <v>0.0584563140940413</v>
       </c>
       <c r="K5" t="n">
-        <v>0.92816201896394</v>
+        <v>0.0146902681742471</v>
       </c>
       <c r="L5" t="n">
-        <v>0.938466265662205</v>
+        <v>0.0214833358051607</v>
       </c>
       <c r="M5" t="n">
-        <v>0.688883535477258</v>
+        <v>0.0146942867926235</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.436451458600216</v>
+        <v>0.0232164381262679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.675595447215337</v>
+        <v>0.0219727452891465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523930159271177</v>
+        <v>0.017094148480372</v>
       </c>
       <c r="D6" t="n">
-        <v>0.709363981944143</v>
+        <v>0.0281797160816347</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892471876813608</v>
+        <v>0.0185900158963011</v>
       </c>
       <c r="F6" t="n">
-        <v>0.637051467662211</v>
+        <v>0.00880803531998698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578161277543308</v>
+        <v>0.0048506773133616</v>
       </c>
       <c r="H6" t="n">
-        <v>0.433349195600366</v>
+        <v>0.0352364097073914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696851480613757</v>
+        <v>0.0127601916183921</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583790255087382</v>
+        <v>0.00917219383986832</v>
       </c>
       <c r="K6" t="n">
-        <v>0.729122438104651</v>
+        <v>0.0745250437890833</v>
       </c>
       <c r="L6" t="n">
-        <v>0.741985444624183</v>
+        <v>0.0161711170614627</v>
       </c>
       <c r="M6" t="n">
-        <v>0.641824096726743</v>
+        <v>0.000502008032128514</v>
       </c>
       <c r="N6" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.474126518973143</v>
+        <v>0.00813870402977183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.682631646934764</v>
+        <v>0.0163390292481995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.485395103641793</v>
+        <v>0.00600964838297343</v>
       </c>
       <c r="D7" t="n">
-        <v>0.649420989523519</v>
+        <v>0.00210077232156066</v>
       </c>
       <c r="E7" t="n">
-        <v>0.949068510449696</v>
+        <v>0.00821017023689031</v>
       </c>
       <c r="F7" t="n">
-        <v>0.643446016542881</v>
+        <v>0.018078494351299</v>
       </c>
       <c r="G7" t="n">
-        <v>0.49870325508058</v>
+        <v>0.0111975721093607</v>
       </c>
       <c r="H7" t="n">
-        <v>0.421654543233796</v>
+        <v>0.016885996585339</v>
       </c>
       <c r="I7" t="n">
-        <v>0.721859577098009</v>
+        <v>0.000973468126141447</v>
       </c>
       <c r="J7" t="n">
-        <v>0.567833043339243</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.011367536084501</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.0587857952453002</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.594885214041605</v>
+        <v>0.0178060801076016</v>
       </c>
       <c r="N7" t="n">
-        <v>0.89017740422893</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.463635219077665</v>
+        <v>0.00999532979601215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.451810364536854</v>
+        <v>0.0213029142084788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.300083084889478</v>
+        <v>0.0108572546896661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.557446034112919</v>
+        <v>0.0185212941677131</v>
       </c>
       <c r="E8" t="n">
-        <v>0.671740407264302</v>
+        <v>0.00699066316329541</v>
       </c>
       <c r="F8" t="n">
-        <v>0.381096922735002</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.302200617956964</v>
-      </c>
-      <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
+        <v>0.0219494164489717</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0208606830072648</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00976253072757774</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.0223141546648006</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.00488877169262998</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.0369002045172328</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.474757915976864</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.593250695193873</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.206703446618612</v>
+        <v>0.0324960529700791</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.0101964330292709</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.00728417020100042</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.0036971411514128</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.00430626252369435</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.00333954434204623</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0119254166216743</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00594200589182936</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.00646368141978556</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.0121029296382471</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.0154180458796298</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0219788440934882</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.00822570783875314</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="n">
-        <v>0.592122368373113</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.499097199497334</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.580747265340527</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.809096347988613</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.561113372661989</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.398718648810441</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.57447231505182</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.652952489891304</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.576305239322503</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.887006592651732</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.880416868630143</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.585354296646937</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.757501496513123</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.336242924079427</v>
+      <c r="B10" t="n">
+        <v>0.0101325942486452</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.00444800246628011</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00335337435894486</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.000482625482625483</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00855118235815349</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0026261196551152</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00282289501256844</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0018504561920746</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.00306997465436804</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.0163279424043428</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.00385418200790109</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.0129685698957936</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.116680944647155</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0919764458587977</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.0959732980966614</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.097765694931062</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0844696675603978</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0994250473396192</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.10241360693151</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.0711196279836342</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.0871344910082392</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.161162939914088</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.229932091383916</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.172614301261086</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.0668458740998122</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,34 +56,22 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Nothing / No comment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thank you</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Praise survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criticize survey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Confusing/difficult</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubt global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pro climate action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doubt climate action</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other / Vague / Unclassifiable</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -464,43 +452,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.13072558464272</v>
+        <v>0.693996120467564</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0697673234173536</v>
+        <v>0.727267133682238</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0630817342536868</v>
+        <v>0.713266166753258</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0449444193192533</v>
+        <v>0.722752212925052</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0569984900845528</v>
+        <v>0.839866307760825</v>
       </c>
       <c r="G2" t="n">
-        <v>0.164766544547992</v>
+        <v>0.694516301386687</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0573478962515916</v>
+        <v>0.727791884744065</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0694645746623658</v>
+        <v>0.671225049697161</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0527548345418779</v>
+        <v>0.603572620182626</v>
       </c>
       <c r="K2" t="n">
-        <v>0.257556758981729</v>
+        <v>0.691681993781983</v>
       </c>
       <c r="L2" t="n">
-        <v>0.134157104124194</v>
+        <v>0.754855071318372</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0853698100966413</v>
+        <v>0.817345461694808</v>
       </c>
       <c r="N2" t="n">
-        <v>0.148773207255259</v>
+        <v>0.622335501686223</v>
       </c>
     </row>
     <row r="3">
@@ -508,43 +496,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0303602901607922</v>
+        <v>0.641188431291775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0211108934443368</v>
+        <v>0.663594295554775</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0248610699028946</v>
+        <v>0.698772999587592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0216348755270636</v>
+        <v>0.622101654744799</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0041394033265417</v>
+        <v>0.706881256898736</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0206036926349253</v>
+        <v>0.699228862448248</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0313580062493146</v>
+        <v>0.658500586296013</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0107294567071258</v>
+        <v>0.665804066558109</v>
       </c>
       <c r="J3" t="n">
-        <v>0.016081132699134</v>
+        <v>0.420104611305175</v>
       </c>
       <c r="K3" t="n">
-        <v>0.00415944145339634</v>
+        <v>0.550394111458431</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0332729096951088</v>
+        <v>0.756622372880961</v>
       </c>
       <c r="M3" t="n">
-        <v>0.151800730147074</v>
+        <v>0.816920760799125</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0408691760615335</v>
+        <v>0.57421952327369</v>
       </c>
     </row>
     <row r="4">
@@ -552,43 +540,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.117088505696475</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.107010523752855</v>
+        <v>0.701539116816613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.126912470438597</v>
+        <v>0.721220700610068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0990312553017035</v>
+        <v>0.703415187125182</v>
       </c>
       <c r="F4" t="n">
-        <v>0.130285728724539</v>
+        <v>0.759706650286704</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0971550423406637</v>
+        <v>0.575101001313061</v>
       </c>
       <c r="H4" t="n">
-        <v>0.112499273187769</v>
+        <v>0.731116681894394</v>
       </c>
       <c r="I4" t="n">
-        <v>0.162200388491488</v>
+        <v>0.683377424047149</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0432825296829042</v>
+        <v>0.659704988708263</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0460316825804056</v>
+        <v>0.759539408850822</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0648121000074989</v>
+        <v>0.690381293922693</v>
       </c>
       <c r="M4" t="n">
-        <v>0.20403465096692</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="N4" t="n">
-        <v>0.169702542114192</v>
+        <v>0.618731104894089</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +584,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0209305763179962</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0218347128817252</v>
+        <v>0.780310385878786</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0218700451526134</v>
+        <v>0.767261516731427</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0279920491282482</v>
+        <v>0.757541746745335</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0133860546555798</v>
+        <v>0.874984008964506</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0519893723564105</v>
+        <v>0.847206298409435</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0281582658272028</v>
+        <v>0.842339547896952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0237144708035906</v>
+        <v>0.65799487387268</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0584563140940413</v>
+        <v>0.656332785129309</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0146902681742471</v>
+        <v>0.703874631903231</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0214833358051607</v>
+        <v>0.777916745185535</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0146942867926235</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0232164381262679</v>
+        <v>0.562406199574745</v>
       </c>
     </row>
     <row r="6">
@@ -640,263 +628,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0219727452891465</v>
+        <v>0.592122368373113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.017094148480372</v>
+        <v>0.609896497471146</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0281797160816347</v>
+        <v>0.432966587857026</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0185900158963011</v>
+        <v>0.623667021276442</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00880803531998698</v>
+        <v>0.765866950290479</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0048506773133616</v>
+        <v>0.633729019702456</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0352364097073914</v>
+        <v>0.702512213956321</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0127601916183921</v>
+        <v>0.575699232924345</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00917219383986832</v>
+        <v>0.53058178548063</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0745250437890833</v>
+        <v>0.586217425103406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0161711170614627</v>
+        <v>0.573818682809178</v>
       </c>
       <c r="M6" t="n">
-        <v>0.000502008032128514</v>
+        <v>0.887006592651732</v>
       </c>
       <c r="N6" t="n">
-        <v>0.00813870402977183</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.0163390292481995</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.00600964838297343</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.00210077232156066</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.00821017023689031</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.018078494351299</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0111975721093607</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.016885996585339</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.000973468126141447</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.011367536084501</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.0587857952453002</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0178060801076016</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.00999532979601215</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.0213029142084788</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0108572546896661</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.0185212941677131</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.00699066316329541</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0219494164489717</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.0208606830072648</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.00976253072757774</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.0223141546648006</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.00488877169262998</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.0369002045172328</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.0324960529700791</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.0101964330292709</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.00728417020100042</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.0036971411514128</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.00430626252369435</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.00333954434204623</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.0119254166216743</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.00594200589182936</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.00646368141978556</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.0121029296382471</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.0154180458796298</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.0219788440934882</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.00822570783875314</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0101325942486452</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.00444800246628011</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.00335337435894486</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.000482625482625483</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.00855118235815349</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.0026261196551152</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.00282289501256844</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0018504561920746</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.00306997465436804</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.0163279424043428</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.00385418200790109</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.0129685698957936</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.116680944647155</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0919764458587977</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.0959732980966614</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.097765694931062</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.0844696675603978</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.0994250473396192</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.10241360693151</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.0711196279836342</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.0871344910082392</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.161162939914088</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.229932091383916</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.172614301261086</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.0668458740998122</v>
+        <v>0.554098197443099</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,58 +20,61 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent support
+for global redistribution (standardized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between share of plausible
+policies supported and opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of share of plausible policies
+supported over supported or opposed</t>
   </si>
 </sst>
 </file>
@@ -446,225 +449,243 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.693996120467564</v>
+        <v>0.118072592422114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.727267133682238</v>
+        <v>-0.0498367465468193</v>
       </c>
       <c r="D2" t="n">
-        <v>0.713266166753258</v>
+        <v>0.0900466965070292</v>
       </c>
       <c r="E2" t="n">
-        <v>0.722752212925052</v>
+        <v>0.773249073043927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.839866307760825</v>
+        <v>0.169433490463815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.694516301386687</v>
+        <v>-0.398894953418106</v>
       </c>
       <c r="H2" t="n">
-        <v>0.727791884744065</v>
+        <v>-0.323601595472413</v>
       </c>
       <c r="I2" t="n">
-        <v>0.671225049697161</v>
+        <v>0.0450127982223677</v>
       </c>
       <c r="J2" t="n">
-        <v>0.603572620182626</v>
+        <v>-0.129567448417396</v>
       </c>
       <c r="K2" t="n">
-        <v>0.691681993781983</v>
+        <v>0.570613442792331</v>
       </c>
       <c r="L2" t="n">
-        <v>0.754855071318372</v>
+        <v>0.703893156336886</v>
       </c>
       <c r="M2" t="n">
-        <v>0.817345461694808</v>
+        <v>-0.108149019641461</v>
       </c>
       <c r="N2" t="n">
-        <v>0.622335501686223</v>
+        <v>0.538844686201452</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.544785197190979</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.641188431291775</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.663594295554775</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.698772999587592</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.622101654744799</v>
+        <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.706881256898736</v>
+        <v>0.6</v>
       </c>
       <c r="G3" t="n">
-        <v>0.699228862448248</v>
+        <v>0.4</v>
       </c>
       <c r="H3" t="n">
-        <v>0.658500586296013</v>
+        <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0.665804066558109</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.420104611305175</v>
+        <v>0.4</v>
       </c>
       <c r="K3" t="n">
-        <v>0.550394111458431</v>
+        <v>0.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0.756622372880961</v>
+        <v>0.8</v>
       </c>
       <c r="M3" t="n">
-        <v>0.816920760799125</v>
+        <v>0.4</v>
       </c>
       <c r="N3" t="n">
-        <v>0.57421952327369</v>
+        <v>0.7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.701539116816613</v>
+        <v>0.2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.721220700610068</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.703415187125182</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.759706650286704</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.575101001313061</v>
+        <v>0.3</v>
       </c>
       <c r="H4" t="n">
-        <v>0.731116681894394</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.683377424047149</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.659704988708263</v>
+        <v>0.1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.759539408850822</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.690381293922693</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.721853509181885</v>
+        <v>0.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.618731104894089</v>
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.780310385878786</v>
+        <v>0.3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.767261516731427</v>
+        <v>0.3</v>
       </c>
       <c r="E5" t="n">
-        <v>0.757541746745335</v>
+        <v>0.7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.874984008964506</v>
+        <v>0.4</v>
       </c>
       <c r="G5" t="n">
-        <v>0.847206298409435</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0.842339547896952</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.65799487387268</v>
+        <v>0.3</v>
       </c>
       <c r="J5" t="n">
-        <v>0.656332785129309</v>
+        <v>0.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.703874631903231</v>
+        <v>0.6</v>
       </c>
       <c r="L5" t="n">
-        <v>0.777916745185535</v>
+        <v>0.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.92816201896394</v>
+        <v>0.2</v>
       </c>
       <c r="N5" t="n">
-        <v>0.562406199574745</v>
+        <v>0.6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.592122368373113</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.609896497471146</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="D6" t="n">
-        <v>0.432966587857026</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.623667021276442</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.765866950290479</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="G6" t="n">
-        <v>0.633729019702456</v>
+        <v>0.6</v>
       </c>
       <c r="H6" t="n">
-        <v>0.702512213956321</v>
+        <v>0.75</v>
       </c>
       <c r="I6" t="n">
-        <v>0.575699232924345</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="J6" t="n">
-        <v>0.53058178548063</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="K6" t="n">
-        <v>0.586217425103406</v>
+        <v>0.9</v>
       </c>
       <c r="L6" t="n">
-        <v>0.573818682809178</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>0.887006592651732</v>
+        <v>0.8</v>
       </c>
       <c r="N6" t="n">
-        <v>0.554098197443099</v>
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -59,22 +59,47 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">Latent support
-for global redistribution (standardized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between share of plausible
-policies supported and opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio of share of plausible policies
-supported over supported or opposed</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports int'l tax on millionaires
+with 30% funding LICs (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -458,46 +483,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118072592422114</v>
+        <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0498367465468193</v>
+        <v>0.582213755593942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0900466965070292</v>
+        <v>0.644575228658036</v>
       </c>
       <c r="E2" t="n">
-        <v>0.773249073043927</v>
+        <v>0.800284739031995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.169433490463815</v>
+        <v>0.642550167034555</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.398894953418106</v>
+        <v>0.469492339511511</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.323601595472413</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0450127982223677</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.129567448417396</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570613442792331</v>
+        <v>0.880240645828153</v>
       </c>
       <c r="L2" t="n">
-        <v>0.703893156336886</v>
+        <v>0.909247309965247</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.108149019641461</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="N2" t="n">
-        <v>0.538844686201452</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.544785197190979</v>
+        <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
@@ -505,46 +530,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.452808231861887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.608336262307662</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.7742661541532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.599498572230777</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.458263840559057</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7</v>
+        <v>0.846428606188793</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8</v>
+        <v>0.851579637309937</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3</v>
+        <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
@@ -552,46 +577,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.579787314673126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.667007243291184</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.846305654167647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.708488851215913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3</v>
+        <v>0.545881515572153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.87796797988428</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.911224469217849</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3</v>
+        <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
@@ -599,46 +624,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.426801076374466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.723594997027424</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>0.889579981493869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4</v>
+        <v>0.682683457496027</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0.589211476424677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0.678172368299312</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6</v>
+        <v>0.830395038048113</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7</v>
+        <v>0.831456137791045</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
@@ -646,46 +671,361 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.777777777777778</v>
+        <v>0.393016824439431</v>
       </c>
       <c r="D6" t="n">
-        <v>0.833333333333333</v>
+        <v>0.583987178202389</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.75</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.857142857142857</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.777777777777778</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0.743498584988873</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5</v>
+        <v>0.373993319775201</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.503247309719211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.316231358914818</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.513014491525721</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.71931115965366</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.495264748486105</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.440316456384772</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.34215953895184</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.455068700122256</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.306824263084082</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.671355992475847</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.73716679715381</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.455679906453223</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.566496834134014</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.339067925103543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.680815013747804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.616668833076667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.680987204503282</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.831184500933943</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.695788344040076</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.538162773640089</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.743644347389163</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.814701212857562</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.757048871605567</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.721853509181885</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.703520370125625</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.671270631778761</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.776836935461012</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.425661149175785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.704960018034767</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.501381130731594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.787483813023996</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.876770446811719</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.74609538238357</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.664878143534609</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7335602187152</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.725922165695082</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.685126203737904</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.92816201896394</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.938466265662205</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.688883535477258</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.68963486840272</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.436451458600216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.675595447215337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.523930159271177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.709363981944143</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.892471876813608</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.637051467662211</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.578161277543308</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.433349195600366</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.696851480613757</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.583790255087382</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.729122438104651</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.741985444624183</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.641824096726743</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.834461320073758</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.474126518973143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.364717906507653</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.301242387158432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.347757564445013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.612564469882184</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.329076922032927</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.266032348749018</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.163327499246366</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.313179598308858</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.218483573122562</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11" t="n">
+        <v>0.283095421815601</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.52122515690493</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.27084855688435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.347853243460036</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.262527011404327</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.393011358029993</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.540846531529226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.30076097129752</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.236110214107178</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12" t="n">
+        <v>0.311745273790548</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.450524011973634</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.173904958357855</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.410629863862209</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.393225264575894</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.37990538035527</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.606618681027554</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.404741669455715</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.296470179474792</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.282669471326983</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.376571407830385</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.32600471502799</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.665815836537034</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.698489352155402</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.362475436951784</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.535384805366787</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.265617828927838</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,86 +20,58 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l climate scheme (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l tax on millionaires
-with 30% funding LICs (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent support
+for global redistribution (standardized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between share of plausible
+policies supported and opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of share of plausible policies
+supported over supported or opposed</t>
   </si>
 </sst>
 </file>
@@ -474,558 +446,225 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678255122017956</v>
+        <v>0.118266759376858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582213755593942</v>
+        <v>0.27483374700023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.644575228658036</v>
+        <v>0.570091796525703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>0.555677179146155</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>0.429169099523955</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>0.222911418354213</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686368170390751</v>
+        <v>0.232606439940633</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693214710621706</v>
+        <v>0.0625930589717066</v>
       </c>
       <c r="J2" t="n">
-        <v>0.701245337266761</v>
+        <v>0.176715138826425</v>
       </c>
       <c r="K2" t="n">
-        <v>0.880240645828153</v>
+        <v>0.0288229401824224</v>
       </c>
       <c r="L2" t="n">
-        <v>0.909247309965247</v>
+        <v>0.0910009593694564</v>
       </c>
       <c r="M2" t="n">
-        <v>0.636149633119223</v>
+        <v>0.0246363044895293</v>
       </c>
       <c r="N2" t="n">
-        <v>0.785390250556912</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.496956252308101</v>
+        <v>-0.180817852873774</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553746767090015</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452808231861887</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.608336262307662</v>
+        <v>0.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>0.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>0.6</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484321597862702</v>
+        <v>0.6</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612111541228833</v>
+        <v>0.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572331454255148</v>
+        <v>0.6</v>
       </c>
       <c r="K3" t="n">
-        <v>0.846428606188793</v>
+        <v>0.5</v>
       </c>
       <c r="L3" t="n">
-        <v>0.851579637309937</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536291385483281</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.579183059294616</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.352117596369122</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655683473250087</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579787314673126</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667007243291184</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613538232894647</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.74780131987402</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687363838387126</v>
+        <v>0.1</v>
       </c>
       <c r="K4" t="n">
-        <v>0.87796797988428</v>
+        <v>0.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.911224469217849</v>
+        <v>0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0.627010199560514</v>
+        <v>0.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75157471671655</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425288098957725</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704079856692946</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.426801076374466</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.723594997027424</v>
+        <v>0.6</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493869</v>
+        <v>0.6</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601842995962143</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736252789377503</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678172368299312</v>
+        <v>0.4</v>
       </c>
       <c r="K5" t="n">
-        <v>0.830395038048113</v>
+        <v>0.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0.831456137791045</v>
+        <v>0.3</v>
       </c>
       <c r="M5" t="n">
-        <v>0.685485640466168</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="n">
-        <v>0.793249457133825</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.496836260204527</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556565037682828</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393016824439431</v>
+        <v>0.875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.583987178202389</v>
+        <v>0.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356105750421195</v>
+        <v>0.875</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508432438341536</v>
+        <v>0.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451519556659133</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="K6" t="n">
-        <v>0.677827112481047</v>
+        <v>0.8</v>
       </c>
       <c r="L6" t="n">
-        <v>0.743498584988873</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="M6" t="n">
-        <v>0.503741905167505</v>
+        <v>0.75</v>
       </c>
       <c r="N6" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.373993319775201</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.503247309719211</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.316231358914818</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.513014491525721</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.71931115965366</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.495264748486105</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.440316456384772</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.34215953895184</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.455068700122256</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.306824263084082</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.671355992475847</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.73716679715381</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.455679906453223</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.339067925103543</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.680815013747804</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.616668833076667</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.680987204503282</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.831184500933943</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.695788344040076</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.538162773640089</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.743644347389163</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.814701212857562</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.757048871605567</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.721853509181885</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.703520370125625</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.671270631778761</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.425661149175785</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.704960018034767</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.501381130731594</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.787483813023996</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.876770446811719</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.74609538238357</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.664878143534609</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.7335602187152</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.725922165695082</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.685126203737904</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.92816201896394</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.938466265662205</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.688883535477258</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.436451458600216</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.675595447215337</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.523930159271177</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.709363981944143</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.892471876813608</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.637051467662211</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.578161277543308</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.433349195600366</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.696851480613757</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.583790255087382</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.729122438104651</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.741985444624183</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.641824096726743</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.474126518973143</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.364717906507653</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.301242387158432</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.347757564445013</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.612564469882184</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.329076922032927</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.266032348749018</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.163327499246366</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.313179598308858</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.218483573122562</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11" t="n">
-        <v>0.283095421815601</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.27084855688435</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.347853243460036</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.262527011404327</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.393011358029993</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.540846531529226</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.236110214107178</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
-      <c r="K12"/>
-      <c r="L12"/>
-      <c r="M12" t="n">
-        <v>0.311745273790548</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.173904958357855</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.410629863862209</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.393225264575894</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.37990538035527</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.606618681027554</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.404741669455715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.296470179474792</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.282669471326983</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.376571407830385</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.32600471502799</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.665815836537034</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.698489352155402</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.362475436951784</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.265617828927838</v>
+        <v>0.777777777777778</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -23,55 +23,67 @@
     <t xml:space="preserve">$ bold('Europe')</t>
   </si>
   <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latent support
-for global redistribution (standardized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between share of plausible
-policies supported and opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio of share of plausible policies
-supported over supported or opposed</t>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -452,43 +464,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118266759376858</v>
+        <v>0.241205184312405</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27483374700023</v>
+        <v>0.237490071485306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.570091796525703</v>
+        <v>0.243781094527363</v>
       </c>
       <c r="E2" t="n">
-        <v>0.555677179146155</v>
+        <v>0.242201834862385</v>
       </c>
       <c r="F2" t="n">
-        <v>0.429169099523955</v>
+        <v>0.145118733509235</v>
       </c>
       <c r="G2" t="n">
-        <v>0.222911418354213</v>
+        <v>0.219512195121951</v>
       </c>
       <c r="H2" t="n">
-        <v>0.232606439940633</v>
+        <v>0.218354430379747</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0625930589717066</v>
+        <v>0.277777777777778</v>
       </c>
       <c r="J2" t="n">
-        <v>0.176715138826425</v>
+        <v>0.341880341880342</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0288229401824224</v>
+        <v>0.2</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0910009593694564</v>
+        <v>0.204545454545455</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0246363044895293</v>
+        <v>0.157446808510638</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.180817852873774</v>
+        <v>0.315463917525773</v>
       </c>
     </row>
     <row r="3">
@@ -496,43 +508,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.281590234246123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.295729250604351</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.252525252525253</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7</v>
+        <v>0.312127236580517</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0.254641909814324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6</v>
+        <v>0.240157480314961</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6</v>
+        <v>0.289198606271777</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.267441860465116</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6</v>
+        <v>0.519148936170213</v>
       </c>
       <c r="K3" t="n">
-        <v>0.5</v>
+        <v>0.284466019417476</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.197894736842105</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5</v>
+        <v>0.145283018867925</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4</v>
+        <v>0.329449838187702</v>
       </c>
     </row>
     <row r="4">
@@ -540,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.111111111111111</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -584,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.279180423383181</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.22951582867784</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.231611893583725</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6</v>
+        <v>0.246376811594203</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5</v>
+        <v>0.12778603268945</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5</v>
+        <v>0.156043956043956</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.158790170132325</v>
       </c>
       <c r="I5" t="n">
-        <v>0.333333333333333</v>
+        <v>0.340974212034384</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4</v>
+        <v>0.340740740740741</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3</v>
+        <v>0.298397040690506</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3</v>
+        <v>0.231768231768232</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>0.0743801652892562</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2</v>
+        <v>0.438388625592417</v>
       </c>
     </row>
     <row r="6">
@@ -628,43 +640,159 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.888888888888889</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.857142857142857</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.833333333333333</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.833333333333333</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L6"/>
       <c r="M6" t="n">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0.777777777777778</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1704</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.171679197994987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.157442748091603</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.111111111111111</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.166</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.129353233830846</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.174334140435835</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.232409381663113</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.1765</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" t="n">
+        <v>0.183666666666667</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.414450291565922</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.384271892830563</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.422305764411028</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.425572519083969</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.247354497354497</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="n">
+        <v>0.386401326699834</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.418886198547215</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.268977585201233</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2838</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.422305764411028</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.270038167938931</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.16005291005291</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.203980099502488</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.328087167070218</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.345415778251599</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.297702297702298</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.322333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -20,61 +20,60 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
+    <t xml:space="preserve">$ bold('Europe')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi citizens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latent support
-for global redistribution (standardized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between share of plausible
-policies supported and opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio of share of plausible policies
-supported over supported or opposed</t>
+    <t xml:space="preserve">USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of fellow citizens affected by top 1% tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of GDP transferred abroad in top 1% tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of fellow citizens affected by top 3% tax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of GDP transferred abroad in top 3% tax</t>
   </si>
 </sst>
 </file>
@@ -449,243 +448,269 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118266759376858</v>
+        <v>0.245412103741306</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0500365083534178</v>
+        <v>0.229733730195768</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0898747801425915</v>
+        <v>0.247924142470634</v>
       </c>
       <c r="E2" t="n">
-        <v>0.773046940540996</v>
+        <v>0.238142009469067</v>
       </c>
       <c r="F2" t="n">
-        <v>0.169379849461424</v>
+        <v>0.143059479651997</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.398910531419891</v>
+        <v>0.217759808476751</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.323633203048968</v>
+        <v>0.228800388151237</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0447560739024471</v>
+        <v>0.271569064568047</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.129806726007518</v>
+        <v>0.348020929777486</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570091796525703</v>
+        <v>0.195364903919637</v>
       </c>
       <c r="L2" t="n">
-        <v>0.703817607112367</v>
+        <v>0.195245846345785</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.108130951189116</v>
+        <v>0.151475972013406</v>
       </c>
       <c r="N2" t="n">
-        <v>0.538430729599699</v>
-      </c>
-      <c r="O2" t="n">
-        <v>-0.545033936855826</v>
+        <v>0.308420535787809</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.0480768816457684</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.02852787093506</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8</v>
+        <v>0.04</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.02</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4</v>
+        <v>0.02</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5</v>
+        <v>0.04</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7</v>
+        <v>0.04</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
       <c r="N3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.3</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.01996694788084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2</v>
+        <v>0.0122599357880939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3</v>
+        <v>0.01</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.281236083230862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3</v>
+        <v>0.281518536195659</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3</v>
+        <v>0.253607080882867</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7</v>
+        <v>0.320972713411269</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4</v>
+        <v>0.249981556506401</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1</v>
+        <v>0.2356708529277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.294159408870184</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3</v>
+        <v>0.272340441194078</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2</v>
+        <v>0.497083662868131</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6</v>
+        <v>0.286766411013822</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7</v>
+        <v>0.192189650223197</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.150456874440543</v>
       </c>
       <c r="N5" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>0.331670856933351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.105924471185012</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.0633468330019907</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.857142857142857</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="N6" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.5</v>
+      <c r="B7" t="n">
+        <v>0.0536797711265189</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.0315155900509169</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,24 +56,34 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
 (Additional 15% tax on income over [$120k/year in PPP])</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of fellow citizens affected by top 1% tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of GDP transferred abroad in top 1% tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
 (Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of fellow citizens affected by top 3% tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of GDP transferred abroad in top 3% tax</t>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accepts reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -454,43 +464,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.245412103741306</v>
+        <v>0.692894784662911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.229733730195768</v>
+        <v>0.709953011533533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.247924142470634</v>
+        <v>0.694020071682012</v>
       </c>
       <c r="E2" t="n">
-        <v>0.238142009469067</v>
+        <v>0.716874917652575</v>
       </c>
       <c r="F2" t="n">
-        <v>0.143059479651997</v>
+        <v>0.817931401759025</v>
       </c>
       <c r="G2" t="n">
-        <v>0.217759808476751</v>
+        <v>0.688331328542526</v>
       </c>
       <c r="H2" t="n">
-        <v>0.228800388151237</v>
+        <v>0.727696489623426</v>
       </c>
       <c r="I2" t="n">
-        <v>0.271569064568047</v>
+        <v>0.680287179370093</v>
       </c>
       <c r="J2" t="n">
-        <v>0.348020929777486</v>
+        <v>0.611054424765204</v>
       </c>
       <c r="K2" t="n">
-        <v>0.195364903919637</v>
+        <v>0.667587247975338</v>
       </c>
       <c r="L2" t="n">
-        <v>0.195245846345785</v>
+        <v>0.734266953673365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.151475972013406</v>
+        <v>0.816793423425975</v>
       </c>
       <c r="N2" t="n">
-        <v>0.308420535787809</v>
+        <v>0.613078913946868</v>
       </c>
     </row>
     <row r="3">
@@ -498,43 +508,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0480768816457684</v>
+        <v>0.648431801604668</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02852787093506</v>
+        <v>0.654418197725284</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02</v>
+        <v>0.69867423579194</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04</v>
+        <v>0.631062611744521</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.71347266445345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.02</v>
+        <v>0.698563809102872</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.668248725994209</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04</v>
+        <v>0.688695322348303</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04</v>
+        <v>0.412823621757237</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04</v>
+        <v>0.548789112211414</v>
       </c>
       <c r="L3" t="n">
-        <v>0.02</v>
+        <v>0.745575769472929</v>
       </c>
       <c r="M3" t="n">
-        <v>0.11</v>
+        <v>0.820236659115239</v>
       </c>
       <c r="N3" t="n">
-        <v>0.08</v>
+        <v>0.587193769163202</v>
       </c>
     </row>
     <row r="4">
@@ -542,43 +552,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01996694788084</v>
+        <v>0.664778686805119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0122599357880939</v>
+        <v>0.680960854092527</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01</v>
+        <v>0.701612903225806</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02</v>
+        <v>0.683610867659947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01</v>
+        <v>0.728285077951002</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01</v>
+        <v>0.568822553897181</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0.726299694189602</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01</v>
+        <v>0.667752442996743</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01</v>
+        <v>0.65607476635514</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01</v>
+        <v>0.706269349845201</v>
       </c>
       <c r="L4" t="n">
-        <v>0.02</v>
+        <v>0.685934489402698</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05</v>
+        <v>0.668763102725367</v>
       </c>
       <c r="N4" t="n">
-        <v>0.03</v>
+        <v>0.602535832414553</v>
       </c>
     </row>
     <row r="5">
@@ -586,43 +596,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.281236083230862</v>
+        <v>0.705793226381462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.281518536195659</v>
+        <v>0.7602300376023</v>
       </c>
       <c r="D5" t="n">
-        <v>0.253607080882867</v>
+        <v>0.762917933130699</v>
       </c>
       <c r="E5" t="n">
-        <v>0.320972713411269</v>
+        <v>0.740149094781683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.249981556506401</v>
+        <v>0.856145251396648</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2356708529277</v>
+        <v>0.825301204819277</v>
       </c>
       <c r="H5" t="n">
-        <v>0.294159408870184</v>
+        <v>0.830601092896175</v>
       </c>
       <c r="I5" t="n">
-        <v>0.272340441194078</v>
+        <v>0.652413793103448</v>
       </c>
       <c r="J5" t="n">
-        <v>0.497083662868131</v>
+        <v>0.658256880733945</v>
       </c>
       <c r="K5" t="n">
-        <v>0.286766411013822</v>
+        <v>0.663065843621399</v>
       </c>
       <c r="L5" t="n">
-        <v>0.192189650223197</v>
+        <v>0.765895953757225</v>
       </c>
       <c r="M5" t="n">
-        <v>0.150456874440543</v>
+        <v>0.917480998914224</v>
       </c>
       <c r="N5" t="n">
-        <v>0.331670856933351</v>
+        <v>0.555436337625179</v>
       </c>
     </row>
     <row r="6">
@@ -630,43 +640,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.105924471185012</v>
+        <v>0.611777124330845</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0633468330019907</v>
+        <v>0.672953736654804</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05</v>
+        <v>0.668202764976959</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1</v>
+        <v>0.670464504820333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05</v>
+        <v>0.736080178173719</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04</v>
+        <v>0.648424543946932</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05</v>
+        <v>0.723241590214067</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05</v>
+        <v>0.642779587404995</v>
       </c>
       <c r="J6" t="n">
-        <v>0.18</v>
+        <v>0.598130841121495</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1</v>
+        <v>0.506191950464396</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04</v>
+        <v>0.506191950464396</v>
       </c>
       <c r="M6" t="n">
-        <v>0.16</v>
+        <v>0.560447239692523</v>
       </c>
       <c r="N6" t="n">
-        <v>0.18</v>
+        <v>0.612458654906284</v>
       </c>
     </row>
     <row r="7">
@@ -674,43 +684,117 @@
         <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0536797711265189</v>
+        <v>0.664188137644821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0315155900509169</v>
+        <v>0.711714770797963</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02</v>
+        <v>0.710578842315369</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04</v>
+        <v>0.705192629815745</v>
       </c>
       <c r="F7" t="n">
-        <v>0.03</v>
+        <v>0.801272507913065</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04</v>
+        <v>0.646090534979424</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03</v>
+        <v>0.769662921348315</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03</v>
+        <v>0.693877551020408</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03</v>
+        <v>0.58695652173913</v>
       </c>
       <c r="K7" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.12</v>
-      </c>
+        <v>0.515331355093966</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
       <c r="N7" t="n">
-        <v>0.08</v>
+        <v>0.669950738916256</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.461188014718766</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.502795031055901</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.436893203883495</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.442563482466747</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.685958024097665</v>
+      </c>
+      <c r="G8"/>
+      <c r="H8" t="n">
+        <v>0.511201629327902</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.461068702290076</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" t="n">
+        <v>0.407318053880177</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.622476446837147</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.612353567625133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.441176470588235</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.62962962962963</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.771253333873262</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.641833810888252</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.712018140589569</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.584084084084084</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.532786885245902</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.601431980906921</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.577994428969359</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.882267286664075</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.571005917159763</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -56,34 +56,22 @@
     <t xml:space="preserve">USA</t>
   </si>
   <si>
-    <t xml:space="preserve">Accepts tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepts tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Accepts reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Latent support
+for global redistribution (standardized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies supported</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of plausible global policies opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Difference between share of plausible
+policies supported and opposed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio of share of plausible policies
+supported over supported or opposed</t>
   </si>
 </sst>
 </file>
@@ -464,43 +452,43 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.692894784662911</v>
+        <v>0.118266759376858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.709953011533533</v>
+        <v>0.27483374700023</v>
       </c>
       <c r="D2" t="n">
-        <v>0.694020071682012</v>
+        <v>0.176715138826425</v>
       </c>
       <c r="E2" t="n">
-        <v>0.716874917652575</v>
+        <v>0.222911418354213</v>
       </c>
       <c r="F2" t="n">
-        <v>0.817931401759025</v>
+        <v>0.555677179146155</v>
       </c>
       <c r="G2" t="n">
-        <v>0.688331328542526</v>
+        <v>0.0288229401824224</v>
       </c>
       <c r="H2" t="n">
-        <v>0.727696489623426</v>
+        <v>0.429169099523955</v>
       </c>
       <c r="I2" t="n">
-        <v>0.680287179370093</v>
+        <v>0.232606439940633</v>
       </c>
       <c r="J2" t="n">
-        <v>0.611054424765204</v>
+        <v>0.0246363044895293</v>
       </c>
       <c r="K2" t="n">
-        <v>0.667587247975338</v>
+        <v>-0.180817852873774</v>
       </c>
       <c r="L2" t="n">
-        <v>0.734266953673365</v>
+        <v>0.0625930589717066</v>
       </c>
       <c r="M2" t="n">
-        <v>0.816793423425975</v>
+        <v>0.570091796525703</v>
       </c>
       <c r="N2" t="n">
-        <v>0.613078913946868</v>
+        <v>0.0910009593694564</v>
       </c>
     </row>
     <row r="3">
@@ -508,43 +496,43 @@
         <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.648431801604668</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
-        <v>0.654418197725284</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.69867423579194</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>0.631062611744521</v>
+        <v>0.6</v>
       </c>
       <c r="F3" t="n">
-        <v>0.71347266445345</v>
+        <v>0.7</v>
       </c>
       <c r="G3" t="n">
-        <v>0.698563809102872</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
-        <v>0.668248725994209</v>
+        <v>0.7</v>
       </c>
       <c r="I3" t="n">
-        <v>0.688695322348303</v>
+        <v>0.6</v>
       </c>
       <c r="J3" t="n">
-        <v>0.412823621757237</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.548789112211414</v>
+        <v>0.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0.745575769472929</v>
+        <v>0.5</v>
       </c>
       <c r="M3" t="n">
-        <v>0.820236659115239</v>
+        <v>0.7</v>
       </c>
       <c r="N3" t="n">
-        <v>0.587193769163202</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -552,43 +540,43 @@
         <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.664778686805119</v>
+        <v>0.1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.680960854092527</v>
+        <v>0.1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.701612903225806</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.683610867659947</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.728285077951002</v>
+        <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>0.568822553897181</v>
+        <v>0.1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.726299694189602</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.667752442996743</v>
+        <v>0.1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.65607476635514</v>
+        <v>0.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.706269349845201</v>
+        <v>0.1</v>
       </c>
       <c r="L4" t="n">
-        <v>0.685934489402698</v>
+        <v>0.111111111111111</v>
       </c>
       <c r="M4" t="n">
-        <v>0.668763102725367</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.602535832414553</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5">
@@ -596,43 +584,43 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.705793226381462</v>
+        <v>0.4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7602300376023</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.762917933130699</v>
+        <v>0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.740149094781683</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.856145251396648</v>
+        <v>0.6</v>
       </c>
       <c r="G5" t="n">
-        <v>0.825301204819277</v>
+        <v>0.3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.830601092896175</v>
+        <v>0.5</v>
       </c>
       <c r="I5" t="n">
-        <v>0.652413793103448</v>
+        <v>0.5</v>
       </c>
       <c r="J5" t="n">
-        <v>0.658256880733945</v>
+        <v>0.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.663065843621399</v>
+        <v>0.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0.765895953757225</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="M5" t="n">
-        <v>0.917480998914224</v>
+        <v>0.6</v>
       </c>
       <c r="N5" t="n">
-        <v>0.555436337625179</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
@@ -640,161 +628,43 @@
         <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.611777124330845</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="C6" t="n">
-        <v>0.672953736654804</v>
+        <v>0.875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.668202764976959</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="E6" t="n">
-        <v>0.670464504820333</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="F6" t="n">
-        <v>0.736080178173719</v>
+        <v>0.9</v>
       </c>
       <c r="G6" t="n">
-        <v>0.648424543946932</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
-        <v>0.723241590214067</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="I6" t="n">
-        <v>0.642779587404995</v>
+        <v>0.875</v>
       </c>
       <c r="J6" t="n">
-        <v>0.598130841121495</v>
+        <v>0.75</v>
       </c>
       <c r="K6" t="n">
-        <v>0.506191950464396</v>
+        <v>0.777777777777778</v>
       </c>
       <c r="L6" t="n">
-        <v>0.506191950464396</v>
+        <v>0.8</v>
       </c>
       <c r="M6" t="n">
-        <v>0.560447239692523</v>
+        <v>0.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.612458654906284</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.664188137644821</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.711714770797963</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.710578842315369</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.705192629815745</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.801272507913065</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.646090534979424</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.769662921348315</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.693877551020408</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.58695652173913</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.515331355093966</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" t="n">
-        <v>0.669950738916256</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.461188014718766</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.502795031055901</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.436893203883495</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.442563482466747</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.685958024097665</v>
-      </c>
-      <c r="G8"/>
-      <c r="H8" t="n">
-        <v>0.511201629327902</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.461068702290076</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8" t="n">
-        <v>0.407318053880177</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.622476446837147</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.612353567625133</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.441176470588235</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.62962962962963</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.771253333873262</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.641833810888252</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.712018140589569</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.584084084084084</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.532786885245902</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.601431980906921</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.577994428969359</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.882267286664075</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.571005917159763</v>
+        <v>0.833333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,44 +20,51 @@
     <t xml:space="preserve">$ bold('All')</t>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('Europe')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
+    <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan Center/Right</t>
   </si>
   <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
-    <t xml:space="preserve">USA</t>
+    <t xml:space="preserve">Saudi citizens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Harris</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
     <t xml:space="preserve">Latent support
 for global redistribution (standardized)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latent support
+for global redistribution (MIRT)</t>
   </si>
   <si>
     <t xml:space="preserve">Share of plausible global policies supported</t>
@@ -446,225 +453,290 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.118266759376858</v>
       </c>
       <c r="C2" t="n">
-        <v>0.27483374700023</v>
+        <v>-0.0500365083534178</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176715138826425</v>
+        <v>0.0920987382434046</v>
       </c>
       <c r="E2" t="n">
-        <v>0.222911418354213</v>
+        <v>0.773046940540996</v>
       </c>
       <c r="F2" t="n">
-        <v>0.555677179146155</v>
+        <v>0.169379849461424</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0288229401824224</v>
+        <v>-0.398910531419891</v>
       </c>
       <c r="H2" t="n">
-        <v>0.429169099523955</v>
+        <v>-0.323633203048968</v>
       </c>
       <c r="I2" t="n">
-        <v>0.232606439940633</v>
+        <v>0.0447560739024471</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0246363044895293</v>
+        <v>-0.129806726007518</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.180817852873774</v>
+        <v>0.570091796525703</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0625930589717066</v>
+        <v>0.703817607112367</v>
       </c>
       <c r="M2" t="n">
-        <v>0.570091796525703</v>
+        <v>-0.108130951189116</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0910009593694564</v>
+        <v>0.538430729599699</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-0.545033936855826</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0.00873981537119088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>-0.100479992631669</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.00883339647141292</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6</v>
+        <v>0.599686806822273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7</v>
+        <v>0.0075114131866649</v>
       </c>
       <c r="G3" t="n">
-        <v>0.5</v>
+        <v>-0.402952937993183</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7</v>
+        <v>-0.384486330197404</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6</v>
+        <v>-0.0782463899577811</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5</v>
+        <v>-0.212501208479425</v>
       </c>
       <c r="K3" t="n">
-        <v>0.4</v>
+        <v>0.419772564177092</v>
       </c>
       <c r="L3" t="n">
-        <v>0.5</v>
+        <v>0.538998748956507</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>-0.175330645756186</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5</v>
+        <v>0.360259817405402</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-0.541046437014394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="L4" t="n">
-        <v>0.111111111111111</v>
+        <v>0.8</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
         <v>0.3</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.333333333333333</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="n">
         <v>0.857142857142857</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C7" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.857142857142857</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.857142857142857</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.777777777777778</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.9</v>
       </c>
-      <c r="G6" t="n">
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.8</v>
       </c>
-      <c r="H6" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.777777777777778</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.833333333333333</v>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">$ bold('All')</t>
+    <t xml:space="preserve">All</t>
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
@@ -44,10 +44,10 @@
     <t xml:space="preserve">Japan Center/Right</t>
   </si>
   <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi citizens</t>
+    <t xml:space="preserve">U.S. Democratic State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U.S. Swing State</t>
   </si>
   <si>
     <t xml:space="preserve">U.S. Non-voters</t>
@@ -59,26 +59,47 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">Latent support
-for global redistribution (standardized)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latent support
-for global redistribution (MIRT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies supported</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of plausible global policies opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Difference between share of plausible
-policies supported and opposed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio of share of plausible policies
-supported over supported or opposed</t>
+    <t xml:space="preserve">Supports the National Climate Scheme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global climate scheme (GCS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports Int'l Climate Scheme (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports int'l tax on millionaires
+with 30% funding LICs (any variant)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
+(Additional 15% tax on income over [$120k/year in PPP])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
+(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prefers sustainable future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">More likely to vote for party if part of worldwide
+coalition for climate action and global redistribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supports reparations for colonization and slavery in
+the form of funding education and technology transfers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
   </si>
 </sst>
 </file>
@@ -462,46 +483,46 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.118266759376858</v>
+        <v>0.678255122017956</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0500365083534178</v>
+        <v>0.582213755593942</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0920987382434046</v>
+        <v>0.645494526768042</v>
       </c>
       <c r="E2" t="n">
-        <v>0.773046940540996</v>
+        <v>0.800284739031995</v>
       </c>
       <c r="F2" t="n">
-        <v>0.169379849461424</v>
+        <v>0.642550167034555</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.398910531419891</v>
+        <v>0.469492339511511</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.323633203048968</v>
+        <v>0.686368170390751</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0447560739024471</v>
+        <v>0.693214710621706</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.129806726007518</v>
+        <v>0.701245337266761</v>
       </c>
       <c r="K2" t="n">
-        <v>0.570091796525703</v>
+        <v>0.655038834308269</v>
       </c>
       <c r="L2" t="n">
-        <v>0.703817607112367</v>
+        <v>0.670469616314318</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.108130951189116</v>
+        <v>0.636149633119223</v>
       </c>
       <c r="N2" t="n">
-        <v>0.538430729599699</v>
+        <v>0.785390250556912</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.545033936855826</v>
+        <v>0.496956252308101</v>
       </c>
     </row>
     <row r="3">
@@ -509,46 +530,46 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00873981537119088</v>
+        <v>0.553746767090015</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.100479992631669</v>
+        <v>0.452808231861887</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00883339647141292</v>
+        <v>0.609015187485241</v>
       </c>
       <c r="E3" t="n">
-        <v>0.599686806822273</v>
+        <v>0.7742661541532</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0075114131866649</v>
+        <v>0.599498572230777</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.402952937993183</v>
+        <v>0.458263840559057</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.384486330197404</v>
+        <v>0.484321597862702</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.0782463899577811</v>
+        <v>0.612111541228833</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.212501208479425</v>
+        <v>0.572331454255148</v>
       </c>
       <c r="K3" t="n">
-        <v>0.419772564177092</v>
+        <v>0.519793089330563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.538998748956507</v>
+        <v>0.427238977314708</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.175330645756186</v>
+        <v>0.536291385483281</v>
       </c>
       <c r="N3" t="n">
-        <v>0.360259817405402</v>
+        <v>0.579183059294616</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.541046437014394</v>
+        <v>0.352117596369122</v>
       </c>
     </row>
     <row r="4">
@@ -556,46 +577,46 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5</v>
+        <v>0.655683473250087</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0.579787314673126</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5</v>
+        <v>0.667584465905187</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8</v>
+        <v>0.846305654167647</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6</v>
+        <v>0.708488851215913</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4</v>
+        <v>0.545881515572153</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2</v>
+        <v>0.613538232894647</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5</v>
+        <v>0.74780131987402</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4</v>
+        <v>0.687363838387126</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7</v>
+        <v>0.642613720738592</v>
       </c>
       <c r="L4" t="n">
-        <v>0.8</v>
+        <v>0.556998225262022</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4</v>
+        <v>0.627010199560514</v>
       </c>
       <c r="N4" t="n">
-        <v>0.7</v>
+        <v>0.75157471671655</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3</v>
+        <v>0.425288098957725</v>
       </c>
     </row>
     <row r="5">
@@ -603,46 +624,46 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1</v>
+        <v>0.704079856692946</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2</v>
+        <v>0.426801076374466</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.724074128225101</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.889579981493869</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1</v>
+        <v>0.682683457496027</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3</v>
+        <v>0.589211476424677</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1</v>
+        <v>0.601842995962143</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1</v>
+        <v>0.736252789377503</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1</v>
+        <v>0.678172368299312</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.682885934685859</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>0.636132856291932</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1</v>
+        <v>0.685485640466168</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.793249457133825</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3</v>
+        <v>0.496836260204527</v>
       </c>
     </row>
     <row r="6">
@@ -650,46 +671,46 @@
         <v>19</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3</v>
+        <v>0.393016824439431</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3</v>
+        <v>0.584715470382293</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="F6" t="n">
-        <v>0.4</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6</v>
+        <v>0.535251908690676</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7</v>
+        <v>0.476758540730456</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="N6" t="n">
-        <v>0.6</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>0.373993319775201</v>
       </c>
     </row>
     <row r="7">
@@ -697,46 +718,322 @@
         <v>20</v>
       </c>
       <c r="B7" t="n">
-        <v>0.857142857142857</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.777777777777778</v>
+        <v>0.316231358914818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.833333333333333</v>
+        <v>0.513850437188526</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.71931115965366</v>
       </c>
       <c r="F7" t="n">
-        <v>0.857142857142857</v>
+        <v>0.495264748486105</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6</v>
+        <v>0.440316456384772</v>
       </c>
       <c r="H7" t="n">
-        <v>0.75</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="I7" t="n">
-        <v>0.857142857142857</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="J7" t="n">
-        <v>0.777777777777778</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="K7" t="n">
-        <v>0.9</v>
+        <v>0.47817469415572</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>0.43506217467297</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5</v>
+        <v>0.339067925103543</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.680815013747804</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.616668833076667</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.680673282454082</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.831184500933943</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.695788344040076</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.538162773640089</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.743644347389163</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.814701212857562</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.757048871605567</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.673024184815142</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.611564962508487</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.671270631778761</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.776836935461012</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.425661149175785</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.704960018034767</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.501381130731594</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.787954017306878</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.876770446811719</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.74609538238357</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.664878143534609</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.7335602187152</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.725922165695082</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.685126203737904</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.577788249681758</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.539896049184444</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.688883535477258</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.68963486840272</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.436451458600216</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.675595447215337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.523930159271177</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.70986778173764</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.892471876813608</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.637051467662211</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.578161277543308</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.433349195600366</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.696851480613757</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.583790255087382</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.71920406264065</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6189512868848</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.641824096726743</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.834461320073758</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.474126518973143</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.364717906507653</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.301242387158432</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.348888186886583</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.612564469882184</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.329076922032927</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.266032348749018</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.163327499246366</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.313179598308858</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.218483573122562</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.404654417820348</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.36536832142909</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.283095421815601</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.52122515690493</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.27084855688435</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.347853243460036</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.262527011404327</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.394261110370281</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.540846531529226</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.30076097129752</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.236110214107178</v>
+      </c>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12" t="n">
+        <v>0.345632380582922</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.291155578085398</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.311745273790548</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.450524011973634</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.173904958357855</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.410629863862209</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.393225264575894</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.380980276520636</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.606618681027554</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.404741669455715</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.296470179474792</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.282669471326983</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.376571407830385</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.32600471502799</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.451312875643141</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.341314279087687</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.362475436951784</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.535384805366787</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.265617828927838</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -20,9 +20,6 @@
     <t xml:space="preserve">All</t>
   </si>
   <si>
-    <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
     <t xml:space="preserve">Europe Non-voters</t>
   </si>
   <si>
@@ -59,47 +56,85 @@
     <t xml:space="preserve">U.S. Trump</t>
   </si>
   <si>
-    <t xml:space="preserve">Supports the National Climate Scheme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global climate scheme (GCS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports Int'l Climate Scheme (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports int'l tax on millionaires
-with 30% funding LICs (any variant)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 1% to finance global poverty reduction
-(Additional 15% tax on income over [$120k/year in PPP])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports tax on world top 3% to finance global poverty reduction
-(Additional 15% tax over [$80k], 30% over [$120k], 45% over [$1M])</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prefers sustainable future</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have all countries
-converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
- and fund LICs (either petition, demonstrate, strike, or donate)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">More likely to vote for party if part of worldwide
-coalition for climate action and global redistribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supports reparations for colonization and slavery in
-the form of funding education and technology transfers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"My taxes should go towards solving global problems"</t>
+    <t xml:space="preserve">Money; own income; cost of living; inflation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relationships; love; emotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work; (un)employment; business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty; inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global poverty; hunger; global inequality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health; healthcare system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of immigration; national preference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption; criticism of the government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environment; climate change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Security; violence; crime; judicial system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discrimination; gender inequality; racism; LGBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rights; democracy; freedom; slavery</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happiness; peace of mind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">War; peace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tax system; welfare benefits; public services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criticism of far right; Trump; tariffs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social division; fake news; (social) media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal welfare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion; sin; God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old age; retirement; ageing society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family; children; childcare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International issues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Own country referred</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other topic; unclear; vague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nothing; don't know; empty</t>
   </si>
 </sst>
 </file>
@@ -474,566 +509,1193 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>0.678255122017956</v>
+        <v>0.187552845295846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.582213755593942</v>
+        <v>0.17967245633886</v>
       </c>
       <c r="D2" t="n">
-        <v>0.645494526768042</v>
+        <v>0.153875629821754</v>
       </c>
       <c r="E2" t="n">
-        <v>0.800284739031995</v>
+        <v>0.127986847312746</v>
       </c>
       <c r="F2" t="n">
-        <v>0.642550167034555</v>
+        <v>0.165513982609257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.469492339511511</v>
+        <v>0.143216054764422</v>
       </c>
       <c r="H2" t="n">
-        <v>0.686368170390751</v>
+        <v>0.138588949552079</v>
       </c>
       <c r="I2" t="n">
-        <v>0.693214710621706</v>
+        <v>0.159392372295679</v>
       </c>
       <c r="J2" t="n">
-        <v>0.701245337266761</v>
+        <v>0.20009895132481</v>
       </c>
       <c r="K2" t="n">
-        <v>0.655038834308269</v>
+        <v>0.266693005131397</v>
       </c>
       <c r="L2" t="n">
-        <v>0.670469616314318</v>
+        <v>0.212825807289575</v>
       </c>
       <c r="M2" t="n">
-        <v>0.636149633119223</v>
+        <v>0.216913431635686</v>
       </c>
       <c r="N2" t="n">
-        <v>0.785390250556912</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.496956252308101</v>
+        <v>0.232532651303779</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.553746767090015</v>
+        <v>0.0217827057741238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.452808231861887</v>
+        <v>0.0177930633133334</v>
       </c>
       <c r="D3" t="n">
-        <v>0.609015187485241</v>
+        <v>0.0175268298747768</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7742661541532</v>
+        <v>0.0238681756146289</v>
       </c>
       <c r="F3" t="n">
-        <v>0.599498572230777</v>
+        <v>0.0182238340747605</v>
       </c>
       <c r="G3" t="n">
-        <v>0.458263840559057</v>
+        <v>0.00364405164945262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.484321597862702</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.612111541228833</v>
+        <v>0.00459463317274847</v>
       </c>
       <c r="J3" t="n">
-        <v>0.572331454255148</v>
+        <v>0.027327792090902</v>
       </c>
       <c r="K3" t="n">
-        <v>0.519793089330563</v>
+        <v>0.0390092190161621</v>
       </c>
       <c r="L3" t="n">
-        <v>0.427238977314708</v>
+        <v>0.0210169784343824</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536291385483281</v>
+        <v>0.0288273485228794</v>
       </c>
       <c r="N3" t="n">
-        <v>0.579183059294616</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.352117596369122</v>
+        <v>0.0309942519093738</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
-        <v>0.655683473250087</v>
+        <v>0.0384325784986486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.579787314673126</v>
+        <v>0.0450603155885524</v>
       </c>
       <c r="D4" t="n">
-        <v>0.667584465905187</v>
+        <v>0.0411971347275114</v>
       </c>
       <c r="E4" t="n">
-        <v>0.846305654167647</v>
+        <v>0.0349092400805941</v>
       </c>
       <c r="F4" t="n">
-        <v>0.708488851215913</v>
+        <v>0.0373318730629191</v>
       </c>
       <c r="G4" t="n">
-        <v>0.545881515572153</v>
+        <v>0.0105905092713472</v>
       </c>
       <c r="H4" t="n">
-        <v>0.613538232894647</v>
+        <v>0.0171601343428952</v>
       </c>
       <c r="I4" t="n">
-        <v>0.74780131987402</v>
+        <v>0.0197056205662353</v>
       </c>
       <c r="J4" t="n">
-        <v>0.687363838387126</v>
+        <v>0.0359210879804486</v>
       </c>
       <c r="K4" t="n">
-        <v>0.642613720738592</v>
+        <v>0.0270102209101513</v>
       </c>
       <c r="L4" t="n">
-        <v>0.556998225262022</v>
+        <v>0.0329450052843471</v>
       </c>
       <c r="M4" t="n">
-        <v>0.627010199560514</v>
+        <v>0.0353035484114443</v>
       </c>
       <c r="N4" t="n">
-        <v>0.75157471671655</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425288098957725</v>
+        <v>0.0422369965681927</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704079856692946</v>
+        <v>0.0636446067471898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.426801076374466</v>
+        <v>0.0623756703462495</v>
       </c>
       <c r="D5" t="n">
-        <v>0.724074128225101</v>
+        <v>0.132134040408759</v>
       </c>
       <c r="E5" t="n">
-        <v>0.889579981493869</v>
+        <v>0.0764659437232879</v>
       </c>
       <c r="F5" t="n">
-        <v>0.682683457496027</v>
+        <v>0.0728283707270959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.589211476424677</v>
+        <v>0.0537706013408442</v>
       </c>
       <c r="H5" t="n">
-        <v>0.601842995962143</v>
+        <v>0.0948302949633062</v>
       </c>
       <c r="I5" t="n">
-        <v>0.736252789377503</v>
+        <v>0.0591891578618695</v>
       </c>
       <c r="J5" t="n">
-        <v>0.678172368299312</v>
+        <v>0.047291425664651</v>
       </c>
       <c r="K5" t="n">
-        <v>0.682885934685859</v>
+        <v>0.0287715117083012</v>
       </c>
       <c r="L5" t="n">
-        <v>0.636132856291932</v>
+        <v>0.0515194322582429</v>
       </c>
       <c r="M5" t="n">
-        <v>0.685485640466168</v>
+        <v>0.0514902021971317</v>
       </c>
       <c r="N5" t="n">
-        <v>0.793249457133825</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.496836260204527</v>
+        <v>0.0247453900316079</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
-        <v>0.556565037682828</v>
+        <v>0.0104421356907805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.393016824439431</v>
+        <v>0.0112744424960867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.584715470382293</v>
+        <v>0.0259121149461225</v>
       </c>
       <c r="E6" t="n">
-        <v>0.809444964341555</v>
+        <v>0.0129416219248761</v>
       </c>
       <c r="F6" t="n">
-        <v>0.502893565174609</v>
+        <v>0.013195914690856</v>
       </c>
       <c r="G6" t="n">
-        <v>0.484386429576709</v>
+        <v>0.00175655909754143</v>
       </c>
       <c r="H6" t="n">
-        <v>0.356105750421195</v>
+        <v>0.00440779793085001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.508432438341536</v>
+        <v>0.00221448153876907</v>
       </c>
       <c r="J6" t="n">
-        <v>0.451519556659133</v>
+        <v>0.00993089496618328</v>
       </c>
       <c r="K6" t="n">
-        <v>0.535251908690676</v>
+        <v>0.0057358943475328</v>
       </c>
       <c r="L6" t="n">
-        <v>0.476758540730456</v>
+        <v>0.0131445816556643</v>
       </c>
       <c r="M6" t="n">
-        <v>0.503741905167505</v>
+        <v>0.00892579579814794</v>
       </c>
       <c r="N6" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.373993319775201</v>
+        <v>0.0076507942095912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
-        <v>0.503247309719211</v>
+        <v>0.116502627844642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.316231358914818</v>
+        <v>0.118231368365929</v>
       </c>
       <c r="D7" t="n">
-        <v>0.513850437188526</v>
+        <v>0.139473662602039</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71931115965366</v>
+        <v>0.159811547972776</v>
       </c>
       <c r="F7" t="n">
-        <v>0.495264748486105</v>
+        <v>0.123132833039967</v>
       </c>
       <c r="G7" t="n">
-        <v>0.440316456384772</v>
+        <v>0.0521185862965506</v>
       </c>
       <c r="H7" t="n">
-        <v>0.34215953895184</v>
+        <v>0.059352185070979</v>
       </c>
       <c r="I7" t="n">
-        <v>0.455068700122256</v>
+        <v>0.0703697341342703</v>
       </c>
       <c r="J7" t="n">
-        <v>0.306824263084082</v>
+        <v>0.103930175383618</v>
       </c>
       <c r="K7" t="n">
-        <v>0.47817469415572</v>
+        <v>0.116044681888784</v>
       </c>
       <c r="L7" t="n">
-        <v>0.43506217467297</v>
+        <v>0.0918251567459187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.455679906453223</v>
+        <v>0.119839144079503</v>
       </c>
       <c r="N7" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.339067925103543</v>
+        <v>0.119923668837647</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
-        <v>0.680815013747804</v>
+        <v>0.0356622264155928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.616668833076667</v>
+        <v>0.0311133136330861</v>
       </c>
       <c r="D8" t="n">
-        <v>0.680673282454082</v>
+        <v>0.0220214100782844</v>
       </c>
       <c r="E8" t="n">
-        <v>0.831184500933943</v>
+        <v>0.0530131635318719</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695788344040076</v>
+        <v>0.135617648413971</v>
       </c>
       <c r="G8" t="n">
-        <v>0.538162773640089</v>
+        <v>0.0142876191599508</v>
       </c>
       <c r="H8" t="n">
-        <v>0.743644347389163</v>
+        <v>0.0126563795706338</v>
       </c>
       <c r="I8" t="n">
-        <v>0.814701212857562</v>
+        <v>0.0112645872936579</v>
       </c>
       <c r="J8" t="n">
-        <v>0.757048871605567</v>
+        <v>0.0318180268702443</v>
       </c>
       <c r="K8" t="n">
-        <v>0.673024184815142</v>
+        <v>0.0365717936271773</v>
       </c>
       <c r="L8" t="n">
-        <v>0.611564962508487</v>
+        <v>0.0260439027388612</v>
       </c>
       <c r="M8" t="n">
-        <v>0.671270631778761</v>
+        <v>0.011381005753078</v>
       </c>
       <c r="N8" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.425661149175785</v>
+        <v>0.0719443837369372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
-        <v>0.704960018034767</v>
+        <v>0.0210176424079168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.501381130731594</v>
+        <v>0.0227945002228908</v>
       </c>
       <c r="D9" t="n">
-        <v>0.787954017306878</v>
+        <v>0.0175131545845403</v>
       </c>
       <c r="E9" t="n">
-        <v>0.876770446811719</v>
+        <v>0.0327294360217095</v>
       </c>
       <c r="F9" t="n">
-        <v>0.74609538238357</v>
+        <v>0.0427080109445928</v>
       </c>
       <c r="G9" t="n">
-        <v>0.664878143534609</v>
+        <v>0.0134164187109948</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7335602187152</v>
+        <v>0.0315316541751378</v>
       </c>
       <c r="I9" t="n">
-        <v>0.725922165695082</v>
+        <v>0.0124849826142572</v>
       </c>
       <c r="J9" t="n">
-        <v>0.685126203737904</v>
+        <v>0.0237424151093676</v>
       </c>
       <c r="K9" t="n">
-        <v>0.577788249681758</v>
+        <v>0.0137498652070257</v>
       </c>
       <c r="L9" t="n">
-        <v>0.539896049184444</v>
+        <v>0.0213116884222084</v>
       </c>
       <c r="M9" t="n">
-        <v>0.688883535477258</v>
+        <v>0.0217964677745271</v>
       </c>
       <c r="N9" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.436451458600216</v>
+        <v>0.0165392326574774</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
-        <v>0.675595447215337</v>
+        <v>0.0336704797711714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.523930159271177</v>
+        <v>0.0446036887884997</v>
       </c>
       <c r="D10" t="n">
-        <v>0.70986778173764</v>
+        <v>0.090021098005729</v>
       </c>
       <c r="E10" t="n">
-        <v>0.892471876813608</v>
+        <v>0.0331602139290037</v>
       </c>
       <c r="F10" t="n">
-        <v>0.637051467662211</v>
+        <v>0.0312338769043391</v>
       </c>
       <c r="G10" t="n">
-        <v>0.578161277543308</v>
+        <v>0.00733549111429861</v>
       </c>
       <c r="H10" t="n">
-        <v>0.433349195600366</v>
+        <v>0.0166810530273515</v>
       </c>
       <c r="I10" t="n">
-        <v>0.696851480613757</v>
+        <v>0.0112908201930176</v>
       </c>
       <c r="J10" t="n">
-        <v>0.583790255087382</v>
+        <v>0.0485854995237731</v>
       </c>
       <c r="K10" t="n">
-        <v>0.71920406264065</v>
+        <v>0.0220816617877947</v>
       </c>
       <c r="L10" t="n">
-        <v>0.6189512868848</v>
+        <v>0.0305998357192759</v>
       </c>
       <c r="M10" t="n">
-        <v>0.641824096726743</v>
+        <v>0.0451632969881874</v>
       </c>
       <c r="N10" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.474126518973143</v>
+        <v>0.0168292189295041</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>0.364717906507653</v>
+        <v>0.056716904840166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.301242387158432</v>
+        <v>0.0760773829582295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.348888186886583</v>
+        <v>0.0396825524847488</v>
       </c>
       <c r="E11" t="n">
-        <v>0.612564469882184</v>
+        <v>0.0660687891789714</v>
       </c>
       <c r="F11" t="n">
-        <v>0.329076922032927</v>
+        <v>0.104843228928482</v>
       </c>
       <c r="G11" t="n">
-        <v>0.266032348749018</v>
+        <v>0.014159722210974</v>
       </c>
       <c r="H11" t="n">
-        <v>0.163327499246366</v>
+        <v>0.025407633031505</v>
       </c>
       <c r="I11" t="n">
-        <v>0.313179598308858</v>
+        <v>0.0225669937363323</v>
       </c>
       <c r="J11" t="n">
-        <v>0.218483573122562</v>
+        <v>0.0708460094317157</v>
       </c>
       <c r="K11" t="n">
-        <v>0.404654417820348</v>
+        <v>0.0788431961023901</v>
       </c>
       <c r="L11" t="n">
-        <v>0.36536832142909</v>
+        <v>0.0572520575732079</v>
       </c>
       <c r="M11" t="n">
-        <v>0.283095421815601</v>
+        <v>0.0667788250673339</v>
       </c>
       <c r="N11" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.27084855688435</v>
+        <v>0.0969224639775969</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
-        <v>0.347853243460036</v>
+        <v>0.0342537576791034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.262527011404327</v>
+        <v>0.0285810321015984</v>
       </c>
       <c r="D12" t="n">
-        <v>0.394261110370281</v>
+        <v>0.0470858662461732</v>
       </c>
       <c r="E12" t="n">
-        <v>0.540846531529226</v>
+        <v>0.0234875506070802</v>
       </c>
       <c r="F12" t="n">
-        <v>0.30076097129752</v>
+        <v>0.0160411397592199</v>
       </c>
       <c r="G12" t="n">
-        <v>0.236110214107178</v>
-      </c>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
+        <v>0.0194311019273794</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.0429775745519105</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.0254791605741127</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.0593844826034282</v>
+      </c>
       <c r="K12" t="n">
-        <v>0.345632380582922</v>
+        <v>0.0503570096890786</v>
       </c>
       <c r="L12" t="n">
-        <v>0.291155578085398</v>
+        <v>0.0329699640193484</v>
       </c>
       <c r="M12" t="n">
-        <v>0.311745273790548</v>
+        <v>0.0727375725518122</v>
       </c>
       <c r="N12" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0.173904958357855</v>
+        <v>0.0409030160139469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0307977545020423</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.0229652582009926</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.0200129028080409</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0168783113845352</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0226455564837687</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0335529035723479</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.0277457946720766</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.0221778791209507</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0616809640253111</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.0524185495406972</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.031611327212343</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.078833731702319</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.0285317367841366</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.410629863862209</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.393225264575894</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.380980276520636</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.606618681027554</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.404741669455715</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.296470179474792</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.282669471326983</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.376571407830385</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.32600471502799</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.451312875643141</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.341314279087687</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0.362475436951784</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.265617828927838</v>
+      <c r="B14" t="n">
+        <v>0.0281522332945392</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.032137540406216</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.0317697001961927</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0327403650164673</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0274301731382448</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0135855509559719</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.00876850084494933</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.00900204311474215</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.0296857677140105</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.0298549846223802</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.0271406871056163</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.038002807952361</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.0248953590181786</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.0505784877157686</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.0628055413537351</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.0967229425870125</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.0990414024130997</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0712121167106187</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0192584165036926</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0298396309322474</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.0224825867351799</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.0318830868482533</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.0247236894039557</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.0436513647006541</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0224781683453838</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.034661747215317</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.0713439078565564</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.0699895179767085</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0580277915846193</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0905011121519962</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.0815087237826609</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.121805398789136</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.157615769948932</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.175388107421608</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.0581076370793526</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.0413870067639357</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.0766184838732736</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0532306876372394</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.0613112453361222</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.0428745196259142</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00660601396909005</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0390400262398602</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0301304181919601</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.00693353597231826</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0172973481272055</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0276950918922753</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.0370017676144449</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.118888909159326</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.0901804748665482</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.0207609587989337</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.178501670412073</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.0257431911670831</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.0119128883661543</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.0108267432678467</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00910906305666166</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.00733162622675163</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.00941870984238275</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.00195372983047388</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.00109415187211566</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.00634197286118563</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.0247129423575751</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.00916222029982776</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0122565526290867</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.0132203426441282</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.00522839227819404</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.0117827276945965</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.00791210424028141</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00696931396356029</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.00233134044136375</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.00187796442370032</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.00232809519149669</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.00117687336945847</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.0083680250719785</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.0103927736096965</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.00838768522850957</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.00438068849432101</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.00697151878682827</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.00713033521644372</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.00401878756234198</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.00130411986248161</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00362391579571163</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.00606540619868509</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.0020465434173719</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.00331841516852047</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.0156548926658945</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.0127158266762141</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.00885301411971321</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.00761810119093502</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.0161669732669478</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.0355800343396342</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.037041056054547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0352140699862055</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.0227572996299395</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0276238628093688</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.00336673726457029</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.00425068242081054</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00451370404502576</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.0363693325627407</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.0494105915240823</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.037657670264732</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0372105148892749</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.0366013542504806</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.0226486065467759</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0219436241984806</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0334965015105603</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0217370923941624</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0159382341263204</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0174452597953956</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0274563684382298</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.0187059990856162</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.0257826657436445</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.010891698227988</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.0132184396231086</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0231245316955561</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.0178255976895187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.0337267451643148</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0187688601812076</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0331118776639651</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0408351937094775</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0391179067574271</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0472349668800803</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.080082666400495</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.0792872078973072</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.0149814365549109</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.0208802004799376</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.0207020596899573</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0171470033252639</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.0226343109007845</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.0523198868477203</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.0518870173286886</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0458783712155574</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0459448422429217</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.049460801463327</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0519477209100818</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0368508463783393</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.0492931279576832</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.0458480911477213</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.0693976153354644</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.0520572845181971</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0503560560518663</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.0564802162801264</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0304715914718378</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0278769703125464</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0569905553494618</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.055721192826704</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0362999072156857</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0158282507886892</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.016962147316014</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01705215171168</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.0312619537203449</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.0294295890363419</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.0237618656863092</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.0213696967338295</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.029939355049211</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.0204093025768012</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.020921372999125</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0218724887691011</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0239991766430117</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0354684321564749</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.0050164473449444</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0150694415975138</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.0195528690339972</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.0109006438079286</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.025577976636821</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.0126278770118476</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.0173610557677197</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.0237839843333098</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.130903794941474</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.119330658632524</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0933655965983348</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.109691227663611</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0993467065095734</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.188531432418564</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.18235186615384</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.175527692314547</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.121180454975985</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.138369370370004</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.139224410731928</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.099343528161711</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.154837460297559</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.098119127133103</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.122381142760456</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0659061535282626</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0998109525574283</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.086408911531811</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.204788204456465</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.137447791358992</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.142539469790781</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.0799027110772461</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.0771106285434343</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.140238751016055</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0.0667408376975231</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.0742690113135692</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/.xlsx
+++ b/xlsx/country_comparison/.xlsx
@@ -17,43 +17,43 @@
     <t xml:space="preserve"/>
   </si>
   <si>
-    <t xml:space="preserve">All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Democratic State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Swing State</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Harris</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U.S. Trump</t>
+    <t xml:space="preserve">$ bold('All')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom 50% income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 50% income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top 20% income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millionaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self/parent born abroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tertiary diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tertiary diploma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cities urbanicity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age &lt; 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age 35-49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age &gt; 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man</t>
   </si>
   <si>
     <t xml:space="preserve">Money; own income; cost of living; inflation</t>
@@ -518,40 +518,40 @@
         <v>0.187552845295846</v>
       </c>
       <c r="C2" t="n">
-        <v>0.17967245633886</v>
+        <v>0.21394555999301</v>
       </c>
       <c r="D2" t="n">
-        <v>0.153875629821754</v>
+        <v>0.160751697821965</v>
       </c>
       <c r="E2" t="n">
-        <v>0.127986847312746</v>
+        <v>0.136363121120417</v>
       </c>
       <c r="F2" t="n">
-        <v>0.165513982609257</v>
+        <v>0.0804632015526064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.143216054764422</v>
+        <v>0.218093600923669</v>
       </c>
       <c r="H2" t="n">
-        <v>0.138588949552079</v>
+        <v>0.204446980837999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.159392372295679</v>
+        <v>0.165777985161215</v>
       </c>
       <c r="J2" t="n">
-        <v>0.20009895132481</v>
+        <v>0.187087006247199</v>
       </c>
       <c r="K2" t="n">
-        <v>0.266693005131397</v>
+        <v>0.217780817965931</v>
       </c>
       <c r="L2" t="n">
-        <v>0.212825807289575</v>
+        <v>0.211347637514973</v>
       </c>
       <c r="M2" t="n">
-        <v>0.216913431635686</v>
+        <v>0.158832660677207</v>
       </c>
       <c r="N2" t="n">
-        <v>0.232532651303779</v>
+        <v>0.173092663490765</v>
       </c>
     </row>
     <row r="3">
@@ -562,40 +562,40 @@
         <v>0.0217827057741238</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0177930633133334</v>
+        <v>0.0183489855088454</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0175268298747768</v>
+        <v>0.0254401365646231</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0238681756146289</v>
+        <v>0.0265669474525797</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0182238340747605</v>
+        <v>0.0459836816240211</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00364405164945262</v>
+        <v>0.0255631473706545</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.0241880079870832</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00459463317274847</v>
+        <v>0.0186825104940501</v>
       </c>
       <c r="J3" t="n">
-        <v>0.027327792090902</v>
+        <v>0.0208806603823765</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0390092190161621</v>
+        <v>0.0257846649010737</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0210169784343824</v>
+        <v>0.0229590628865904</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0288273485228794</v>
+        <v>0.01901986532909</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0309942519093738</v>
+        <v>0.0234015674864042</v>
       </c>
     </row>
     <row r="4">
@@ -606,40 +606,40 @@
         <v>0.0384325784986486</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0450603155885524</v>
+        <v>0.0424177920742743</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0411971347275114</v>
+        <v>0.0345200106305189</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0349092400805941</v>
+        <v>0.0316242257148579</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0373318730629191</v>
+        <v>0.0137354695327487</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0105905092713472</v>
+        <v>0.0435040431763274</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0171601343428952</v>
+        <v>0.038241617373012</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0197056205662353</v>
+        <v>0.0386787083933399</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0359210879804486</v>
+        <v>0.034377595373952</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0270102209101513</v>
+        <v>0.0578394099953217</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0329450052843471</v>
+        <v>0.0509676324020316</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0353035484114443</v>
+        <v>0.0214375461012557</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0422369965681927</v>
+        <v>0.0395546047977607</v>
       </c>
     </row>
     <row r="5">
@@ -650,40 +650,40 @@
         <v>0.0636446067471898</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0623756703462495</v>
+        <v>0.0661876007211189</v>
       </c>
       <c r="D5" t="n">
-        <v>0.132134040408759</v>
+        <v>0.0613891802868859</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0764659437232879</v>
+        <v>0.0587297364946812</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0728283707270959</v>
+        <v>0.0471323944226101</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0537706013408442</v>
+        <v>0.0620155252346721</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0948302949633062</v>
+        <v>0.0603191736901952</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0591891578618695</v>
+        <v>0.0679307591532992</v>
       </c>
       <c r="J5" t="n">
-        <v>0.047291425664651</v>
+        <v>0.0623310326850041</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0287715117083012</v>
+        <v>0.0626608842806648</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0515194322582429</v>
+        <v>0.0609375292971445</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0514902021971317</v>
+        <v>0.0655970709912567</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0247453900316079</v>
+        <v>0.0644080802873294</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +694,40 @@
         <v>0.0104421356907805</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0112744424960867</v>
+        <v>0.00831843198416093</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0259121149461225</v>
+        <v>0.012676098834491</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0129416219248761</v>
+        <v>0.0166544218353459</v>
       </c>
       <c r="F6" t="n">
-        <v>0.013195914690856</v>
+        <v>0.009631109890502</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00175655909754143</v>
+        <v>0.0107705199657614</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00440779793085001</v>
+        <v>0.00841631500296008</v>
       </c>
       <c r="I6" t="n">
-        <v>0.00221448153876907</v>
+        <v>0.0130532170346627</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00993089496618328</v>
+        <v>0.0106590132342445</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0057358943475328</v>
+        <v>0.0105638065460687</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0131445816556643</v>
+        <v>0.0104500595635118</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00892579579814794</v>
+        <v>0.0103727990875613</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0076507942095912</v>
+        <v>0.0110758658728064</v>
       </c>
     </row>
     <row r="7">
@@ -738,40 +738,40 @@
         <v>0.116502627844642</v>
       </c>
       <c r="C7" t="n">
-        <v>0.118231368365929</v>
+        <v>0.113856032952023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.139473662602039</v>
+        <v>0.119533120232675</v>
       </c>
       <c r="E7" t="n">
-        <v>0.159811547972776</v>
+        <v>0.124402521439847</v>
       </c>
       <c r="F7" t="n">
-        <v>0.123132833039967</v>
+        <v>0.147526310444249</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0521185862965506</v>
+        <v>0.109400366757533</v>
       </c>
       <c r="H7" t="n">
-        <v>0.059352185070979</v>
+        <v>0.113518437819807</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0703697341342703</v>
+        <v>0.120348951928157</v>
       </c>
       <c r="J7" t="n">
-        <v>0.103930175383618</v>
+        <v>0.103316856890962</v>
       </c>
       <c r="K7" t="n">
-        <v>0.116044681888784</v>
+        <v>0.0685563227993422</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0918251567459187</v>
+        <v>0.104142885898635</v>
       </c>
       <c r="M7" t="n">
-        <v>0.119839144079503</v>
+        <v>0.148690328924125</v>
       </c>
       <c r="N7" t="n">
-        <v>0.119923668837647</v>
+        <v>0.0992381368154273</v>
       </c>
     </row>
     <row r="8">
@@ -782,40 +782,40 @@
         <v>0.0356622264155928</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0311133136330861</v>
+        <v>0.0361756211513319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0220214100782844</v>
+        <v>0.035476327161253</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0530131635318719</v>
+        <v>0.0323138226695606</v>
       </c>
       <c r="F8" t="n">
-        <v>0.135617648413971</v>
+        <v>0.0630200065354662</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0142876191599508</v>
+        <v>0.0421808794639058</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0126563795706338</v>
+        <v>0.0375121485112482</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0112645872936579</v>
+        <v>0.0332778608591338</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0318180268702443</v>
+        <v>0.0331662040054984</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0365717936271773</v>
+        <v>0.0219593531789633</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0260439027388612</v>
+        <v>0.0340597584016369</v>
       </c>
       <c r="M8" t="n">
-        <v>0.011381005753078</v>
+        <v>0.043845021148958</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0719443837369372</v>
+        <v>0.0375503145443974</v>
       </c>
     </row>
     <row r="9">
@@ -826,40 +826,40 @@
         <v>0.0210176424079168</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0227945002228908</v>
+        <v>0.0190503758446179</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0175131545845403</v>
+        <v>0.0226048566694435</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0327294360217095</v>
+        <v>0.0264401684548622</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0427080109445928</v>
+        <v>0.0413680486349472</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0134164187109948</v>
+        <v>0.0168466922175446</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0315316541751378</v>
+        <v>0.0189409996143694</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0124849826142572</v>
+        <v>0.0236942283904465</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0237424151093676</v>
+        <v>0.0224457233634043</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0137498652070257</v>
+        <v>0.0136951676538087</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0213116884222084</v>
+        <v>0.017558128623029</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0217964677745271</v>
+        <v>0.0267612258057203</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0165392326574774</v>
+        <v>0.0241020507489241</v>
       </c>
     </row>
     <row r="10">
@@ -870,40 +870,40 @@
         <v>0.0336704797711714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0446036887884997</v>
+        <v>0.0262383387085761</v>
       </c>
       <c r="D10" t="n">
-        <v>0.090021098005729</v>
+        <v>0.0409455996193178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0331602139290037</v>
+        <v>0.0480090255005817</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0312338769043391</v>
+        <v>0.0452854975553902</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00733549111429861</v>
+        <v>0.0429551876912057</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0166810530273515</v>
+        <v>0.0264334398328104</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0112908201930176</v>
+        <v>0.0429983043321472</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0485854995237731</v>
+        <v>0.0346672153122852</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0220816617877947</v>
+        <v>0.0382803302511057</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0305998357192759</v>
+        <v>0.0354828702861078</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0451632969881874</v>
+        <v>0.0302471190880198</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0168292189295041</v>
+        <v>0.0326300373125095</v>
       </c>
     </row>
     <row r="11">
@@ -914,40 +914,40 @@
         <v>0.056716904840166</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0760773829582295</v>
+        <v>0.054002819175389</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0396825524847488</v>
+        <v>0.0599741416755771</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0660687891789714</v>
+        <v>0.0555583234183113</v>
       </c>
       <c r="F11" t="n">
-        <v>0.104843228928482</v>
+        <v>0.0662709821611198</v>
       </c>
       <c r="G11" t="n">
-        <v>0.014159722210974</v>
+        <v>0.0769299760853107</v>
       </c>
       <c r="H11" t="n">
-        <v>0.025407633031505</v>
+        <v>0.0534971431106934</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0225669937363323</v>
+        <v>0.060866857416974</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0708460094317157</v>
+        <v>0.0617825991333085</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0788431961023901</v>
+        <v>0.0527675753156081</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0572520575732079</v>
+        <v>0.0558079055566553</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0667788250673339</v>
+        <v>0.0593107615605331</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0969224639775969</v>
+        <v>0.0542543525858902</v>
       </c>
     </row>
     <row r="12">
@@ -958,40 +958,40 @@
         <v>0.0342537576791034</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0285810321015984</v>
+        <v>0.035382742132713</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0470858662461732</v>
+        <v>0.0334353171725797</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0234875506070802</v>
+        <v>0.032466683447332</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0160411397592199</v>
+        <v>0.041906321345758</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0194311019273794</v>
+        <v>0.0365807211705661</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0429775745519105</v>
+        <v>0.0285642597705836</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0254791605741127</v>
+        <v>0.0415869545085699</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0593844826034282</v>
+        <v>0.0444917994221355</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0503570096890786</v>
+        <v>0.0523186276833343</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0329699640193484</v>
+        <v>0.0279333346990553</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0727375725518122</v>
+        <v>0.0279071661072273</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0409030160139469</v>
+        <v>0.0273752887548734</v>
       </c>
     </row>
     <row r="13">
@@ -1002,40 +1002,40 @@
         <v>0.0307977545020423</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0229652582009926</v>
+        <v>0.0291676520544694</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0200129028080409</v>
+        <v>0.0327237802366998</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0168783113845352</v>
+        <v>0.0379184742125731</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0226455564837687</v>
+        <v>0.0617134980938545</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0335529035723479</v>
+        <v>0.0411003712315821</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0277457946720766</v>
+        <v>0.0233537133118383</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0221778791209507</v>
+        <v>0.0403923830847645</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0616809640253111</v>
+        <v>0.0386114017367125</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0524185495406972</v>
+        <v>0.0311613124114058</v>
       </c>
       <c r="L13" t="n">
-        <v>0.031611327212343</v>
+        <v>0.0250371683487277</v>
       </c>
       <c r="M13" t="n">
-        <v>0.078833731702319</v>
+        <v>0.033636697683734</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0285317367841366</v>
+        <v>0.0357978189146032</v>
       </c>
     </row>
     <row r="14">
@@ -1046,40 +1046,40 @@
         <v>0.0281522332945392</v>
       </c>
       <c r="C14" t="n">
-        <v>0.032137540406216</v>
+        <v>0.0286398202600756</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0317697001961927</v>
+        <v>0.0279226556087844</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0327403650164673</v>
+        <v>0.0284425156944259</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0274301731382448</v>
+        <v>0.0315691345781564</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0135855509559719</v>
+        <v>0.0388918448557982</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00876850084494933</v>
+        <v>0.0277850991313012</v>
       </c>
       <c r="I14" t="n">
-        <v>0.00900204311474215</v>
+        <v>0.0286254327095201</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0296857677140105</v>
+        <v>0.0261160711860088</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0298549846223802</v>
+        <v>0.0248939703673435</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0271406871056163</v>
+        <v>0.0342550826178505</v>
       </c>
       <c r="M14" t="n">
-        <v>0.038002807952361</v>
+        <v>0.0266833744958226</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0248953590181786</v>
+        <v>0.0255586980682555</v>
       </c>
     </row>
     <row r="15">
@@ -1090,40 +1090,40 @@
         <v>0.0505784877157686</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0628055413537351</v>
+        <v>0.0493765328105044</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0967229425870125</v>
+        <v>0.0519559638900056</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0990414024130997</v>
+        <v>0.05003070332008</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0712121167106187</v>
+        <v>0.0691744620183184</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0192584165036926</v>
+        <v>0.0519923016035444</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0298396309322474</v>
+        <v>0.0502792414216261</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0224825867351799</v>
+        <v>0.050964186420772</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0318830868482533</v>
+        <v>0.0405422156544065</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0247236894039557</v>
+        <v>0.0374257900061304</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0436513647006541</v>
+        <v>0.0381327670577445</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0224781683453838</v>
+        <v>0.0641769255216696</v>
       </c>
       <c r="N15" t="n">
-        <v>0.034661747215317</v>
+        <v>0.0509587726802282</v>
       </c>
     </row>
     <row r="16">
@@ -1134,40 +1134,40 @@
         <v>0.0713439078565564</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0699895179767085</v>
+        <v>0.0709263121045837</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0580277915846193</v>
+        <v>0.0720853289655463</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0905011121519962</v>
+        <v>0.0661293471725962</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0815087237826609</v>
+        <v>0.0832500394434679</v>
       </c>
       <c r="G16" t="n">
-        <v>0.121805398789136</v>
+        <v>0.0617618409777062</v>
       </c>
       <c r="H16" t="n">
-        <v>0.157615769948932</v>
+        <v>0.0655231527630953</v>
       </c>
       <c r="I16" t="n">
-        <v>0.175388107421608</v>
+        <v>0.0788462821403313</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0581076370793526</v>
+        <v>0.0805831254004006</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0413870067639357</v>
+        <v>0.059009566363099</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0766184838732736</v>
+        <v>0.0666698053580677</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0532306876372394</v>
+        <v>0.0804113453010442</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0613112453361222</v>
+        <v>0.070357261220281</v>
       </c>
     </row>
     <row r="17">
@@ -1178,40 +1178,40 @@
         <v>0.0428745196259142</v>
       </c>
       <c r="C17" t="n">
-        <v>0.00660601396909005</v>
+        <v>0.0359439575998953</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0390400262398602</v>
+        <v>0.0502464940077821</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0301304181919601</v>
+        <v>0.0587558491728394</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00693353597231826</v>
+        <v>0.126740897927431</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0172973481272055</v>
+        <v>0.049286768674206</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0276950918922753</v>
+        <v>0.0334131812824926</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0370017676144449</v>
+        <v>0.0550692435643119</v>
       </c>
       <c r="J17" t="n">
-        <v>0.118888909159326</v>
+        <v>0.0563756839585455</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0901804748665482</v>
+        <v>0.0253833607529802</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0207609587989337</v>
+        <v>0.0292202034930814</v>
       </c>
       <c r="M17" t="n">
-        <v>0.178501670412073</v>
+        <v>0.0594329969756187</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0257431911670831</v>
+        <v>0.046380892817311</v>
       </c>
     </row>
     <row r="18">
@@ -1222,40 +1222,40 @@
         <v>0.0119128883661543</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0108267432678467</v>
+        <v>0.0107151246204058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.00910906305666166</v>
+        <v>0.0128882306181419</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00733162622675163</v>
+        <v>0.0120084743979551</v>
       </c>
       <c r="F18" t="n">
-        <v>0.00941870984238275</v>
+        <v>0.00592623886801367</v>
       </c>
       <c r="G18" t="n">
-        <v>0.00195372983047388</v>
+        <v>0.00896377787086288</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.0145161249014582</v>
       </c>
       <c r="I18" t="n">
-        <v>0.00109415187211566</v>
+        <v>0.00855757543450593</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00634197286118563</v>
+        <v>0.00820376523610703</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0247129423575751</v>
+        <v>0.00774664283458784</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00916222029982776</v>
+        <v>0.0128064729767807</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0122565526290867</v>
+        <v>0.0136736380611697</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0132203426441282</v>
+        <v>0.0136158764694486</v>
       </c>
     </row>
     <row r="19">
@@ -1266,40 +1266,40 @@
         <v>0.00522839227819404</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0117827276945965</v>
+        <v>0.0059331367611723</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00791210424028141</v>
+        <v>0.00456768464651918</v>
       </c>
       <c r="E19" t="n">
-        <v>0.00696931396356029</v>
+        <v>0.00535716805939682</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00233134044136375</v>
+        <v>0.00314386671502926</v>
       </c>
       <c r="G19" t="n">
-        <v>0.00187796442370032</v>
+        <v>0.00758621954962873</v>
       </c>
       <c r="H19" t="n">
-        <v>0.00232809519149669</v>
+        <v>0.00534215114146035</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00117687336945847</v>
+        <v>0.00508176841984284</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0083680250719785</v>
+        <v>0.00548121746944203</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0103927736096965</v>
+        <v>0.00694144840120569</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00838768522850957</v>
+        <v>0.00569194721210692</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00438068849432101</v>
+        <v>0.00406680590726426</v>
       </c>
       <c r="N19" t="n">
-        <v>0.00697151878682827</v>
+        <v>0.00211452308616307</v>
       </c>
     </row>
     <row r="20">
@@ -1310,40 +1310,40 @@
         <v>0.00713033521644372</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00401878756234198</v>
+        <v>0.00671334456199261</v>
       </c>
       <c r="D20" t="n">
-        <v>0.00130411986248161</v>
+        <v>0.00761608850575975</v>
       </c>
       <c r="E20" t="n">
-        <v>0.00362391579571163</v>
+        <v>0.00739150975858946</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00606540619868509</v>
+        <v>0.0066357100313966</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.00903416415264581</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0020465434173719</v>
+        <v>0.00568420958765324</v>
       </c>
       <c r="I20" t="n">
-        <v>0.00331841516852047</v>
+        <v>0.00899424729560566</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0156548926658945</v>
+        <v>0.00848024225309875</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0127158266762141</v>
+        <v>0.00706604658882859</v>
       </c>
       <c r="L20" t="n">
-        <v>0.00885301411971321</v>
+        <v>0.00561327438524264</v>
       </c>
       <c r="M20" t="n">
-        <v>0.00761810119093502</v>
+        <v>0.0079636851363812</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0161669732669478</v>
+        <v>0.0099447081465897</v>
       </c>
     </row>
     <row r="21">
@@ -1354,40 +1354,40 @@
         <v>0.0355800343396342</v>
       </c>
       <c r="C21" t="n">
-        <v>0.037041056054547</v>
+        <v>0.0404579759928044</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0352140699862055</v>
+        <v>0.030184466629531</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0227572996299395</v>
+        <v>0.024833989325231</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0276238628093688</v>
+        <v>0.015021440221133</v>
       </c>
       <c r="G21" t="n">
-        <v>0.00336673726457029</v>
+        <v>0.0345506216830319</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00425068242081054</v>
+        <v>0.0402165402426033</v>
       </c>
       <c r="I21" t="n">
-        <v>0.00451370404502576</v>
+        <v>0.0296040394567569</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0363693325627407</v>
+        <v>0.03087775382811</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0494105915240823</v>
+        <v>0.0437896435327882</v>
       </c>
       <c r="L21" t="n">
-        <v>0.037657670264732</v>
+        <v>0.0398688485731887</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0372105148892749</v>
+        <v>0.0289245966388561</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0366013542504806</v>
+        <v>0.0277083998479035</v>
       </c>
     </row>
     <row r="22">
@@ -1398,40 +1398,40 @@
         <v>0.0226486065467759</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0219436241984806</v>
+        <v>0.0204388892851957</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0334965015105603</v>
+        <v>0.0245442058960491</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0217370923941624</v>
+        <v>0.0213679027570528</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0159382341263204</v>
+        <v>0.0175401657642223</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0174452597953956</v>
+        <v>0.0290083868720633</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0274563684382298</v>
+        <v>0.020408496687054</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0187059990856162</v>
+        <v>0.0255358853163787</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0257826657436445</v>
+        <v>0.0205277695290885</v>
       </c>
       <c r="K22" t="n">
-        <v>0.010891698227988</v>
+        <v>0.0288405690139186</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0132184396231086</v>
+        <v>0.0274445232812495</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0231245316955561</v>
+        <v>0.0168067157314561</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0178255976895187</v>
+        <v>0.0160898784420434</v>
       </c>
     </row>
     <row r="23">
@@ -1442,40 +1442,40 @@
         <v>0.0337267451643148</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0187688601812076</v>
+        <v>0.0333286424309885</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0331118776639651</v>
+        <v>0.0342224463764705</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0408351937094775</v>
+        <v>0.0305647466302129</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0391179067574271</v>
+        <v>0.0144231379453268</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0472349668800803</v>
+        <v>0.0204215759262773</v>
       </c>
       <c r="H23" t="n">
-        <v>0.080082666400495</v>
+        <v>0.0329941843075136</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0792872078973072</v>
+        <v>0.0346709432357195</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0149814365549109</v>
+        <v>0.0337497621334026</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0208802004799376</v>
+        <v>0.00799641162104561</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0207020596899573</v>
+        <v>0.0162457776458232</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0171470033252639</v>
+        <v>0.0567131092758384</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0226343109007845</v>
+        <v>0.0319330087452317</v>
       </c>
     </row>
     <row r="24">
@@ -1486,40 +1486,40 @@
         <v>0.0523198868477203</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0518870173286886</v>
+        <v>0.0455665967635642</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0458783712155574</v>
+        <v>0.0587866397576274</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0459448422429217</v>
+        <v>0.0587405321377433</v>
       </c>
       <c r="F24" t="n">
-        <v>0.049460801463327</v>
+        <v>0.0494077617359825</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0519477209100818</v>
+        <v>0.0628107749982462</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0368508463783393</v>
+        <v>0.0496414930827767</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0492931279576832</v>
+        <v>0.0557720699719527</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0458480911477213</v>
+        <v>0.0513969185679851</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0693976153354644</v>
+        <v>0.0573488002869268</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0520572845181971</v>
+        <v>0.0604843900351913</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0503560560518663</v>
+        <v>0.0453269205421238</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0564802162801264</v>
+        <v>0.0391470679182218</v>
       </c>
     </row>
     <row r="25">
@@ -1530,40 +1530,40 @@
         <v>0.0304715914718378</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0278769703125464</v>
+        <v>0.0253071102967273</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0569905553494618</v>
+        <v>0.0359513001141202</v>
       </c>
       <c r="E25" t="n">
-        <v>0.055721192826704</v>
+        <v>0.0386376755977053</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0362999072156857</v>
+        <v>0.0543176768408015</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0158282507886892</v>
+        <v>0.0359577122735963</v>
       </c>
       <c r="H25" t="n">
-        <v>0.016962147316014</v>
+        <v>0.0252562291968133</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01705215171168</v>
+        <v>0.0371936746353552</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0312619537203449</v>
+        <v>0.0297071620471506</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0294295890363419</v>
+        <v>0.02447986683605</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0237618656863092</v>
+        <v>0.0250047055868626</v>
       </c>
       <c r="M25" t="n">
-        <v>0.0213696967338295</v>
+        <v>0.0365595877309151</v>
       </c>
       <c r="N25" t="n">
-        <v>0.029939355049211</v>
+        <v>0.0348839540153482</v>
       </c>
     </row>
     <row r="26">
@@ -1574,40 +1574,40 @@
         <v>0.0204093025768012</v>
       </c>
       <c r="C26" t="n">
-        <v>0.020921372999125</v>
+        <v>0.0210488776885258</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0218724887691011</v>
+        <v>0.0199549669730188</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0239991766430117</v>
+        <v>0.0203037260657516</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0354684321564749</v>
+        <v>0.0290275234155096</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0050164473449444</v>
+        <v>0.0165798898918923</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0150694415975138</v>
+        <v>0.0201606098706221</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0195528690339972</v>
+        <v>0.0207298427358428</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0109006438079286</v>
+        <v>0.0186404112904734</v>
       </c>
       <c r="K26" t="n">
-        <v>0.025577976636821</v>
+        <v>0.0243897515023889</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0126278770118476</v>
+        <v>0.0202544236114789</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0173610557677197</v>
+        <v>0.0183590415237388</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0237839843333098</v>
+        <v>0.0182067788061847</v>
       </c>
     </row>
     <row r="27">
@@ -1618,40 +1618,40 @@
         <v>0.130903794941474</v>
       </c>
       <c r="C27" t="n">
-        <v>0.119330658632524</v>
+        <v>0.131414280313618</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0933655965983348</v>
+        <v>0.129700816053936</v>
       </c>
       <c r="E27" t="n">
-        <v>0.109691227663611</v>
+        <v>0.127294093265891</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0993467065095734</v>
+        <v>0.146202387424968</v>
       </c>
       <c r="G27" t="n">
-        <v>0.188531432418564</v>
+        <v>0.129543202153372</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18235186615384</v>
+        <v>0.135510212219691</v>
       </c>
       <c r="I27" t="n">
-        <v>0.175527692314547</v>
+        <v>0.124966581302774</v>
       </c>
       <c r="J27" t="n">
-        <v>0.121180454975985</v>
+        <v>0.136511477240726</v>
       </c>
       <c r="K27" t="n">
-        <v>0.138369370370004</v>
+        <v>0.158927991906128</v>
       </c>
       <c r="L27" t="n">
-        <v>0.139224410731928</v>
+        <v>0.136364173447363</v>
       </c>
       <c r="M27" t="n">
-        <v>0.099343528161711</v>
+        <v>0.113019212513578</v>
       </c>
       <c r="N27" t="n">
-        <v>0.154837460297559</v>
+        <v>0.138752343522713</v>
       </c>
     </row>
     <row r="28">
@@ -1662,40 +1662,40 @@
         <v>0.098119127133103</v>
       </c>
       <c r="C28" t="n">
-        <v>0.122381142760456</v>
+        <v>0.101050053537281</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0659061535282626</v>
+        <v>0.0950350293688177</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0998109525574283</v>
+        <v>0.101649409209241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.086408911531811</v>
+        <v>0.0857178752356797</v>
       </c>
       <c r="G28" t="n">
-        <v>0.204788204456465</v>
+        <v>0.0679509869768247</v>
       </c>
       <c r="H28" t="n">
-        <v>0.137447791358992</v>
+        <v>0.108349671757011</v>
       </c>
       <c r="I28" t="n">
-        <v>0.142539469790781</v>
+        <v>0.0849329728175501</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0799027110772461</v>
+        <v>0.101826007559871</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0771106285434343</v>
+        <v>0.0938835445535136</v>
       </c>
       <c r="L28" t="n">
-        <v>0.140238751016055</v>
+        <v>0.095763631160695</v>
       </c>
       <c r="M28" t="n">
-        <v>0.0667408376975231</v>
+        <v>0.101628051410061</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0742690113135692</v>
+        <v>0.0910101657002617</v>
       </c>
     </row>
   </sheetData>
